--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1322.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1322.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04427267174838346</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04427267174838346</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07083627479741354</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06338402137206353</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01195362137206352</v>
+        <v>0.01291641854940109</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01244235016253591</v>
+        <v>0.01344451170363441</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001536701235069847</v>
+        <v>0.001244441055515653</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008048159382198966</v>
+        <v>0.0007904435526059473</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001355092211922558</v>
+        <v>0.004507151664686848</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007738373072955349</v>
+        <v>0.000779901595925509</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003818003788518154</v>
+        <v>0.006697159843906786</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007800442763849958</v>
+        <v>0.0007779691348730792</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006569599999999953</v>
+        <v>0.001244441055515653</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008148130819101486</v>
+        <v>0.0007904435526059473</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002015171443437741</v>
+        <v>0.002743368359748803</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001609631876439793</v>
+        <v>0.001580887105211895</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002635239594890405</v>
+        <v>0.008475585598285734</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00154767461459107</v>
+        <v>0.001559803191851018</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007101219925262275</v>
+        <v>0.01323011423032183</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001560088552769992</v>
+        <v>0.001555938269746158</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01043506959824197</v>
+        <v>0.002743368359748803</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001479822034209564</v>
+        <v>0.001580887105211895</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003377179598401718</v>
+        <v>0.003922255249622475</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00241444781465969</v>
+        <v>0.002371330657817841</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003569599999999992</v>
+        <v>0.01220029496681926</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002229326749999995</v>
+        <v>0.002339704787776527</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01056959999999998</v>
+        <v>0.01851976613027845</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002410663599962368</v>
+        <v>0.002333907404619238</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0141984157049917</v>
+        <v>0.003922255249622475</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002219733051314345</v>
+        <v>0.002371330657817841</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005564494673259826</v>
+        <v>0.005569599999999994</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003219263752879586</v>
+        <v>0.003478389249999997</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.004543896538589998</v>
+        <v>0.01567627293630997</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00309534922918214</v>
+        <v>0.003119606383702036</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01255899757677562</v>
+        <v>0.02156959999999997</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003120177105539983</v>
+        <v>0.002728205044524964</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01890401218515303</v>
+        <v>0.005569599999999994</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002959644068419127</v>
+        <v>0.003478389249999997</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004147450054178637</v>
+        <v>0.003478389249999997</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006640900762257512</v>
+        <v>0.005569599999999994</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006640900762257512</v>
+        <v>0.006067012809117769</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004147450054178637</v>
+        <v>0.003952217763029737</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.005241630387225769</v>
+        <v>0.01756959999999999</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003869186536477675</v>
+        <v>0.003689788791138526</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01445748215775372</v>
+        <v>0.02693612356019637</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003900221381924979</v>
+        <v>0.003889845674365395</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02246856668106223</v>
+        <v>0.006067012809117769</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003699555085523909</v>
+        <v>0.003952217763029737</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005257955812670217</v>
+        <v>0.006749194485211031</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004828895629319379</v>
+        <v>0.004742661315635683</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.005979432551092581</v>
+        <v>0.02004680855444366</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00464302384377321</v>
+        <v>0.004679409575553054</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01617486037613794</v>
+        <v>0.03046514899350022</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004680265658309975</v>
+        <v>0.004667814809238475</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02550878683505559</v>
+        <v>0.006749194485211031</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004439466102628691</v>
+        <v>0.004742661315635683</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007899713001369615</v>
+        <v>0.007476187929000996</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005633711567539276</v>
+        <v>0.005533104868241631</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.006565791003680564</v>
+        <v>0.02135138448353099</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005416861151068745</v>
+        <v>0.005459311171478563</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.01823888083043979</v>
+        <v>0.0334954865528681</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005460309934694971</v>
+        <v>0.005445783944111555</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02864138028946922</v>
+        <v>0.007476187929000996</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005179377119733472</v>
+        <v>0.005533104868241631</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.007463771484944863</v>
+        <v>0.00805300079194296</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006438527505759173</v>
+        <v>0.006323548420847578</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.007409193718479805</v>
+        <v>0.02276847106371807</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006190698458364279</v>
+        <v>0.006239212767404072</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.01997729211917076</v>
+        <v>0.03564547827455916</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006240354211079966</v>
+        <v>0.006223753078984633</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0317830546866395</v>
+        <v>0.00805300079194296</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005919288136838254</v>
+        <v>0.006323548420847578</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008967556267980466</v>
+        <v>0.008684640725492201</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007243343443979068</v>
+        <v>0.007113991973453524</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.007818128668980427</v>
+        <v>0.02432635636492489</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006964535765659814</v>
+        <v>0.00701911436332958</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02131784284084232</v>
+        <v>0.03803346619483261</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007020398487464962</v>
+        <v>0.007001722213857712</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03485051766890274</v>
+        <v>0.008684640725492201</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006659199153943036</v>
+        <v>0.007113991973453524</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.007428492355060962</v>
+        <v>0.00947611538110401</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008048159382198964</v>
+        <v>0.007904435526059473</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.008601083828672543</v>
+        <v>0.02555332845707145</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00773837307295535</v>
+        <v>0.007799015959255089</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02268828159396591</v>
+        <v>0.04037779234994759</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007800442763849958</v>
+        <v>0.007779691348730791</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03796047687859494</v>
+        <v>0.00947611538110401</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007399110171047818</v>
+        <v>0.007904435526059473</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.007864004750770863</v>
+        <v>0.01003243241023371</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008852975320418862</v>
+        <v>0.008694879078665419</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.009066547171046262</v>
+        <v>0.02657767541007772</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008512210380250884</v>
+        <v>0.008578917555180598</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02421635697705316</v>
+        <v>0.04299679877616341</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008580487040234954</v>
+        <v>0.00855766048360387</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04102963995805248</v>
+        <v>0.01003243241023371</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008139021188152599</v>
+        <v>0.008694879078665419</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.009291518459694718</v>
+        <v>0.01035859946433657</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009657791258638759</v>
+        <v>0.009485322631271366</v>
       </c>
       <c r="J77" t="n">
-        <v>0.009523006669591723</v>
+        <v>0.02802768529386376</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00928604768754642</v>
+        <v>0.009358819151106108</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02552981758861542</v>
+        <v>0.04525116578262134</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009360531316619949</v>
+        <v>0.009539232589600113</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04327471454961163</v>
+        <v>0.01035859946433657</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008878932205257381</v>
+        <v>0.009485322631271366</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009728458486417027</v>
+        <v>0.01085962419486789</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01046260719685865</v>
+        <v>0.01027576618387731</v>
       </c>
       <c r="J78" t="n">
-        <v>0.010078950297799</v>
+        <v>0.0290837921660112</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01005988499484196</v>
+        <v>0.01017980397371508</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02685641202716432</v>
+        <v>0.04587832451595786</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01014057559300494</v>
+        <v>0.01011359875335003</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04525116578262134</v>
+        <v>0.01085962419486789</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009354004772326325</v>
+        <v>0.01027576618387731</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01019224983552235</v>
+        <v>0.01144051425328297</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01126742313507855</v>
+        <v>0.01106620973648326</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01064286602915823</v>
+        <v>0.02952240754235505</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01083372230213749</v>
+        <v>0.01091862234295713</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0290837921660112</v>
+        <v>0.04803100654944137</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01105548603597014</v>
+        <v>0.01089156788822311</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04768231172200288</v>
+        <v>0.01144051425328297</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01035875423946694</v>
+        <v>0.01106620973648326</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01195362137206352</v>
+        <v>0.01190627729103711</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01244235016253591</v>
+        <v>0.01185665328908921</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01142324183715952</v>
+        <v>0.03081518491863408</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01160755960943302</v>
+        <v>0.01169852393888263</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02986736251277786</v>
+        <v>0.04907158553737073</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01170066414577494</v>
+        <v>0.01166953702309619</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05077434384810614</v>
+        <v>0.01190627729103711</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01109866525657173</v>
+        <v>0.01185665328908921</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01027252291444069</v>
+        <v>0.01226192095958559</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01287705501151835</v>
+        <v>0.01264709684169516</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01192856569529297</v>
+        <v>0.03150876516837978</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01238139691672856</v>
+        <v>0.01247842553480814</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03160223950958796</v>
+        <v>0.05129875578702903</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01248070842215993</v>
+        <v>0.01244750615796927</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0534834940911792</v>
+        <v>0.01226192095958559</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01183857627367651</v>
+        <v>0.01264709684169516</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01292612342289165</v>
+        <v>0.01291641854940109</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01368187094973824</v>
+        <v>0.01344451170363441</v>
       </c>
       <c r="J82" t="n">
+        <v>0.0330019073917231</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.01325832713073365</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.05271121160569958</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.01322547529284234</v>
+      </c>
+      <c r="N82" t="n">
         <v>0.01291641854940109</v>
       </c>
-      <c r="K82" t="n">
+      <c r="O82" t="n">
         <v>0.01344451170363441</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.03320975597348003</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.01326075269854493</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.05529555408854897</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.01257848729078129</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01164939669568713</v>
+        <v>0.01316512071008211</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01448668688795814</v>
+        <v>0.01422798394690705</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01335644369465643</v>
+        <v>0.03359337068879492</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01392907153131963</v>
+        <v>0.01403822872665916</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03507059163555357</v>
+        <v>0.05460764730066542</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01404079697492992</v>
+        <v>0.01400344442771542</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05819631547754284</v>
+        <v>0.01316512071008211</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01331839830788607</v>
+        <v>0.01422798394690705</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01342772485084759</v>
+        <v>0.01372330371126119</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01529150282617803</v>
+        <v>0.015018427499513</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01402517567704025</v>
+        <v>0.03458191415972617</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01470290883861517</v>
+        <v>0.01481813032258467</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03676542622690818</v>
+        <v>0.05538675717920971</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01482084125131492</v>
+        <v>0.0147814135625885</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06067156989548789</v>
+        <v>0.01372330371126119</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01405830932499085</v>
+        <v>0.015018427499513</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01324649000639347</v>
+        <v>0.01418603507086096</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01609631876439793</v>
+        <v>0.01580887105211895</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01496105288916274</v>
+        <v>0.03556629690464777</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0154767461459107</v>
+        <v>0.01559803191851018</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0387749394786433</v>
+        <v>0.05714723554861556</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01560088552769992</v>
+        <v>0.01555938269746158</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06270710897971138</v>
+        <v>0.01418603507086096</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01479822034209564</v>
+        <v>0.01580887105211895</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01409107428034521</v>
+        <v>0.01465234769102273</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01690113470261783</v>
+        <v>0.01659931460472489</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01574802934791696</v>
+        <v>0.03664527802369066</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01625058345320623</v>
+        <v>0.01637793351443569</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0404798111218585</v>
+        <v>0.05918777671616604</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01638092980408491</v>
+        <v>0.01633735183233466</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06538872436754056</v>
+        <v>0.01465234769102273</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01553813135920042</v>
+        <v>0.01659931460472489</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01494685979072329</v>
+        <v>0.01502127447388787</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01770595064083772</v>
+        <v>0.01738975815733084</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01677005907019601</v>
+        <v>0.03751761661698569</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01702442076050177</v>
+        <v>0.0171578351103612</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04226072088765326</v>
+        <v>0.05990707498914433</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01716097408046991</v>
+        <v>0.01711532096720774</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06800220769630255</v>
+        <v>0.01502127447388787</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0162780423763052</v>
+        <v>0.01738975815733084</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01579922865554811</v>
+        <v>0.01559184832159769</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01851076657905762</v>
+        <v>0.01818020170993679</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01761109607289297</v>
+        <v>0.03878207178466381</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01779825806779731</v>
+        <v>0.01793773670628671</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04439834850712712</v>
+        <v>0.06210382467483355</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0179410183568549</v>
+        <v>0.01789329010208082</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07033335060332452</v>
+        <v>0.01559184832159769</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01701795339340998</v>
+        <v>0.01818020170993679</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01763356299284016</v>
+        <v>0.01596310213629353</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01931558251727752</v>
+        <v>0.01897064526254273</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0184550943729009</v>
+        <v>0.03963740262685594</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01857209537509284</v>
+        <v>0.01871763830221222</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04607337371137959</v>
+        <v>0.06307672008051685</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0187210626332399</v>
+        <v>0.0186712592369539</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07206794472593381</v>
+        <v>0.01596310213629353</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01775786441051476</v>
+        <v>0.01897064526254273</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01743524492061985</v>
+        <v>0.01643406882011673</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02012039845549741</v>
+        <v>0.01976108881514868</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01958600798711291</v>
+        <v>0.04038236824369304</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01934593268238837</v>
+        <v>0.01949753989813773</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04756647623151025</v>
+        <v>0.06432445551347732</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01950110690962489</v>
+        <v>0.01944922837182698</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07369178170145746</v>
+        <v>0.01643406882011673</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01849777542761954</v>
+        <v>0.01976108881514868</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02018965655690765</v>
+        <v>0.01710378127520863</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02092521439371731</v>
+        <v>0.02055153236775463</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02038779093242205</v>
+        <v>0.041415727735306</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02011976998968391</v>
+        <v>0.02027744149406323</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04865833579861856</v>
+        <v>0.06654572528099811</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02028115118600989</v>
+        <v>0.02022719750670006</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07559065316722274</v>
+        <v>0.01710378127520863</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01923768644472433</v>
+        <v>0.02055153236775463</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01988218001972402</v>
+        <v>0.01757127240371053</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0217300303319372</v>
+        <v>0.02134197592036058</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02124439722572143</v>
+        <v>0.04223624020182565</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02089360729697945</v>
+        <v>0.02105734308998874</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05022963214380408</v>
+        <v>0.06773922369036239</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02106119546239489</v>
+        <v>0.02100516664157314</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07735035076055685</v>
+        <v>0.01757127240371053</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01997759746182911</v>
+        <v>0.02134197592036058</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02149819742708938</v>
+        <v>0.01803557510776379</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02253484627015711</v>
+        <v>0.02213241947296652</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02213978088390412</v>
+        <v>0.04344266474338307</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02166744460427498</v>
+        <v>0.02183724468591425</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05176104499816625</v>
+        <v>0.06870364504885329</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02184123973877988</v>
+        <v>0.02178313577644622</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07945666611878699</v>
+        <v>0.01803557510776379</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02071750847893389</v>
+        <v>0.02213241947296652</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02102309089702421</v>
+        <v>0.01849572228950973</v>
       </c>
       <c r="G94" t="n">
-        <v>0.023339662208377</v>
+        <v>0.02292286302557247</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0226578959238632</v>
+        <v>0.04403376046010904</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02244128191157051</v>
+        <v>0.02261714628183976</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0523332540928047</v>
+        <v>0.06983768366375376</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02262128401516488</v>
+        <v>0.0225611049113193</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08049539087924035</v>
+        <v>0.01849572228950973</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02145741949603867</v>
+        <v>0.02292286302557247</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02144224254754893</v>
+        <v>0.0187507468510897</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0241444781465969</v>
+        <v>0.02371330657817842</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02348269636249176</v>
+        <v>0.04490828645213454</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02321511921886605</v>
+        <v>0.02339704787776527</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0535269391588189</v>
+        <v>0.07144003384234721</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02340132829154987</v>
+        <v>0.02333907404619237</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08165231667924416</v>
+        <v>0.0187507468510897</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02219733051314345</v>
+        <v>0.02371330657817842</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.021741034496684</v>
+        <v>0.01929968169464503</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02494929408481679</v>
+        <v>0.02450375013078436</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02389813621668286</v>
+        <v>0.04576500181959048</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02398895652616159</v>
+        <v>0.02417694947369078</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05402277992730839</v>
+        <v>0.07280938989191649</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02418137256793487</v>
+        <v>0.02411704318106546</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08291323515612564</v>
+        <v>0.01929968169464503</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02293724153024823</v>
+        <v>0.02450375013078436</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02190484886244986</v>
+        <v>0.01974155972231701</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02575411002303669</v>
+        <v>0.02529419368339031</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02428816950332962</v>
+        <v>0.04670266566260778</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02476279383345712</v>
+        <v>0.02495685106961629</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05450145612937268</v>
+        <v>0.07394444611974504</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02496141684431986</v>
+        <v>0.02489501231593853</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08356393794721184</v>
+        <v>0.01974155972231701</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02367715254735302</v>
+        <v>0.02529419368339031</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02192520599040785</v>
+        <v>0.02007541383624702</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02655892596125659</v>
+        <v>0.02608463723599626</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0245367502393251</v>
+        <v>0.04772003708131736</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02553663114075265</v>
+        <v>0.02573675266554179</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05494364749611128</v>
+        <v>0.07564389683311568</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02574146112070486</v>
+        <v>0.02567298145081161</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08449021668983009</v>
+        <v>0.02007541383624702</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0244170635644578</v>
+        <v>0.02608463723599626</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02085106488257606</v>
+        <v>0.02060027693857642</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02736374189947648</v>
+        <v>0.02687508078860221</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02472783244156238</v>
+        <v>0.04831587517585009</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02631046844804819</v>
+        <v>0.0265166542614673</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05482966486803295</v>
+        <v>0.07670643633931173</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02652150539708985</v>
+        <v>0.02645095058568469</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08507786302130749</v>
+        <v>0.02060027693857642</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02515697458156258</v>
+        <v>0.02687508078860221</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02070482363808484</v>
+        <v>0.02111518193144648</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02816855783769638</v>
+        <v>0.02766552434120815</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02460532656362329</v>
+        <v>0.0488889390463369</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02708430575534372</v>
+        <v>0.02729655585739281</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05465991940817555</v>
+        <v>0.07763075894561622</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02730154967347485</v>
+        <v>0.02722891972055777</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08471266857897142</v>
+        <v>0.02111518193144648</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02589688559866736</v>
+        <v>0.02766552434120815</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02249722310717119</v>
+        <v>0.02141916171699857</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02897337377591627</v>
+        <v>0.0284559678938141</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02443641118680184</v>
+        <v>0.04983798779290879</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02785814306263926</v>
+        <v>0.02807645745331832</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05386698027334832</v>
+        <v>0.07901555895931228</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02808159394985985</v>
+        <v>0.02800688885543085</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08451171903670485</v>
+        <v>0.02141916171699857</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02663679661577214</v>
+        <v>0.0284559678938141</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02023900414007217</v>
+        <v>0.021711249197374</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02977818971413617</v>
+        <v>0.02924641144642005</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02432564431592033</v>
+        <v>0.05056178051569662</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02863198036993479</v>
+        <v>0.02885635904924383</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05348550206321309</v>
+        <v>0.07995953068768324</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02886163822624484</v>
+        <v>0.02878485799030393</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08403221514147552</v>
+        <v>0.021711249197374</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02737670763287692</v>
+        <v>0.02924641144642005</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02094090758702482</v>
+        <v>0.02209047727471412</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03058300565235606</v>
+        <v>0.030036854999026</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02427748445402552</v>
+        <v>0.05105907631483125</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02940581767723033</v>
+        <v>0.02963626064516934</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0523501393774316</v>
+        <v>0.08106136843801193</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02964168250262984</v>
+        <v>0.029562827125177</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08392674398993288</v>
+        <v>0.02209047727471412</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02811661864998171</v>
+        <v>0.030036854999026</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02161367429826617</v>
+        <v>0.02265587885116028</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03138782159057597</v>
+        <v>0.03082729855163194</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02419639010416417</v>
+        <v>0.0519286342904437</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03017965498452586</v>
+        <v>0.03041616224109485</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05169554681566557</v>
+        <v>0.0818197665175816</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03042172677901484</v>
+        <v>0.03034079626005009</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08254790793286715</v>
+        <v>0.02265587885116028</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02885652966708649</v>
+        <v>0.03082729855163194</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02126804512403326</v>
+        <v>0.02290648682885376</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03219263752879586</v>
+        <v>0.03161774210423789</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02388681976938294</v>
+        <v>0.05246921354266482</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0309534922918214</v>
+        <v>0.03119606383702036</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05035637897757678</v>
+        <v>0.08233341923367554</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03120177105539983</v>
+        <v>0.03111876539492316</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08084830932106857</v>
+        <v>0.02290648682885376</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02959644068419127</v>
+        <v>0.03161774210423789</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02091476091456313</v>
+        <v>0.02334133410993593</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03299745346701576</v>
+        <v>0.03240818565684384</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02365323195272864</v>
+        <v>0.0532795731716256</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03172732959911693</v>
+        <v>0.03197596543294587</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04926729046282702</v>
+        <v>0.08330102089357672</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03198181533178483</v>
+        <v>0.03189673452979624</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07908055050532753</v>
+        <v>0.02334133410993593</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03033635170129605</v>
+        <v>0.03240818565684384</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01856456252009282</v>
+        <v>0.02355945359654812</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03380226940523565</v>
+        <v>0.03319862920944978</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02350008515724796</v>
+        <v>0.05365847227745682</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03250116690641246</v>
+        <v>0.03275586702887137</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04836293587107804</v>
+        <v>0.0844212658045681</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03276185960816982</v>
+        <v>0.03267470366466933</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07719723383643418</v>
+        <v>0.02355945359654812</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03107626271840083</v>
+        <v>0.03319862920944978</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01822819079085938</v>
+        <v>0.02385987819083168</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03460708534345555</v>
+        <v>0.03398907276205573</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02303183788598762</v>
+        <v>0.05450466996028958</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03327500421370801</v>
+        <v>0.03353576862479688</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04707796980199155</v>
+        <v>0.08459284827393315</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03354190388455482</v>
+        <v>0.0334526727995424</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07595096166517895</v>
+        <v>0.02385987819083168</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03181617373550562</v>
+        <v>0.03398907276205573</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01791638657709981</v>
+        <v>0.02414164079492791</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03541190128167545</v>
+        <v>0.03477951631466168</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02285294864199441</v>
+        <v>0.05501692532025462</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03404884152100354</v>
+        <v>0.03431567022072239</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04634704685522939</v>
+        <v>0.0854144626089548</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03432194816093981</v>
+        <v>0.03423064193441548</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07369433634235212</v>
+        <v>0.02414164079492791</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0325560847526104</v>
+        <v>0.03477951631466168</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01763989072905119</v>
+        <v>0.02430377431097818</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03621671721989534</v>
+        <v>0.03556995986726762</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02246787592831503</v>
+        <v>0.05559399745748297</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03482267882829907</v>
+        <v>0.0350955718166479</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04560482163045332</v>
+        <v>0.08618480311691623</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03510199243732481</v>
+        <v>0.03500861106928856</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07287996021874393</v>
+        <v>0.02430377431097818</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03329599576971518</v>
+        <v>0.03556995986726762</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01940944409695055</v>
+        <v>0.02464531164112378</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03702153315811524</v>
+        <v>0.03636040341987357</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0222810782479962</v>
+        <v>0.0556346454721055</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03559651613559461</v>
+        <v>0.03587547341257341</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04458594872732502</v>
+        <v>0.08710256410510053</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03588203671370981</v>
+        <v>0.03578658020416164</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07036043564514471</v>
+        <v>0.02464531164112378</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03403590678681996</v>
+        <v>0.03636040341987357</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01823578753103492</v>
+        <v>0.02486528568750607</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03782634909633514</v>
+        <v>0.03715084697247952</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02209701410408468</v>
+        <v>0.05623762846425312</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03637035344289014</v>
+        <v>0.03665537500849892</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04412508274550631</v>
+        <v>0.08716643988079087</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0366620809900948</v>
+        <v>0.03656454933903472</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06978836497234475</v>
+        <v>0.02486528568750607</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03477581780392475</v>
+        <v>0.03715084697247952</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01712966188154134</v>
+        <v>0.0250627293522664</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03863116503455503</v>
+        <v>0.03794129052508546</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02172014199962718</v>
+        <v>0.05630170553405683</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03714419075018568</v>
+        <v>0.03743527660442443</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04315687828465897</v>
+        <v>0.0884751247512704</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0374421252664798</v>
+        <v>0.0373425184739078</v>
       </c>
       <c r="N113" t="n">
-        <v>0.06821635055113429</v>
+        <v>0.0250627293522664</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03551572882102953</v>
+        <v>0.03794129052508546</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01910110407405571</v>
+        <v>0.02513667553754604</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03943598097277493</v>
+        <v>0.03873173407769142</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02145492043767045</v>
+        <v>0.05712563578164742</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03791802805748121</v>
+        <v>0.03821517820034994</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04331598994444472</v>
+        <v>0.08822731302382214</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0382221695428648</v>
+        <v>0.03812048760878088</v>
       </c>
       <c r="N114" t="n">
-        <v>0.06729699473230372</v>
+        <v>0.02513667553754604</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03625563983813431</v>
+        <v>0.03873173407769142</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01912609321574869</v>
+        <v>0.02548615714548639</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04024079691099482</v>
+        <v>0.03952217763029736</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02130580792126124</v>
+        <v>0.05720817830715594</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03869186536477674</v>
+        <v>0.03899507979627545</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04340763873244718</v>
+        <v>0.0886216990057293</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03900221381924979</v>
+        <v>0.03889845674365396</v>
       </c>
       <c r="N115" t="n">
-        <v>0.06658289986664329</v>
+        <v>0.02548615714548639</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03699555085523909</v>
+        <v>0.03952217763029736</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01718628213423389</v>
+        <v>0.02561020707822876</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04104561284921473</v>
+        <v>0.04031262118290331</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02087726295344624</v>
+        <v>0.0572480922107132</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03946570267207229</v>
+        <v>0.03977498139220095</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04341461113294737</v>
+        <v>0.08885697700427514</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03978225809563479</v>
+        <v>0.03967642587852704</v>
       </c>
       <c r="N116" t="n">
-        <v>0.06552666830494314</v>
+        <v>0.02561020707822876</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03773546187234387</v>
+        <v>0.04031262118290331</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01827885903409383</v>
+        <v>0.02560785823791447</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04185042878743462</v>
+        <v>0.04110306473550926</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02067374403727223</v>
+        <v>0.05754413659245017</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04023953997936782</v>
+        <v>0.04055488298812646</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0432144006473463</v>
+        <v>0.08983184132674249</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04056230237201978</v>
+        <v>0.04045439501340011</v>
       </c>
       <c r="N117" t="n">
-        <v>0.06632370603181442</v>
+        <v>0.02560785823791447</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03847537288944865</v>
+        <v>0.04110306473550926</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01940101211991099</v>
+        <v>0.02577814352668487</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04265524472565452</v>
+        <v>0.0418935082881152</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02059970967578591</v>
+        <v>0.05769507055249776</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04101337728666335</v>
+        <v>0.04133478458405197</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04349988266152918</v>
+        <v>0.08934498628041471</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04134234664840478</v>
+        <v>0.04123236414827319</v>
       </c>
       <c r="N118" t="n">
-        <v>0.06638067317616031</v>
+        <v>0.02577814352668487</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03921528390655343</v>
+        <v>0.0418935082881152</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01754992959626791</v>
+        <v>0.02583283709880218</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04346006066387441</v>
+        <v>0.04268395184072115</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02055961837203404</v>
+        <v>0.05799965319098688</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04178721459395889</v>
+        <v>0.04211468617997748</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04416393256138135</v>
+        <v>0.08959510617257488</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04212239092478978</v>
+        <v>0.04201033328314627</v>
       </c>
       <c r="N119" t="n">
-        <v>0.06676833041185409</v>
+        <v>0.02583283709880218</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03995519492365821</v>
+        <v>0.04268395184072115</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0197227996677471</v>
+        <v>0.02573280264589577</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04426487660209431</v>
+        <v>0.0434743953933271</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02035792862906332</v>
+        <v>0.05816758433202243</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04256105190125442</v>
+        <v>0.04289458777590299</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04449942573278798</v>
+        <v>0.09050233156524273</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04290243520117477</v>
+        <v>0.04278830241801936</v>
       </c>
       <c r="N120" t="n">
-        <v>0.06727743210579484</v>
+        <v>0.02573280264589577</v>
       </c>
       <c r="O120" t="n">
-        <v>0.040695105940763</v>
+        <v>0.0434743953933271</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01891681053893105</v>
+        <v>0.02582615628582457</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04506969254031421</v>
+        <v>0.04426483894593305</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02029909894992053</v>
+        <v>0.05786649675940606</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04333488920854996</v>
+        <v>0.0436744893718285</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04519923756163438</v>
+        <v>0.08980035271131553</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04368247947755977</v>
+        <v>0.04356627155289244</v>
       </c>
       <c r="N121" t="n">
-        <v>0.06769873262488152</v>
+        <v>0.02582615628582457</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04143501695786778</v>
+        <v>0.04426483894593305</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02012915041440231</v>
+        <v>0.02580835791398566</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0458745084785341</v>
+        <v>0.04505528249853899</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02018804668690705</v>
+        <v>0.05765044884868842</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04410872651584549</v>
+        <v>0.04445439096775401</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04555624343380577</v>
+        <v>0.09003010730868383</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04446252375394476</v>
+        <v>0.04434424068776551</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0683229863360133</v>
+        <v>0.02580835791398566</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04217492797497256</v>
+        <v>0.04505528249853899</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02035700749874337</v>
+        <v>0.02567992672296229</v>
       </c>
       <c r="G123" t="n">
-        <v>0.046679324416754</v>
+        <v>0.04584572605114494</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02033550317393195</v>
+        <v>0.05781571162193816</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04488256382314102</v>
+        <v>0.04523429256367952</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04646331873518736</v>
+        <v>0.08966360465487272</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04524256803032976</v>
+        <v>0.04512220982263859</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06834094760608916</v>
+        <v>0.02567992672296229</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04291483899207734</v>
+        <v>0.04584572605114494</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02059756999653672</v>
+        <v>0.02564138190533772</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04748414035497389</v>
+        <v>0.04663616960375089</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02034014073024342</v>
+        <v>0.0580629131746265</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04565640113043656</v>
+        <v>0.04601419415960502</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04711333885166447</v>
+        <v>0.08940675556030864</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04602261230671476</v>
+        <v>0.04590017895751167</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06974337080200832</v>
+        <v>0.02564138190533772</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04365475000918212</v>
+        <v>0.04663616960375089</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01884802611236491</v>
+        <v>0.02549324265369517</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0482889562931938</v>
+        <v>0.04742661315635684</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02069623845677077</v>
+        <v>0.05779268160222464</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0464302384377321</v>
+        <v>0.04679409575553053</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04749917916912233</v>
+        <v>0.08916547083541793</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04680265658309975</v>
+        <v>0.04667814809238475</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06992101029066966</v>
+        <v>0.02549324265369517</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04439466102628691</v>
+        <v>0.04742661315635684</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01910556405081044</v>
+        <v>0.0254360281606179</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04909377223141369</v>
+        <v>0.04821705670896279</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02089807545444321</v>
+        <v>0.05760564500020388</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04720407574502763</v>
+        <v>0.04757399735145604</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04801371507344618</v>
+        <v>0.08844566129062709</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04758270085948474</v>
+        <v>0.04745611722725782</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07146462043897234</v>
+        <v>0.0254360281606179</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04513457204339168</v>
+        <v>0.04821705670896279</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01936737201645581</v>
+        <v>0.02537025761868918</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04989858816963359</v>
+        <v>0.04900750026156873</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02093993082419005</v>
+        <v>0.05730243146403527</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04797791305232317</v>
+        <v>0.04835389894738155</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04924982195052127</v>
+        <v>0.08875323773636262</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04836274513586974</v>
+        <v>0.04823408636213091</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07276495561381546</v>
+        <v>0.02537025761868918</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04587448306049647</v>
+        <v>0.04900750026156873</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02163063821388355</v>
+        <v>0.0254964502204922</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05070340410785348</v>
+        <v>0.04979794381417468</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02131608366694055</v>
+        <v>0.05728366908919014</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04875175035961871</v>
+        <v>0.04913380054330706</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04950037518623288</v>
+        <v>0.08739411098305083</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04914278941225474</v>
+        <v>0.04901205549700399</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07301277018209806</v>
+        <v>0.0254964502204922</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04661439407760125</v>
+        <v>0.04979794381417468</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02189255084767618</v>
+        <v>0.02531512515861024</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05150822004607338</v>
+        <v>0.05058838736678063</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02152081308362393</v>
+        <v>0.05744998597113968</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04952558766691424</v>
+        <v>0.04991370213923257</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05065825016646622</v>
+        <v>0.08687419184111833</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04992283368863973</v>
+        <v>0.04979002463187707</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07419881851071919</v>
+        <v>0.02531512515861024</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04735430509470603</v>
+        <v>0.05058838736678063</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02215029812241618</v>
+        <v>0.02512680162562652</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05231303598429328</v>
+        <v>0.05137883091938657</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02204839817516948</v>
+        <v>0.05700201020535503</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05029942497420977</v>
+        <v>0.05069360373515808</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05151632227710654</v>
+        <v>0.08659939112099141</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05070287796502473</v>
+        <v>0.05056799376675015</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07521385496657784</v>
+        <v>0.02512680162562652</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04809421611181081</v>
+        <v>0.05137883091938657</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02140106824268608</v>
+        <v>0.02523199881412431</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05311785192251318</v>
+        <v>0.05216927447199252</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02229311804250645</v>
+        <v>0.05724036988730749</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05107326228150531</v>
+        <v>0.05147350533108359</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05216746690403917</v>
+        <v>0.08577561963309654</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05148292224140973</v>
+        <v>0.05134596290162322</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07654863391657335</v>
+        <v>0.02523199881412431</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0488341271289156</v>
+        <v>0.05216927447199252</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0206420494130684</v>
+        <v>0.02513123591668683</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05392266786073307</v>
+        <v>0.05295971802459847</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02264925178656414</v>
+        <v>0.0568656931124682</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05184709958880084</v>
+        <v>0.0522534069270091</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05290455943314926</v>
+        <v>0.08510878818786027</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05226296651779472</v>
+        <v>0.0521239320364963</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07819390972760443</v>
+        <v>0.02513123591668683</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04957403814602038</v>
+        <v>0.05295971802459847</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02287042983814564</v>
+        <v>0.02502503212589734</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05472748379895296</v>
+        <v>0.05375016157720441</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02311107850827176</v>
+        <v>0.05637860797630842</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05262093689609638</v>
+        <v>0.05303330852293461</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0536204752503221</v>
+        <v>0.08400480759570894</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05304301079417971</v>
+        <v>0.05290190117136938</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07874043676657044</v>
+        <v>0.02502503212589734</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05031394916312516</v>
+        <v>0.05375016157720441</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02108339772250031</v>
+        <v>0.02481390663433907</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05553229973717286</v>
+        <v>0.05454060512981036</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02347287730855861</v>
+        <v>0.05647974257429933</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05339477420339191</v>
+        <v>0.05381321011886012</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05440808974144293</v>
+        <v>0.08316958866706903</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05382305507056471</v>
+        <v>0.05367987030624246</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07987896940037026</v>
+        <v>0.02481390663433907</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05105386018022994</v>
+        <v>0.05454060512981036</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02327814127071493</v>
+        <v>0.02459837863459528</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05633711567539276</v>
+        <v>0.0553310486824163</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02362892728835393</v>
+        <v>0.05636972500191217</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05416861151068745</v>
+        <v>0.05459311171478563</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05456027829239704</v>
+        <v>0.08260904221236698</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0546030993469497</v>
+        <v>0.05445783944111554</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08130026199590307</v>
+        <v>0.02459837863459528</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05179377119733473</v>
+        <v>0.0553310486824163</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02145184868737204</v>
+        <v>0.02467896731924919</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05714193161361265</v>
+        <v>0.05612149223502225</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02397350754858699</v>
+        <v>0.05604918335461809</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05494244881798298</v>
+        <v>0.05537301331071113</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05536991628906965</v>
+        <v>0.08122907904202931</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05538314362333471</v>
+        <v>0.05523580857598862</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08249506892006786</v>
+        <v>0.02467896731924919</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05253368221443951</v>
+        <v>0.05612149223502225</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0236017081770541</v>
+        <v>0.02455619188088406</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05794674755183254</v>
+        <v>0.0569119357876282</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02430089719018707</v>
+        <v>0.05571874572788835</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05571628612527851</v>
+        <v>0.05615291490663664</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05572987911734598</v>
+        <v>0.08083560996648226</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0561631878997197</v>
+        <v>0.0560137777108617</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0834541445397638</v>
+        <v>0.02455619188088406</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05327359323154428</v>
+        <v>0.0569119357876282</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02172490794434364</v>
+        <v>0.02423057151208314</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05875156349005245</v>
+        <v>0.05770237934023415</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0246053753140834</v>
+        <v>0.05557904021719412</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05649012343257406</v>
+        <v>0.05693281650256216</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05653304216311136</v>
+        <v>0.08013454579615253</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0569432321761047</v>
+        <v>0.05679174684573478</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08456824322188988</v>
+        <v>0.02423057151208314</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05401350424864906</v>
+        <v>0.05770237934023415</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02381863619382318</v>
+        <v>0.02420262540542966</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05955637942827235</v>
+        <v>0.05849282289284009</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02488122102120526</v>
+        <v>0.05513069491800665</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05726396073986958</v>
+        <v>0.05771271809848767</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05707228081225096</v>
+        <v>0.07933179734146634</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05772327645248969</v>
+        <v>0.05756971598060786</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08492811933334515</v>
+        <v>0.02420262540542966</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05475341526575385</v>
+        <v>0.05849282289284009</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02288008113007525</v>
+        <v>0.02397287275350688</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06036119536649224</v>
+        <v>0.05928326644544604</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02532271341248194</v>
+        <v>0.05517433792579718</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05803779804716512</v>
+        <v>0.05849261969441316</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05704047045065011</v>
+        <v>0.07843327541285028</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05850332072887468</v>
+        <v>0.05834768511548094</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08662452724102876</v>
+        <v>0.02397287275350688</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05549332628285863</v>
+        <v>0.05928326644544604</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02390643095768232</v>
+        <v>0.02384183274889803</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06116601130471213</v>
+        <v>0.060073709998052</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02552413158884265</v>
+        <v>0.05471059733603684</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05881163535446066</v>
+        <v>0.05927252129033868</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05733048646419397</v>
+        <v>0.07694489082073075</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05928336500525968</v>
+        <v>0.05912565425035401</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08714822131183969</v>
+        <v>0.02384183274889803</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05623323729996341</v>
+        <v>0.060073709998052</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02390724274412705</v>
+        <v>0.02371002458418634</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06197082724293203</v>
+        <v>0.06086415355065794</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02547975465121669</v>
+        <v>0.05454010124419684</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05958547266175619</v>
+        <v>0.06005242288626419</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05773520423876788</v>
+        <v>0.07577255437553415</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06006340928164467</v>
+        <v>0.05990362338522709</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08828995591267713</v>
+        <v>0.02371002458418634</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05697314831706819</v>
+        <v>0.06086415355065794</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02190658286859203</v>
+        <v>0.0235779674519551</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06277564318115193</v>
+        <v>0.06165459710326389</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02568386170053331</v>
+        <v>0.05396347774574842</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06035930996905173</v>
+        <v>0.0608323244821897</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05816758433202243</v>
+        <v>0.07522217688768701</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06084345355802968</v>
+        <v>0.06068159252010017</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0886404854104399</v>
+        <v>0.0235779674519551</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05771305933417298</v>
+        <v>0.06165459710326389</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02190564315298548</v>
+        <v>0.0234461805447875</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06358045911937182</v>
+        <v>0.06244504065586983</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02583283709880218</v>
+        <v>0.05398135493616282</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06113314727634726</v>
+        <v>0.0616122260781152</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05786755188350884</v>
+        <v>0.07449966916761563</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06162349783441467</v>
+        <v>0.06145956165497326</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08929056417202746</v>
+        <v>0.0234461805447875</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05845297035127776</v>
+        <v>0.06244504065586983</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02290429494432458</v>
+        <v>0.02341518305526683</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06438527505759171</v>
+        <v>0.06323548420847579</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02573279693551683</v>
+        <v>0.0534943609109112</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0619069845836428</v>
+        <v>0.06239212767404071</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05796714591991678</v>
+        <v>0.07421094202574663</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06240354211079966</v>
+        <v>0.06223753078984633</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0892309465643385</v>
+        <v>0.02341518305526683</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05919288136838254</v>
+        <v>0.06323548420847579</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02290253893722933</v>
+        <v>0.02338549417597629</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06519009099581162</v>
+        <v>0.06402592776108172</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0257326156294835</v>
+        <v>0.05320312376546479</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06268082189093833</v>
+        <v>0.06317202926996622</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05786627399471206</v>
+        <v>0.0725619062725063</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06318358638718466</v>
+        <v>0.0630154999247194</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09005238695427231</v>
+        <v>0.02338549417597629</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05993279238548732</v>
+        <v>0.06402592776108172</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02190037582631973</v>
+        <v>0.02305763309949915</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06599490693403151</v>
+        <v>0.06481637131368767</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02563228727993983</v>
+        <v>0.05290827159529476</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06345465919823386</v>
+        <v>0.06395193086589174</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05766493442892262</v>
+        <v>0.07245847271832118</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06396363066356965</v>
+        <v>0.06379346905959249</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09050233156524273</v>
+        <v>0.02305763309949915</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0606727034025921</v>
+        <v>0.06481637131368767</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02289780630621577</v>
+        <v>0.02313211901841866</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0667997228722514</v>
+        <v>0.06560681486629362</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0257318107600147</v>
+        <v>0.05291043249587243</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06422849650552941</v>
+        <v>0.06473183246181724</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05816312554357647</v>
+        <v>0.07120655217361777</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06474367493995464</v>
+        <v>0.06457143819446558</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08960224374408793</v>
+        <v>0.02313211901841866</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06141261441969689</v>
+        <v>0.06560681486629362</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02189483107153747</v>
+        <v>0.02300947112531803</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06760453881047131</v>
+        <v>0.06639725841889957</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02583118494283693</v>
+        <v>0.05261023456266889</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06500233381282493</v>
+        <v>0.06551173405774274</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05786084565970154</v>
+        <v>0.07091043851608247</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06552371921633963</v>
+        <v>0.06534940732933865</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09039341174569049</v>
+        <v>0.02300947112531803</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06215252543680166</v>
+        <v>0.06639725841889957</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0238914508169048</v>
+        <v>0.02288950033155408</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06840935474869121</v>
+        <v>0.06718770197150552</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02583040870153539</v>
+        <v>0.05240830589115542</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06577617112012046</v>
+        <v>0.06629163565366826</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05795809309832575</v>
+        <v>0.07094159111361831</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06630376349272464</v>
+        <v>0.06612737646421173</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08967052952108451</v>
+        <v>0.02288950033155408</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06289243645390645</v>
+        <v>0.06718770197150552</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02188766623693774</v>
+        <v>0.02266554993007202</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0692141706869111</v>
+        <v>0.06797814552411147</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02562948090923892</v>
+        <v>0.05170527457680316</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06655000842741601</v>
+        <v>0.06707153724959376</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05765486618047713</v>
+        <v>0.0697870724964772</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06708380776910965</v>
+        <v>0.0669053455990848</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08973420109248853</v>
+        <v>0.02266554993007202</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06363234747101124</v>
+        <v>0.06797814552411147</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02188347802625629</v>
+        <v>0.0225360996073774</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07001898662513099</v>
+        <v>0.06876858907671742</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02562840043907638</v>
+        <v>0.05130176871508338</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06732384573471153</v>
+        <v>0.06785143884551928</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05765116322718361</v>
+        <v>0.06974619664905501</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06786385204549464</v>
+        <v>0.06768331473395789</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09038503048212104</v>
+        <v>0.0225360996073774</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06437225848811601</v>
+        <v>0.06876858907671742</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0238788868794805</v>
+        <v>0.02240145179009754</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0708238025633509</v>
+        <v>0.06955903262932335</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02572716616417659</v>
+        <v>0.05109841640146726</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06809768304200707</v>
+        <v>0.06863134044144478</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05794698255947317</v>
+        <v>0.06911827755574756</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06864389632187963</v>
+        <v>0.06846128386883096</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08942362171220064</v>
+        <v>0.02240145179009754</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06511216950522079</v>
+        <v>0.06955903262932335</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02387389349123031</v>
+        <v>0.02236190890485974</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07162861850157079</v>
+        <v>0.07034947618192931</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02562577695766844</v>
+        <v>0.05109584573142603</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06887152034930262</v>
+        <v>0.0694112420373703</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05794232249837372</v>
+        <v>0.06880262920095082</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06942394059826462</v>
+        <v>0.06923925300370405</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08955057880494599</v>
+        <v>0.02236190890485974</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06585208052232558</v>
+        <v>0.07034947618192931</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02286849855612572</v>
+        <v>0.02201777337829135</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07243343443979068</v>
+        <v>0.07113991973453525</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02582423169268076</v>
+        <v>0.05049468480043087</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06964535765659814</v>
+        <v>0.0701911436332958</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0579371813649133</v>
+        <v>0.06829856556906072</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07020398487464961</v>
+        <v>0.07001722213857713</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08936650578257549</v>
+        <v>0.02201777337829135</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06659199153943036</v>
+        <v>0.07113991973453525</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02286270276878675</v>
+        <v>0.02186934763701966</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07323825037801059</v>
+        <v>0.0719303632871412</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02562252924234239</v>
+        <v>0.05009502133452315</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07041919496389368</v>
+        <v>0.07097104522922132</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05783155748011981</v>
+        <v>0.06690540064447315</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07098402915103462</v>
+        <v>0.0707951912734502</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08927200666730789</v>
+        <v>0.02186934763701966</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06733190255653514</v>
+        <v>0.0719303632871412</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02385650682383336</v>
+        <v>0.02171693410767201</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07404306631623048</v>
+        <v>0.07272080683974715</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02572066847978222</v>
+        <v>0.0501707941972033</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07119303227118923</v>
+        <v>0.07175094682514682</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05792544916502124</v>
+        <v>0.0664224484115839</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07176407342741961</v>
+        <v>0.07157316040832329</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0898676854813617</v>
+        <v>0.02171693410767201</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06807181357363992</v>
+        <v>0.07272080683974715</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02184991141588557</v>
+        <v>0.02176083521687571</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07484788225445038</v>
+        <v>0.07351125039235309</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02581864827812907</v>
+        <v>0.0498089067178788</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07196686957848475</v>
+        <v>0.07253084842107232</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05781885474064558</v>
+        <v>0.06594902285478893</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0725441177038046</v>
+        <v>0.07235112954319636</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08895414624695541</v>
+        <v>0.02176083521687571</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06881172459074471</v>
+        <v>0.07351125039235309</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02284291723956338</v>
+        <v>0.02150135339125809</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07565269819267027</v>
+        <v>0.07430169394495904</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0258164675105118</v>
+        <v>0.04941151768298843</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07274070688578028</v>
+        <v>0.07331075001699784</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05771177252802068</v>
+        <v>0.06578443795848432</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07332416198018961</v>
+        <v>0.07312909867806944</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08973199298630768</v>
+        <v>0.02150135339125809</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06955163560784949</v>
+        <v>0.07430169394495904</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02183552498948676</v>
+        <v>0.02143879105744644</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07645751413089018</v>
+        <v>0.07509213749756499</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02571412505005923</v>
+        <v>0.04888078587897096</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07351454419307582</v>
+        <v>0.07409065161292334</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05810420084817469</v>
+        <v>0.06582800770706565</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0741042062565746</v>
+        <v>0.07390706781294251</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08960182972163705</v>
+        <v>0.02143879105744644</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07029154662495427</v>
+        <v>0.07509213749756499</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02182773536027573</v>
+        <v>0.02107345064206812</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07726233006911007</v>
+        <v>0.07588258105017093</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02581161976990026</v>
+        <v>0.0481188700922652</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07428838150037136</v>
+        <v>0.07487055320884886</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05779613802213537</v>
+        <v>0.06547904608492905</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07488425053295959</v>
+        <v>0.0746850369478156</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08916426047516213</v>
+        <v>0.02107345064206812</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07103145764205905</v>
+        <v>0.07588258105017093</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02381954904655027</v>
+        <v>0.02090563457175042</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07806714600732996</v>
+        <v>0.07667302460277688</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02580895054316371</v>
+        <v>0.04762792910930988</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07506221880766689</v>
+        <v>0.07565045480477436</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05758758237093084</v>
+        <v>0.06413686707647037</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07566429480934458</v>
+        <v>0.07546300608268867</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08861988926910142</v>
+        <v>0.02090563457175042</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07177136865916384</v>
+        <v>0.07667302460277688</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02281096674293038</v>
+        <v>0.02073564527312068</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07887196194554986</v>
+        <v>0.07746346815538284</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02580611624297845</v>
+        <v>0.0476101217165438</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07583605611496243</v>
+        <v>0.07643035640069988</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05767853221558897</v>
+        <v>0.06410078466608543</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07644433908572959</v>
+        <v>0.07624097521756176</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08906932012567353</v>
+        <v>0.02073564527312068</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07251127967626862</v>
+        <v>0.07746346815538284</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02280198914403606</v>
+        <v>0.02076378517280623</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07967677788376976</v>
+        <v>0.07825391170798877</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02560311574247331</v>
+        <v>0.04686760670040571</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07660989342225796</v>
+        <v>0.07721025799662538</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05806898587713777</v>
+        <v>0.06407011283817027</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07722438336211458</v>
+        <v>0.07701894435243484</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08901315706709706</v>
+        <v>0.02076378517280623</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07325119069337339</v>
+        <v>0.07825391170798877</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02279261694448729</v>
+        <v>0.02049035669743434</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08048159382198965</v>
+        <v>0.07904435526059472</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02569994791477715</v>
+        <v>0.04610254284733439</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07738373072955348</v>
+        <v>0.0779901595925509</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05785894167660513</v>
+        <v>0.06344416557712063</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07800442763849957</v>
+        <v>0.07779691348730791</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08845200411559051</v>
+        <v>0.02049035669743434</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07399110171047818</v>
+        <v>0.07904435526059472</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02378285083890409</v>
+        <v>0.02021566227363237</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08128640976020955</v>
+        <v>0.07983479881320067</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02569661163301883</v>
+        <v>0.04551708894376863</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07815756803684903</v>
+        <v>0.0787700611884764</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05804839793501909</v>
+        <v>0.0628222568673325</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07878447191488458</v>
+        <v>0.078574882622181</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08838646529337246</v>
+        <v>0.02021566227363237</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07473101272758297</v>
+        <v>0.07983479881320067</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02277269152190643</v>
+        <v>0.02014000432802763</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08209122569842946</v>
+        <v>0.08062524236580662</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02579310577032718</v>
+        <v>0.0451134037761472</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07893140534414457</v>
+        <v>0.07954996278440191</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05783735297340761</v>
+        <v>0.06240370069320184</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07956451619126957</v>
+        <v>0.07935285175705407</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08791714462266159</v>
+        <v>0.02014000432802763</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07547092374468774</v>
+        <v>0.08062524236580662</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02276213968811431</v>
+        <v>0.02006368528724744</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08289604163664935</v>
+        <v>0.08141568591841257</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02568942919983106</v>
+        <v>0.04429364613090883</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07970524265144009</v>
+        <v>0.08032986438032742</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05782580511279861</v>
+        <v>0.06208781103912436</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08034456046765456</v>
+        <v>0.08013082089192715</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08744464612567626</v>
+        <v>0.02006368528724744</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07621083476179252</v>
+        <v>0.08141568591841257</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02175119603214772</v>
+        <v>0.0197870075779191</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08370085757486924</v>
+        <v>0.08220612947101852</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02568558079465932</v>
+        <v>0.04385997479449236</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08047907995873564</v>
+        <v>0.08110976597625293</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0577137526742201</v>
+        <v>0.06117390188949617</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08112460474403956</v>
+        <v>0.08090879002680022</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08736957382463528</v>
+        <v>0.0197870075779191</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07695074577889731</v>
+        <v>0.08220612947101852</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02373986124862668</v>
+        <v>0.01971027362666997</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08450567351308914</v>
+        <v>0.08299657302362445</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02558155942794082</v>
+        <v>0.04321454855333653</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08125291726603118</v>
+        <v>0.08188966757217843</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05780119397869998</v>
+        <v>0.06096128722871308</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08190464902042456</v>
+        <v>0.08168675916167331</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08779253174175711</v>
+        <v>0.01971027362666997</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07769065679600209</v>
+        <v>0.08299657302362445</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02372813603217117</v>
+        <v>0.01943378586012736</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08531048945130904</v>
+        <v>0.0837870165762304</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02567736397280439</v>
+        <v>0.0424595261938801</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0820267545733267</v>
+        <v>0.08266956916810395</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05768812734726628</v>
+        <v>0.06084928104117088</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08268469329680955</v>
+        <v>0.08246472829654639</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08691412389926023</v>
+        <v>0.01943378586012736</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07843056781310687</v>
+        <v>0.0837870165762304</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02371602107740119</v>
+        <v>0.01935784670491856</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08611530538952893</v>
+        <v>0.08457746012883637</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02567299330237891</v>
+        <v>0.04189706650256184</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08280059188062223</v>
+        <v>0.08344947076402946</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05767455110094688</v>
+        <v>0.06013719731126577</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08346473757319454</v>
+        <v>0.08324269743141947</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08703495431936337</v>
+        <v>0.01935784670491856</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07917047883021164</v>
+        <v>0.08457746012883637</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02370351707893673</v>
+        <v>0.01898275858767091</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08692012132774882</v>
+        <v>0.0853679036814423</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02556844628979322</v>
+        <v>0.04102932826582054</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08357442918791778</v>
+        <v>0.08422937235995497</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05786046356076982</v>
+        <v>0.05962435002339322</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08424478184957955</v>
+        <v>0.08402066656629255</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08715562702428498</v>
+        <v>0.01898275858767091</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07991038984731642</v>
+        <v>0.0853679036814423</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02369062473139778</v>
+        <v>0.01890882393501172</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08772493726596872</v>
+        <v>0.08615834723404825</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02576372180817615</v>
+        <v>0.04075847027009499</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08434826649521331</v>
+        <v>0.08500927395588047</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05784586304776304</v>
+        <v>0.06001005316194957</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08502482612596454</v>
+        <v>0.08479863570116562</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08677674603624375</v>
+        <v>0.01890882393501172</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08065030086442121</v>
+        <v>0.08615834723404825</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02367734472940434</v>
+        <v>0.01863634517356832</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08852975320418861</v>
+        <v>0.0869487907866542</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02575881873065657</v>
+        <v>0.03988665130182392</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08512210380250884</v>
+        <v>0.08578917555180599</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05793074788295446</v>
+        <v>0.0595936207113304</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08580487040234953</v>
+        <v>0.08557660483603871</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08639891537745809</v>
+        <v>0.01863634517356832</v>
       </c>
       <c r="O175" t="n">
-        <v>0.081390211881526</v>
+        <v>0.0869487907866542</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02366367776757639</v>
+        <v>0.01856562472996804</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08933456914240852</v>
+        <v>0.08773923433926015</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0256537359303633</v>
+        <v>0.03931603014744614</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08589594110980438</v>
+        <v>0.08656907714773149</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05741511638737212</v>
+        <v>0.05887436665593165</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08658491467873453</v>
+        <v>0.08635457397091179</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08612273907014667</v>
+        <v>0.01856562472996804</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08213012289863077</v>
+        <v>0.08773923433926015</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02164962454053396</v>
+        <v>0.01849696503083818</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09013938508062842</v>
+        <v>0.0885296778918661</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02564847228042525</v>
+        <v>0.03864876559340039</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08666977841709991</v>
+        <v>0.087348978743657</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05749896688204389</v>
+        <v>0.05845160498014945</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08736495895511953</v>
+        <v>0.08713254310578487</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08634635959010245</v>
+        <v>0.01849696503083818</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08287003391573555</v>
+        <v>0.0885296778918661</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02363518574289702</v>
+        <v>0.01813066850280606</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09094420101884831</v>
+        <v>0.08932012144447204</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02574302665397123</v>
+        <v>0.03808701642612544</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08744361572439545</v>
+        <v>0.08812888033958251</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05758229768799783</v>
+        <v>0.05782464966837947</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08814500323150452</v>
+        <v>0.08791051224065793</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0864639204992943</v>
+        <v>0.01813066850280606</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08360994493284034</v>
+        <v>0.08932012144447204</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02261041405500543</v>
+        <v>0.017967037572499</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09174901695706821</v>
+        <v>0.09011056499707798</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02563739792413009</v>
+        <v>0.03713294143206008</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08821745303169098</v>
+        <v>0.08890878193550801</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05746510712626179</v>
+        <v>0.05719281470501769</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08892504750788952</v>
+        <v>0.08868848137553102</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08637513898252192</v>
+        <v>0.017967037572499</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08434985594994511</v>
+        <v>0.09011056499707798</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02156465389481236</v>
+        <v>0.01780637466654434</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0925538328952881</v>
+        <v>0.09090100854968393</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02563158496403069</v>
+        <v>0.03628869939764309</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08899129033898652</v>
+        <v>0.08968868353143353</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05764386776372379</v>
+        <v>0.05655541407446002</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08970509178427451</v>
+        <v>0.0894664505104041</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08608001939788279</v>
+        <v>0.01780637466654434</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0850897669670499</v>
+        <v>0.09090100854968393</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02349976822815402</v>
+        <v>0.01784898221156938</v>
       </c>
       <c r="G181" t="n">
-        <v>0.093358648833508</v>
+        <v>0.09169145210228988</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02552558664680187</v>
+        <v>0.03595644910931323</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08976512764628204</v>
+        <v>0.09046858512735904</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05727174351164363</v>
+        <v>0.0569117617611023</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09048513606065951</v>
+        <v>0.09024441964527719</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08597856610347399</v>
+        <v>0.01784898221156938</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08582967798415468</v>
+        <v>0.09169145210228988</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02341764302403402</v>
+        <v>0.01759516263420145</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09416346477172789</v>
+        <v>0.09248189565489583</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02551940184557249</v>
+        <v>0.03533834935350927</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09053896495357759</v>
+        <v>0.09124848672328455</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05733812830302235</v>
+        <v>0.05576117174934053</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0912651803370445</v>
+        <v>0.09102238878015026</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0849707834573929</v>
+        <v>0.01759516263420145</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08656958900125947</v>
+        <v>0.09248189565489583</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02132016425145598</v>
+        <v>0.01754521836106785</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09496828070994778</v>
+        <v>0.09327233920750178</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02551302943347141</v>
+        <v>0.03493655891667002</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09131280226087313</v>
+        <v>0.09202838831921005</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05744817895856</v>
+        <v>0.05540295802357054</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09204522461342951</v>
+        <v>0.09180035791502333</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08475667581773672</v>
+        <v>0.01754521836106785</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08730950001836424</v>
+        <v>0.09327233920750178</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02320921787942352</v>
+        <v>0.01719945181879593</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09577309664816769</v>
+        <v>0.09406278276010772</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02570487904581916</v>
+        <v>0.03385323658523423</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09208663956816865</v>
+        <v>0.09280828991513557</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05690705229895657</v>
+        <v>0.05513643456818818</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0928252688898145</v>
+        <v>0.09257832704989642</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08533624754260288</v>
+        <v>0.01719945181879593</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08804941103546902</v>
+        <v>0.09406278276010772</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02208668987694021</v>
+        <v>0.01705816543401297</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09657791258638759</v>
+        <v>0.09485322631271367</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02548163913275241</v>
+        <v>0.03359054114564061</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0928604768754642</v>
+        <v>0.09358819151106107</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05671990514491196</v>
+        <v>0.0545609153675895</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09360531316619949</v>
+        <v>0.0933562961847695</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08430950299008838</v>
+        <v>0.01705816543401297</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08878932205257381</v>
+        <v>0.09485322631271367</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02295446621300973</v>
+        <v>0.01702166163334635</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09738272852460748</v>
+        <v>0.09564366986531962</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0256412332930536</v>
+        <v>0.03275063138432802</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09363431418275973</v>
+        <v>0.09436809310698659</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0564918943171262</v>
+        <v>0.05447571440617022</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09438535744258449</v>
+        <v>0.09413426531964258</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08467644651829076</v>
+        <v>0.01702166163334635</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0895292330696786</v>
+        <v>0.09564366986531962</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02281443285663564</v>
+        <v>0.01699024284342334</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09818754446282738</v>
+        <v>0.09643411341792557</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0254848010533302</v>
+        <v>0.0325356660877352</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09440815149005526</v>
+        <v>0.09514799470291209</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05612817663629927</v>
+        <v>0.05348014566832637</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09516540171896948</v>
+        <v>0.09491223445451565</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08433708248530702</v>
+        <v>0.01699024284342334</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09026914408678337</v>
+        <v>0.09643411341792557</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02066847577682154</v>
+        <v>0.01676421149087127</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09899236040104728</v>
+        <v>0.09722455697053151</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02541348194018967</v>
+        <v>0.0317478040423009</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09518198879735081</v>
+        <v>0.09592789629883759</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05573390892313107</v>
+        <v>0.05307352313845382</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09594544599535448</v>
+        <v>0.09569020358938873</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08419141524923468</v>
+        <v>0.01676421149087127</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09100905510388815</v>
+        <v>0.09722455697053151</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02251848094257106</v>
+        <v>0.01654387000231745</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09979717633926717</v>
+        <v>0.09801500052313745</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02522841548023943</v>
+        <v>0.03138920403446394</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09595582610464634</v>
+        <v>0.09670779789476311</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05521424799832167</v>
+        <v>0.05275516080094839</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09672549027173948</v>
+        <v>0.09646817272426182</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08363944916817084</v>
+        <v>0.01654387000231745</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09174896612099294</v>
+        <v>0.09801500052313745</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02036633432288782</v>
+        <v>0.01652930300807304</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1006019922774871</v>
+        <v>0.0988054440757434</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02513074120008695</v>
+        <v>0.03096202485066304</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09672966341194186</v>
+        <v>0.09748769949068863</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05447435068257092</v>
+        <v>0.05242437264020616</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09750553454812448</v>
+        <v>0.0972461418591349</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08388118860021282</v>
+        <v>0.01652930300807304</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09248887713809772</v>
+        <v>0.0988054440757434</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02021392188677543</v>
+        <v>0.0165181626621834</v>
       </c>
       <c r="G191" t="n">
-        <v>0.101406808215707</v>
+        <v>0.09959588762834935</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02522159862633971</v>
+        <v>0.030568425277337</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09750350071923741</v>
+        <v>0.09826760108661411</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05431937379657892</v>
+        <v>0.05198047264062283</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09828557882450947</v>
+        <v>0.09802411099400797</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08351663790345781</v>
+        <v>0.0165181626621834</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0932287881552025</v>
+        <v>0.09959588762834935</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02206312960323747</v>
+        <v>0.01630963289807732</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1022116241539269</v>
+        <v>0.1003863311809553</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0249021272856051</v>
+        <v>0.03011056410092464</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09827733802653293</v>
+        <v>0.09904750268253963</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05405447416104556</v>
+        <v>0.05152277478659439</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09906562310089446</v>
+        <v>0.09880208012888105</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08324580143600319</v>
+        <v>0.01630963289807732</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09396869917230728</v>
+        <v>0.1003863311809553</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02091584344127757</v>
+        <v>0.01620358642214741</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1030164400921468</v>
+        <v>0.1011767747335613</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02487346670449064</v>
+        <v>0.03019060010786465</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09905117533382847</v>
+        <v>0.09982740427846515</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05318480859667085</v>
+        <v>0.05065059306251674</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09984566737727946</v>
+        <v>0.09958004926375413</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08236868355594618</v>
+        <v>0.01620358642214741</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09470861018941207</v>
+        <v>0.1011767747335613</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01977394936989934</v>
+        <v>0.01619989594078629</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1038212560303667</v>
+        <v>0.1019672182861672</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02483675640960372</v>
+        <v>0.02961069208459582</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09982501264112402</v>
+        <v>0.1006073058743907</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05271553392415471</v>
+        <v>0.05036324145278581</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1006257116536644</v>
+        <v>0.1003580183986272</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08268528862138402</v>
+        <v>0.01619989594078629</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09544852120651685</v>
+        <v>0.1019672182861672</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02063933335810638</v>
+        <v>0.01589843416038658</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1046260719685866</v>
+        <v>0.1027576618387731</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02469313592755184</v>
+        <v>0.029672998817557</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1005988499484195</v>
+        <v>0.1013872074703162</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05265180696419719</v>
+        <v>0.04896003394179743</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1014057559300495</v>
+        <v>0.1011359875335003</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08179562099041399</v>
+        <v>0.01589843416038658</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09618843222362163</v>
+        <v>0.1027576618387731</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02051388137490232</v>
+        <v>0.01589907378734085</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1054308879068064</v>
+        <v>0.1035481053913791</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02444374478494243</v>
+        <v>0.02907967909318684</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1013726872557151</v>
+        <v>0.1021671090662417</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05179878453749817</v>
+        <v>0.04834028451394756</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1021858002064344</v>
+        <v>0.1019139566683734</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08159968502113335</v>
+        <v>0.01589907378734085</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09692834324072641</v>
+        <v>0.1035481053913791</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01939947938929076</v>
+        <v>0.01580168752804172</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1062357038450264</v>
+        <v>0.104338548943985</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02428972250838294</v>
+        <v>0.02933289169792422</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1021465245630106</v>
+        <v>0.1029470106621672</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05176162346475774</v>
+        <v>0.04840330715363206</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1029658444828195</v>
+        <v>0.1026919258032464</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08139748507163941</v>
+        <v>0.01580168752804172</v>
       </c>
       <c r="O197" t="n">
-        <v>0.0976682542578312</v>
+        <v>0.104338548943985</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01929801337027531</v>
+        <v>0.0156061480888818</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1070405197832462</v>
+        <v>0.105128992496591</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02423220862448084</v>
+        <v>0.02922686028423041</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1029203618703061</v>
+        <v>0.1037269122580927</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05094548056667572</v>
+        <v>0.04704841584524683</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1037458887592044</v>
+        <v>0.1034698949381195</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0814890255000294</v>
+        <v>0.0156061480888818</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09840816527493597</v>
+        <v>0.105128992496591</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02021136928685956</v>
+        <v>0.01571232817625372</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1078453357214661</v>
+        <v>0.1059194360491969</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02387234265984357</v>
+        <v>0.02903218768380433</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1036941991776017</v>
+        <v>0.1045068138540182</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05045551266395221</v>
+        <v>0.04647492457318786</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1045259330355894</v>
+        <v>0.1042478640729926</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08047431066440053</v>
+        <v>0.01571232817625372</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09914807629204075</v>
+        <v>0.1059194360491969</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02114143310804715</v>
+        <v>0.01562010049655007</v>
       </c>
       <c r="G200" t="n">
-        <v>0.108650151659686</v>
+        <v>0.1067098796018029</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0238112641410786</v>
+        <v>0.02894536712534584</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1044680364848972</v>
+        <v>0.1052867154499437</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05019687657728711</v>
+        <v>0.04598214732185091</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1053059773119744</v>
+        <v>0.1050258332078657</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08045334492285022</v>
+        <v>0.01562010049655007</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09988798730914554</v>
+        <v>0.1067098796018029</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01909009080284167</v>
+        <v>0.01552933775616345</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1094549675979059</v>
+        <v>0.1075003231544088</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02355011259479336</v>
+        <v>0.02896580186368677</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1052418737921928</v>
+        <v>0.1060666170458692</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04977472912738043</v>
+        <v>0.04536939244373583</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1060860215883594</v>
+        <v>0.1058038023427388</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08012613263347557</v>
+        <v>0.01552933775616345</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1006278983262503</v>
+        <v>0.1075003231544088</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02005922834024674</v>
+        <v>0.01543991266148644</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1102597835361258</v>
+        <v>0.1082907667070148</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02349002754759529</v>
+        <v>0.02879289515365885</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1060157110994883</v>
+        <v>0.1068465186417947</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0496942271349321</v>
+        <v>0.04469228950752063</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1068660658647444</v>
+        <v>0.1065817714776119</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08019267815437392</v>
+        <v>0.01543991266148644</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1013678093433551</v>
+        <v>0.1082907667070148</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02105050577289683</v>
+        <v>0.0151516979189117</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1110645994743457</v>
+        <v>0.1090812102596207</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02333214852609188</v>
+        <v>0.0284260502500939</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1067895484067838</v>
+        <v>0.1076264202377202</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04966052742064217</v>
+        <v>0.04411550426090177</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1076461101411294</v>
+        <v>0.1073597406124849</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07905298584364251</v>
+        <v>0.0151516979189117</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1021077203604599</v>
+        <v>0.1090812102596207</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02105062292529412</v>
+        <v>0.01516456623483182</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1118694154125656</v>
+        <v>0.1098716538122267</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02307761505689056</v>
+        <v>0.02856467040782373</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1075633857140794</v>
+        <v>0.1084063218336457</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0495787868052105</v>
+        <v>0.04254892735232996</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1084261544175144</v>
+        <v>0.108137709747358</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07870706005937866</v>
+        <v>0.01516456623483182</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1028476313775647</v>
+        <v>0.1098716538122267</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0190509921288956</v>
+        <v>0.01507839031563939</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1126742313507855</v>
+        <v>0.1106620973648326</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02312756666659881</v>
+        <v>0.02870815888168016</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1083372230213749</v>
+        <v>0.1091862234295713</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04935416210933716</v>
+        <v>0.04180244943025624</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1092061986938994</v>
+        <v>0.1089156788822311</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07845490515967957</v>
+        <v>0.01507839031563939</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1035875423946695</v>
+        <v>0.1106620973648326</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01905170399331164</v>
+        <v>0.01509304286772704</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1134790472890054</v>
+        <v>0.1114525409174386</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02298314288182405</v>
+        <v>0.02875591892649484</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1091110603286704</v>
+        <v>0.1099661250254967</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04889181015372204</v>
+        <v>0.04008596114313162</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1099862429702844</v>
+        <v>0.1096936480171042</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07799652550264252</v>
+        <v>0.01509304286772704</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1043274534117742</v>
+        <v>0.1114525409174386</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0200528491281526</v>
+        <v>0.01490839659748736</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1142838632272253</v>
+        <v>0.1122429844700445</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02284548322917373</v>
+        <v>0.02830735379709973</v>
       </c>
       <c r="K207" t="n">
-        <v>0.109884897635966</v>
+        <v>0.1107460266214223</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04918543467697878</v>
+        <v>0.039609353139407</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1107662872466694</v>
+        <v>0.1104716171519772</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07803192544636489</v>
+        <v>0.01490839659748736</v>
       </c>
       <c r="O207" t="n">
-        <v>0.105067364428879</v>
+        <v>0.1122429844700445</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01905451814302884</v>
+        <v>0.01482432421131296</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1150886791654452</v>
+        <v>0.1130334280226505</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02251572723525534</v>
+        <v>0.02826186674832651</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1106587349432615</v>
+        <v>0.1115259282173478</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04918555198644459</v>
+        <v>0.0376825160675332</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1115463315230544</v>
+        <v>0.1112495862868503</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07806110934894384</v>
+        <v>0.01482432421131296</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1058072754459838</v>
+        <v>0.1130334280226505</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01905680164755073</v>
+        <v>0.01484069841559647</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1158934951036651</v>
+        <v>0.1138238715752564</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02249501433623325</v>
+        <v>0.02851886103500706</v>
       </c>
       <c r="K209" t="n">
-        <v>0.111432572250557</v>
+        <v>0.1123058298132733</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04918596931953634</v>
+        <v>0.03731534057596136</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1123263757994394</v>
+        <v>0.1120275554217234</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07728408156847655</v>
+        <v>0.01484069841559647</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1065471864630886</v>
+        <v>0.1138238715752564</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0190597902513286</v>
+        <v>0.01455739191673042</v>
       </c>
       <c r="G210" t="n">
-        <v>0.116698311041885</v>
+        <v>0.1146143151278624</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02247925886878435</v>
+        <v>0.02827773991197308</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1122064095578526</v>
+        <v>0.1130857314091988</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04888687781813064</v>
+        <v>0.03571771731314222</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1131064200758244</v>
+        <v>0.1128055245565965</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07700084646306038</v>
+        <v>0.01455739191673042</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1072870974801933</v>
+        <v>0.1146143151278624</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01906357456397282</v>
+        <v>0.01457427742110753</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1175031269801049</v>
+        <v>0.1154047586804683</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02216370309867142</v>
+        <v>0.02833790663405641</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1129802468651481</v>
+        <v>0.1138656330051243</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04888846862410415</v>
+        <v>0.03419953692752697</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1138864643522094</v>
+        <v>0.1135834936914696</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07631140839079265</v>
+        <v>0.01457427742110753</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1080270084972981</v>
+        <v>0.1154047586804683</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01906824519509375</v>
+        <v>0.01459122763512034</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1183079429183248</v>
+        <v>0.1161952022330743</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02204835135208904</v>
+        <v>0.02799876445608881</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1137540841724436</v>
+        <v>0.1146455346010498</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04939093287933355</v>
+        <v>0.03257069006756635</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1146665086285944</v>
+        <v>0.1143614628263426</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07631577170977055</v>
+        <v>0.01459122763512034</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1087669195144029</v>
+        <v>0.1161952022330743</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02007389275430176</v>
+        <v>0.01450811526516146</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1191127588565447</v>
+        <v>0.1169856457856802</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02203320795523169</v>
+        <v>0.02795971663290214</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1145279214797392</v>
+        <v>0.1154254361969753</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04909446172569543</v>
+        <v>0.03164106738171141</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1154465529049794</v>
+        <v>0.1151394319612157</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07561394077809142</v>
+        <v>0.01450811526516146</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1095068305315077</v>
+        <v>0.1169856457856802</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02008060785120721</v>
+        <v>0.01432481301762348</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1199175747947646</v>
+        <v>0.1177760893382861</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02201827723429393</v>
+        <v>0.02832016641932816</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1153017587870347</v>
+        <v>0.1162053377929008</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04929924630506649</v>
+        <v>0.03012055951841319</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1162265971813644</v>
+        <v>0.1159174010960888</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07500225530607801</v>
+        <v>0.01432481301762348</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1102467415486125</v>
+        <v>0.1177760893382861</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02108848109542043</v>
+        <v>0.01424119359889908</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1207223907329845</v>
+        <v>0.1185665328908921</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02170356351547027</v>
+        <v>0.02817951707019858</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1160755960943302</v>
+        <v>0.1169852393888263</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04930547775932331</v>
+        <v>0.02891905712612231</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1170066414577494</v>
+        <v>0.1166953702309619</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07487556310480881</v>
+        <v>0.01424119359889908</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1109866525657173</v>
+        <v>0.1185665328908921</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02009760309655181</v>
+        <v>0.01425712971538078</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1215272066712044</v>
+        <v>0.119356976443498</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02168907112495527</v>
+        <v>0.02783717184034531</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1168494334016258</v>
+        <v>0.1177651409847518</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04941334723034257</v>
+        <v>0.02814645085328998</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1177866857341344</v>
+        <v>0.117473339365835</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0741339792346899</v>
+        <v>0.01425712971538078</v>
       </c>
       <c r="O216" t="n">
-        <v>0.111726563582822</v>
+        <v>0.119356976443498</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0201080644642117</v>
+        <v>0.0140727912599597</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1223320226094243</v>
+        <v>0.120147419996104</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02167480438894345</v>
+        <v>0.02819253398460009</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1176232707089213</v>
+        <v>0.1185450425806774</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04892304586000093</v>
+        <v>0.02621263134836721</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1185667300105194</v>
+        <v>0.118251308500708</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07437765958640902</v>
+        <v>0.0140727912599597</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1124664745999268</v>
+        <v>0.120147419996104</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01911995580801044</v>
+        <v>0.01408866591984046</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1231368385476442</v>
+        <v>0.1209378635487099</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02136076763362933</v>
+        <v>0.02824500675779468</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1183971080162168</v>
+        <v>0.1193249441766029</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04943476479017503</v>
+        <v>0.02542748925980465</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1193467742869044</v>
+        <v>0.1190292776355811</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07380676005065356</v>
+        <v>0.01408866591984046</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1132063856170316</v>
+        <v>0.1209378635487099</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01913336773755841</v>
+        <v>0.01400476958850825</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1239416544858641</v>
+        <v>0.1217283071013159</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02124696518520747</v>
+        <v>0.02809399341476093</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1191709453235124</v>
+        <v>0.1201048457725284</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04914869516274151</v>
+        <v>0.02450091523605347</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1201268185632893</v>
+        <v>0.1198072467704542</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07272143651811092</v>
+        <v>0.01400476958850825</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1139462966341364</v>
+        <v>0.1217283071013159</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01914839086246597</v>
+        <v>0.0139211074284686</v>
       </c>
       <c r="G220" t="n">
-        <v>0.124746470424084</v>
+        <v>0.1225187506539218</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0211334013698724</v>
+        <v>0.02793889721033058</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1199447826308079</v>
+        <v>0.1208847473684539</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04906502811957697</v>
+        <v>0.02314279992556451</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1209068628396743</v>
+        <v>0.1205852159053273</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07272184487946876</v>
+        <v>0.0139211074284686</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1146862076512412</v>
+        <v>0.1225187506539218</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01916511579234346</v>
+        <v>0.01373768460222705</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1255512863623039</v>
+        <v>0.1233091942065278</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02122008051381864</v>
+        <v>0.02797912139933548</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1207186199381035</v>
+        <v>0.1216646489643794</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04928395480255812</v>
+        <v>0.02196303397678889</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1216869071160594</v>
+        <v>0.1213631850402003</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07240814102541449</v>
+        <v>0.01373768460222705</v>
       </c>
       <c r="O221" t="n">
-        <v>0.115426118668346</v>
+        <v>0.1233091942065278</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02118363313680125</v>
+        <v>0.01375450627228921</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1263561023005237</v>
+        <v>0.1240996377591337</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0211070069432407</v>
+        <v>0.02791406923660736</v>
       </c>
       <c r="K222" t="n">
-        <v>0.121492457245399</v>
+        <v>0.1224445505603049</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04940566635356161</v>
+        <v>0.0216715080381773</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1224669513924443</v>
+        <v>0.1221411541750734</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07128048084663563</v>
+        <v>0.01375450627228921</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1161660296854507</v>
+        <v>0.1240996377591337</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02120403350544971</v>
+        <v>0.01367157760116058</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1271609182387436</v>
+        <v>0.1248900813117397</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02079418498433314</v>
+        <v>0.02784314397697804</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1222662945526945</v>
+        <v>0.1232244521562304</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04933035391446403</v>
+        <v>0.02057811275818083</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1232469956688293</v>
+        <v>0.1229191233099465</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07143902023381959</v>
+        <v>0.01367157760116058</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1169059407025555</v>
+        <v>0.1248900813117397</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01922640750789918</v>
+        <v>0.01348890375134672</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1279657341769636</v>
+        <v>0.1256805248643456</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0208816189632905</v>
+        <v>0.02766574887527931</v>
       </c>
       <c r="K224" t="n">
-        <v>0.12304013185999</v>
+        <v>0.1240043537521559</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04945820862714206</v>
+        <v>0.01938976632391337</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1240270399452143</v>
+        <v>0.1236970924448196</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07058391507765394</v>
+        <v>0.01348890375134672</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1176458517196603</v>
+        <v>0.1256805248643456</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01925084575376002</v>
+        <v>0.01330648988535319</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1287705501151834</v>
+        <v>0.1264709684169516</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02066931320630731</v>
+        <v>0.02758128718634295</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1238139691672856</v>
+        <v>0.1247842553480814</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0490894216334723</v>
+        <v>0.01933558419551562</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1248070842215993</v>
+        <v>0.1244750615796927</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07021532126882624</v>
+        <v>0.01330648988535319</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1183857627367651</v>
+        <v>0.1264709684169516</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02127743885264261</v>
+        <v>0.01322434116568557</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1295753660534034</v>
+        <v>0.1272614119695575</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02065727203957807</v>
+        <v>0.02768916216500081</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1245878064745811</v>
+        <v>0.1255641569440069</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04932418407533148</v>
+        <v>0.01818244844609113</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1255871284979843</v>
+        <v>0.1252530307145658</v>
       </c>
       <c r="N226" t="n">
-        <v>0.06903339469802389</v>
+        <v>0.01322434116568557</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1191256737538699</v>
+        <v>0.1272614119695575</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0203062774141573</v>
+        <v>0.01314246275484938</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1303801819916232</v>
+        <v>0.1280518555221634</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02054549978929735</v>
+        <v>0.0274887770660846</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1253616437818767</v>
+        <v>0.1263440585399324</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04936268709459615</v>
+        <v>0.01733116107319649</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1263671727743693</v>
+        <v>0.1260309998494388</v>
       </c>
       <c r="N227" t="n">
-        <v>0.06853829125593436</v>
+        <v>0.01314246275484938</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1198655847709746</v>
+        <v>0.1280518555221634</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02033745204791442</v>
+        <v>0.01326085981535018</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1311849979298431</v>
+        <v>0.1288422990747694</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02023400078165969</v>
+        <v>0.02737065989112145</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1261354810891722</v>
+        <v>0.1271239601358579</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04930512183314301</v>
+        <v>0.01708252407438809</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1271472170507543</v>
+        <v>0.1268089689843119</v>
       </c>
       <c r="N228" t="n">
-        <v>0.06793016683324521</v>
+        <v>0.01326085981535018</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1206054957880794</v>
+        <v>0.1288422990747694</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02137105336352437</v>
+        <v>0.01317953750969351</v>
       </c>
       <c r="G229" t="n">
-        <v>0.131989813868063</v>
+        <v>0.1296327426273753</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02022277934285958</v>
+        <v>0.0268256027599332</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1269093183964677</v>
+        <v>0.1279038617317835</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04955167943284872</v>
+        <v>0.01613733944722262</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1279272613271393</v>
+        <v>0.127586938119185</v>
       </c>
       <c r="N229" t="n">
-        <v>0.06770917732064397</v>
+        <v>0.01317953750969351</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1213454068051842</v>
+        <v>0.1296327426273753</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02140717197059747</v>
+        <v>0.01289850100038494</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1327946298062829</v>
+        <v>0.1304231861799813</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02011183979909158</v>
+        <v>0.02715421739329935</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1276831557037633</v>
+        <v>0.128683763327709</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0495025510355899</v>
+        <v>0.01559640918925659</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1287073056035243</v>
+        <v>0.1283649072540581</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06717547860881801</v>
+        <v>0.01289850100038494</v>
       </c>
       <c r="O230" t="n">
-        <v>0.122085317822289</v>
+        <v>0.1304231861799813</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02144589847874411</v>
+        <v>0.01291775544993003</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1335994457445028</v>
+        <v>0.1312136297325872</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01990118647655022</v>
+        <v>0.02695711752683497</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1284569930110588</v>
+        <v>0.1294636649236345</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04945792778324318</v>
+        <v>0.01526053529804638</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1294873498799093</v>
+        <v>0.1291428763889312</v>
       </c>
       <c r="N231" t="n">
-        <v>0.06662922658845483</v>
+        <v>0.01291775544993003</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1228252288393938</v>
+        <v>0.1312136297325872</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01948732349757466</v>
+        <v>0.01293730602083432</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1344042616827227</v>
+        <v>0.1320040732851932</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01999082370143004</v>
+        <v>0.02633491689615514</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1292308303183543</v>
+        <v>0.13024356651956</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04971800081768521</v>
+        <v>0.01483051977114869</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1302673941562943</v>
+        <v>0.1299208455238042</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06577057715024209</v>
+        <v>0.01293730602083432</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1235651398564986</v>
+        <v>0.1320040732851932</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02153153763669943</v>
+        <v>0.01265715787560336</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1352090776209426</v>
+        <v>0.1327945168377991</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01988075579992554</v>
+        <v>0.02618822923687497</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1300046676256499</v>
+        <v>0.1310234681154855</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04988296128079267</v>
+        <v>0.01400716460611989</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1310474384326793</v>
+        <v>0.1306988146586773</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06509968618486711</v>
+        <v>0.01265715787560336</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1243050508736033</v>
+        <v>0.1327945168377991</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02057863150572881</v>
+        <v>0.0126773161767427</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1360138935591625</v>
+        <v>0.1335849603904051</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01977098709823129</v>
+        <v>0.02601766828460958</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1307785049329454</v>
+        <v>0.131803369711411</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04955300031444215</v>
+        <v>0.01379127180051659</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1318274827090643</v>
+        <v>0.1314767837935504</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06421670958301745</v>
+        <v>0.0126773161767427</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1250449618907081</v>
+        <v>0.1335849603904051</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02062869571427315</v>
+        <v>0.01259778608675793</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1368187094973824</v>
+        <v>0.134375403943011</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0195615219225418</v>
+        <v>0.02542384777497406</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1315523422402409</v>
+        <v>0.1325832713073365</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04962830906051036</v>
+        <v>0.01238364335189523</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1326075269854493</v>
+        <v>0.1322547529284235</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06332180323538056</v>
+        <v>0.01259778608675793</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1257848729078129</v>
+        <v>0.134375403943011</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01968182087194282</v>
+        <v>0.01241857276815455</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1376235254356023</v>
+        <v>0.135165847495617</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01955236459905161</v>
+        <v>0.02510738144358349</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1323261795475365</v>
+        <v>0.133363172903262</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04990907866087391</v>
+        <v>0.0118850812578124</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1333875712618343</v>
+        <v>0.1330327220632965</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06301512303264412</v>
+        <v>0.01241857276815455</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1265247839249177</v>
+        <v>0.135165847495617</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02173809758834818</v>
+        <v>0.01253968138343816</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1384283413738222</v>
+        <v>0.1359562910482229</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01944351945395526</v>
+        <v>0.02496888302605293</v>
       </c>
       <c r="K237" t="n">
-        <v>0.133100016854832</v>
+        <v>0.1341430744991875</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04979550025740942</v>
+        <v>0.01119638751582458</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1341676155382193</v>
+        <v>0.1338106911981696</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06199682486549529</v>
+        <v>0.01253968138343816</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1272646949420225</v>
+        <v>0.1359562910482229</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02079761647309956</v>
+        <v>0.01246111709511426</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1392331573120421</v>
+        <v>0.1367467346008289</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01933499081344726</v>
+        <v>0.02440896625799754</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1338738541621275</v>
+        <v>0.1349229760951131</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05028776499199356</v>
+        <v>0.0114183641234884</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1349476598146043</v>
+        <v>0.1345886603330427</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06146706462462187</v>
+        <v>0.01246111709511426</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1280046059591272</v>
+        <v>0.1367467346008289</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02186046813580735</v>
+        <v>0.01228288506568844</v>
       </c>
       <c r="G239" t="n">
-        <v>0.140037973250262</v>
+        <v>0.1375371781534348</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01922678300372218</v>
+        <v>0.02432824487503241</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1346476914694231</v>
+        <v>0.1357028776910386</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04998606400650296</v>
+        <v>0.01055181307836017</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1357277040909893</v>
+        <v>0.1353666294679158</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06012599820071124</v>
+        <v>0.01228288506568844</v>
       </c>
       <c r="O239" t="n">
-        <v>0.128744516976232</v>
+        <v>0.1375371781534348</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02192674318608191</v>
+        <v>0.01230499045766626</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1408427891884819</v>
+        <v>0.1383276217060408</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01911890035097451</v>
+        <v>0.02412733261277264</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1354215287767186</v>
+        <v>0.1364827792869641</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05029058844281431</v>
+        <v>0.009897536377996619</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1365077483673743</v>
+        <v>0.1361445986027889</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06017378148445091</v>
+        <v>0.01230499045766626</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1294844279933368</v>
+        <v>0.1383276217060408</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02099653223353356</v>
+        <v>0.01222743843355326</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1416476051267018</v>
+        <v>0.1391180652586467</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01881134718139883</v>
+        <v>0.02370684320683325</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1361953660840141</v>
+        <v>0.1372626808828896</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05020152944280423</v>
+        <v>0.009156336019954192</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1372877926437593</v>
+        <v>0.1369225677376619</v>
       </c>
       <c r="N241" t="n">
-        <v>0.05871057036652827</v>
+        <v>0.01222743843355326</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1302243390104416</v>
+        <v>0.1391180652586467</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0200699258877727</v>
+        <v>0.01195023415585498</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1424524210649217</v>
+        <v>0.1399085088112527</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01890412782118963</v>
+        <v>0.02306739039282943</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1369692033913097</v>
+        <v>0.1380425824788151</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05071907814834936</v>
+        <v>0.008529014001789348</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1380678369201443</v>
+        <v>0.137700536872535</v>
       </c>
       <c r="N242" t="n">
-        <v>0.05833652073763096</v>
+        <v>0.01195023415585498</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1309642500275464</v>
+        <v>0.1399085088112527</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02014701475840967</v>
+        <v>0.01197338278707698</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1432572370031416</v>
+        <v>0.1406989523638586</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01879724659654145</v>
+        <v>0.02230958790637624</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1377430406986052</v>
+        <v>0.1388224840747406</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05094342570132632</v>
+        <v>0.008716372321058596</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1388478811965292</v>
+        <v>0.1384785060074081</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05775178848844642</v>
+        <v>0.01197338278707698</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1317041610446512</v>
+        <v>0.1406989523638586</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02222788945505483</v>
+        <v>0.01189688948972482</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1440620529413615</v>
+        <v>0.1414893959164646</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01859070783364884</v>
+        <v>0.02233404948308876</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1385168780059007</v>
+        <v>0.1396023856706661</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05067476324361178</v>
+        <v>0.007919212975318557</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1396279254729142</v>
+        <v>0.1392564751422812</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05705652950966206</v>
+        <v>0.01189688948972482</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1324440720617559</v>
+        <v>0.1414893959164646</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02031264058731855</v>
+        <v>0.01192075942630407</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1448668688795814</v>
+        <v>0.1422798394690705</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01838451585870633</v>
+        <v>0.02184138885858208</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1392907153131963</v>
+        <v>0.1403822872665916</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0510132819170824</v>
+        <v>0.007138337962125818</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1404079697492992</v>
+        <v>0.1400344442771543</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05635089969196549</v>
+        <v>0.01192075942630407</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1331839830788607</v>
+        <v>0.1422798394690705</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02040135876481117</v>
+        <v>0.01174499775932025</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1456716848178013</v>
+        <v>0.1430702830216765</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01837867499790844</v>
+        <v>0.02083221976847136</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1400645526204918</v>
+        <v>0.1411621888625171</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0513591728636148</v>
+        <v>0.006774549279036646</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1411880140256842</v>
+        <v>0.1408124134120273</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05523505492604414</v>
+        <v>0.01174499775932025</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1339238940959655</v>
+        <v>0.1430702830216765</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02149413459714308</v>
+        <v>0.01166960965127892</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1464765007560212</v>
+        <v>0.1438607265742824</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0181731895774497</v>
+        <v>0.02030715594837165</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1408383899277874</v>
+        <v>0.1419420904584426</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05141262722508566</v>
+        <v>0.006428648923607838</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1419680583020692</v>
+        <v>0.1415903825469004</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05430915110258555</v>
+        <v>0.01166960965127892</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1346638051130703</v>
+        <v>0.1438607265742824</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02059105869392461</v>
+        <v>0.01159460026468565</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1472813166942411</v>
+        <v>0.1446511701268884</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01826806392352467</v>
+        <v>0.02026681113389803</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1416122272350829</v>
+        <v>0.1427219920543681</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05147383614337156</v>
+        <v>0.006001438893395716</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1427481025784542</v>
+        <v>0.1423683516817735</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0536733441122772</v>
+        <v>0.01159460026468565</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1354037161301751</v>
+        <v>0.1446511701268884</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02169222166476612</v>
+        <v>0.01141997476204597</v>
       </c>
       <c r="G249" t="n">
-        <v>0.148086132632461</v>
+        <v>0.1454416136794943</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01806330236232784</v>
+        <v>0.01961179906066565</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1423860645423785</v>
+        <v>0.1435018936502936</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05174299076034922</v>
+        <v>0.005493721185956923</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1435281468548392</v>
+        <v>0.1431463208166466</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05232778984580655</v>
+        <v>0.01141997476204597</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1361436271472798</v>
+        <v>0.1454416136794943</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02179771411927798</v>
+        <v>0.01134573830586546</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1488909485706809</v>
+        <v>0.1462320572321002</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01795890922005381</v>
+        <v>0.01864273346428955</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1431599018496739</v>
+        <v>0.1442817952462191</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0518202822178952</v>
+        <v>0.00500629779884787</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1443081911312242</v>
+        <v>0.1439242899515196</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05157264419386115</v>
+        <v>0.01134573830586546</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1368835381643846</v>
+        <v>0.1462320572321002</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02290762666707055</v>
+        <v>0.01127189605864964</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1496957645089008</v>
+        <v>0.1470225007847062</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01795488882289704</v>
+        <v>0.01856022808038485</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1439337391569695</v>
+        <v>0.1450616968421446</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05220590165788624</v>
+        <v>0.005139970729625132</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1450882354076092</v>
+        <v>0.1447022590863927</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05100806304712846</v>
+        <v>0.01127189605864964</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1376234491814894</v>
+        <v>0.1470225007847062</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02202204991775416</v>
+        <v>0.01129845318290409</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1505005804471206</v>
+        <v>0.1478129443373122</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01775124549705209</v>
+        <v>0.01786489664456667</v>
       </c>
       <c r="K252" t="n">
-        <v>0.144707576464265</v>
+        <v>0.1458415984380702</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05240004022219893</v>
+        <v>0.003995541975845229</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1458682796839942</v>
+        <v>0.1454802282212658</v>
       </c>
       <c r="N252" t="n">
-        <v>0.04973420229629599</v>
+        <v>0.01129845318290409</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1383633601985942</v>
+        <v>0.1478129443373122</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02114107448093921</v>
+        <v>0.01132541484113437</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1513053963853405</v>
+        <v>0.1486033878899181</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01754798356871349</v>
+        <v>0.01725735289245006</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1454814137715606</v>
+        <v>0.1466215000339957</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05210288905270991</v>
+        <v>0.00417381353506463</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1466483239603792</v>
+        <v>0.1462581973561389</v>
       </c>
       <c r="N253" t="n">
-        <v>0.04955121783205113</v>
+        <v>0.01132541484113437</v>
       </c>
       <c r="O253" t="n">
-        <v>0.139103271215699</v>
+        <v>0.1486033878899181</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02226479096623605</v>
+        <v>0.011252786195846</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1521102123235605</v>
+        <v>0.149393831442524</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01744510736407578</v>
+        <v>0.01633821055965012</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1462552510788561</v>
+        <v>0.1474014016299212</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05251463929129588</v>
+        <v>0.003775587404840075</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1474283682367642</v>
+        <v>0.1470361664910119</v>
       </c>
       <c r="N254" t="n">
-        <v>0.04785926554508146</v>
+        <v>0.011252786195846</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1398431822328038</v>
+        <v>0.149393831442524</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02239328998325502</v>
+        <v>0.01118057240954454</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1529150282617804</v>
+        <v>0.15018427499513</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01754262120933351</v>
+        <v>0.01560808338178202</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1470290883861516</v>
+        <v>0.1481813032258467</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05283548207983338</v>
+        <v>0.003201665582727775</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1482084125131492</v>
+        <v>0.147814135625885</v>
       </c>
       <c r="N255" t="n">
-        <v>0.04695850132607454</v>
+        <v>0.01118057240954454</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1405830932499085</v>
+        <v>0.15018427499513</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02252666214160649</v>
+        <v>0.01090877864473556</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1537198442000002</v>
+        <v>0.1509747185477359</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01744052943068117</v>
+        <v>0.01526758509446074</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1478029256934472</v>
+        <v>0.1489612048217722</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05296560856019916</v>
+        <v>0.003052850066284474</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1489884567895342</v>
+        <v>0.1485921047607581</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04654908106571781</v>
+        <v>0.01090877864473556</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1413230042670133</v>
+        <v>0.1509747185477359</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02366499805090081</v>
+        <v>0.01103741006392461</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1545246601382201</v>
+        <v>0.1517651621003419</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01723883635431333</v>
+        <v>0.01481732943330147</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1485767630007427</v>
+        <v>0.1497411064176977</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05350520987426982</v>
+        <v>0.002729942853066603</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1497685010659192</v>
+        <v>0.1493700738956312</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04573116065469873</v>
+        <v>0.01103741006392461</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1420629152841181</v>
+        <v>0.1517651621003419</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02280838832074834</v>
+        <v>0.01086647182961724</v>
       </c>
       <c r="G258" t="n">
-        <v>0.15532947607644</v>
+        <v>0.1525556056529478</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01703754630642449</v>
+        <v>0.01385793013391928</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1493506003080383</v>
+        <v>0.1505210080136232</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05375447716392201</v>
+        <v>0.003333745940630628</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1505485453423042</v>
+        <v>0.1501480430305043</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04490489598370478</v>
+        <v>0.01086647182961724</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1428028263012229</v>
+        <v>0.1525556056529478</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02195692356075945</v>
+        <v>0.010695969104319</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1561342920146599</v>
+        <v>0.1533460492055538</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01713666361320922</v>
+        <v>0.01329000093192928</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1501244376153338</v>
+        <v>0.1513009096095487</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05401360157103235</v>
+        <v>0.002765061326533202</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1513285896186892</v>
+        <v>0.1509260121653773</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04357044294342349</v>
+        <v>0.010695969104319</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1435427373183277</v>
+        <v>0.1533460492055538</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02211069438054449</v>
+        <v>0.01062590705053544</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1569391079528798</v>
+        <v>0.1541364927581597</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01693619260086202</v>
+        <v>0.01281415556294652</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1508982749226293</v>
+        <v>0.1520808112054742</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05388277423747753</v>
+        <v>0.002724691008330726</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1521086338950742</v>
+        <v>0.1517039813002504</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04272795742454238</v>
+        <v>0.01062590705053544</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1442826483354324</v>
+        <v>0.1541364927581597</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02326979138971384</v>
+        <v>0.01055629083077212</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1577439238910997</v>
+        <v>0.1549269363107657</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01693613759557743</v>
+        <v>0.01183100776258614</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1516721122299249</v>
+        <v>0.1528607128013998</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05406218630513421</v>
+        <v>0.002113436983579797</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1528886781714592</v>
+        <v>0.1524819504351235</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04167759531774895</v>
+        <v>0.01055629083077212</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1450225593525372</v>
+        <v>0.1549269363107657</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02343430519787783</v>
+        <v>0.01048712560753459</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1585487398293196</v>
+        <v>0.1557173798633716</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01663650292355002</v>
+        <v>0.01144117126646316</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1524459495372204</v>
+        <v>0.1536406143973253</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05455202891587896</v>
+        <v>0.002532101249836938</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1536687224478442</v>
+        <v>0.1532599195699966</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04031951251373062</v>
+        <v>0.01048712560753459</v>
       </c>
       <c r="O262" t="n">
-        <v>0.145762470369642</v>
+        <v>0.1557173798633716</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02260432641464683</v>
+        <v>0.0106184165433284</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1593535557675395</v>
+        <v>0.1565078234159775</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01663729291097426</v>
+        <v>0.01054525981019283</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1532197868445159</v>
+        <v>0.1544205159932508</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05495249321158843</v>
+        <v>0.002381485804658634</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1544487667242292</v>
+        <v>0.1540378887048697</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0402538649031749</v>
+        <v>0.0106184165433284</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1465023813867468</v>
+        <v>0.1565078234159775</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02377994564963119</v>
+        <v>0.01035016880065911</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1601583717057594</v>
+        <v>0.1572982669685835</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01643851188404471</v>
+        <v>0.009643887129390072</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1539936241518115</v>
+        <v>0.1552004175891763</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05496377033413935</v>
+        <v>0.00256239264560143</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1552288110006141</v>
+        <v>0.1548158578397427</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03838080837676933</v>
+        <v>0.01035016880065911</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1472422924038516</v>
+        <v>0.1572982669685835</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1322.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1322.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8608268990399346</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04427267174838346</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04427267174838346</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07083627479741354</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.06338402137206353</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01291641854940109</v>
+        <v>0.01195362137206352</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01344451170363441</v>
+        <v>0.01244235016253591</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001244441055515653</v>
+        <v>0.003077449200917348</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007904435526059473</v>
+        <v>0.001644746526029077</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004507151664686848</v>
+        <v>0.003080747294112854</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000779901595925509</v>
+        <v>0.001654855074961058</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006697159843906786</v>
+        <v>0.009117490883580159</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007779691348730792</v>
+        <v>0.001650743777511546</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001244441055515653</v>
+        <v>0.0151107268832697</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007904435526059473</v>
+        <v>0.001656337379483671</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002743368359748803</v>
+        <v>0.005657892351541911</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001580887105211895</v>
+        <v>0.003289493052058155</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.008475585598285734</v>
+        <v>0.005745719492325337</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001559803191851018</v>
+        <v>0.003309710149922115</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01323011423032183</v>
+        <v>0.01512357192632582</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001555938269746158</v>
+        <v>0.003026282856789712</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002743368359748803</v>
+        <v>0.02715069946957283</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001580887105211895</v>
+        <v>0.003539249968957759</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003922255249622475</v>
+        <v>0.006640900762257512</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002371330657817841</v>
+        <v>0.004147450054178637</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01220029496681926</v>
+        <v>0.007714559999999995</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002339704787776527</v>
+        <v>0.004817983799999997</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01851976613027845</v>
+        <v>0.01890608605306476</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002333907404619238</v>
+        <v>0.004952231332534637</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.003922255249622475</v>
+        <v>0.03087052970656745</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002371330657817841</v>
+        <v>0.004969012138451012</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005569599999999994</v>
+        <v>0.00863805440324223</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003478389249999997</v>
+        <v>0.00657898610411631</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01567627293630997</v>
+        <v>0.008969175301438134</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003119606383702036</v>
+        <v>0.00661942029984423</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02156959999999997</v>
+        <v>0.02152359762795178</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002728205044524964</v>
+        <v>0.006602975110046184</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005569599999999994</v>
+        <v>0.03357221274653699</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003478389249999997</v>
+        <v>0.006625349517934683</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003478389249999997</v>
+        <v>0.004147450054178637</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005569599999999994</v>
+        <v>0.006640900762257512</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006067012809117769</v>
+        <v>0.0096919060353894</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003952217763029737</v>
+        <v>0.008223732630145386</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01756959999999999</v>
+        <v>0.009849203853313074</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003689788791138526</v>
+        <v>0.008274275374805287</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02693612356019637</v>
+        <v>0.02322253784162479</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003889845674365395</v>
+        <v>0.008253718887557729</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.006067012809117769</v>
+        <v>0.03647046072247856</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003952217763029737</v>
+        <v>0.008281686897418355</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006749194485211031</v>
+        <v>0.01060479413803071</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004742661315635683</v>
+        <v>0.009868479156174463</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02004680855444366</v>
+        <v>0.01066280533454667</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004679409575553054</v>
+        <v>0.009929130449766345</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03046514899350022</v>
+        <v>0.02482014008590624</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004667814809238475</v>
+        <v>0.009904462665069275</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.006749194485211031</v>
+        <v>0.03867456084532256</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004742661315635683</v>
+        <v>0.009938024276902024</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007476187929000996</v>
+        <v>0.01146190186334832</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005533104868241631</v>
+        <v>0.01151322568220354</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02135138448353099</v>
+        <v>0.01139421670224303</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005459311171478563</v>
+        <v>0.0115839855247274</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.0334954865528681</v>
+        <v>0.02673363775261867</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005445783944111555</v>
+        <v>0.01155520644258082</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.007476187929000996</v>
+        <v>0.04089380032599971</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005533104868241631</v>
+        <v>0.0115943616563857</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00805300079194296</v>
+        <v>0.01195362137206352</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006323548420847578</v>
+        <v>0.01244235016253591</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02276847106371807</v>
+        <v>0.01212767491350635</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006239212767404072</v>
+        <v>0.01323884059968846</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03564547827455916</v>
+        <v>0.0290837921660112</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006223753078984633</v>
+        <v>0.01363580320754717</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.00805300079194296</v>
+        <v>0.04253746637544048</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006323548420847578</v>
+        <v>0.01325069903586937</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008684640725492201</v>
+        <v>0.01224415727637878</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007113991973453524</v>
+        <v>0.0148027187342617</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02432635636492489</v>
+        <v>0.01291641854940109</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00701911436332958</v>
+        <v>0.01445395139999999</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03803346619483261</v>
+        <v>0.03057897196656184</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007001722213857712</v>
+        <v>0.01485669399760391</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.008684640725492201</v>
+        <v>0.04525116578262134</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007113991973453524</v>
+        <v>0.01474893</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.00947611538110401</v>
+        <v>0.01315238770748699</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007904435526059473</v>
+        <v>0.01644746526029077</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02555332845707145</v>
+        <v>0.01383296754556455</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007799015959255089</v>
+        <v>0.01654855074961057</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04037779234994759</v>
+        <v>0.03247197787187264</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007779691348730791</v>
+        <v>0.01650743777511546</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.00947611538110401</v>
+        <v>0.04789762282321997</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007904435526059473</v>
+        <v>0.01656337379483671</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01003243241023371</v>
+        <v>0.01505584306508771</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008694879078665419</v>
+        <v>0.01809221178631985</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02657767541007772</v>
+        <v>0.01496141195121772</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008578917555180598</v>
+        <v>0.01820340582457163</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04299679877616341</v>
+        <v>0.0345170619489665</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00855766048360387</v>
+        <v>0.01815818155262701</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01003243241023371</v>
+        <v>0.05079837126713033</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008694879078665419</v>
+        <v>0.01821971117432038</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01035859946433657</v>
+        <v>0.01594392456746918</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009485322631271366</v>
+        <v>0.01973695831234893</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02802768529386376</v>
+        <v>0.01591331839147973</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009358819151106108</v>
+        <v>0.01985826089953269</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04525116578262134</v>
+        <v>0.03658136081147226</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009539232589600113</v>
+        <v>0.01980892533013855</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01035859946433657</v>
+        <v>0.05464968034635853</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009485322631271366</v>
+        <v>0.01987604855380405</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01085962419486789</v>
+        <v>0.01680603343291963</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01027576618387731</v>
+        <v>0.02138170483837801</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0290837921660112</v>
+        <v>0.01677269075378742</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01017980397371508</v>
+        <v>0.02151311597449375</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04587832451595786</v>
+        <v>0.03903201107301874</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01011359875335003</v>
+        <v>0.0214596691076501</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01085962419486789</v>
+        <v>0.05728613325672904</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01027576618387731</v>
+        <v>0.02153238593328772</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01144051425328297</v>
+        <v>0.0176315708797273</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01106620973648326</v>
+        <v>0.02302645136440708</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02952240754235505</v>
+        <v>0.01782353292557756</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01091862234295713</v>
+        <v>0.02316797104945481</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04803100654944137</v>
+        <v>0.04073614934723477</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01089156788822311</v>
+        <v>0.02311041288516164</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01144051425328297</v>
+        <v>0.06074231319406659</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01106620973648326</v>
+        <v>0.02318872331277139</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01190627729103711</v>
+        <v>0.01740993812618042</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01185665328908921</v>
+        <v>0.02467119789043616</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03081518491863408</v>
+        <v>0.01854984879428694</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01169852393888263</v>
+        <v>0.02482282612441586</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04907158553737073</v>
+        <v>0.04286091224774913</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01166953702309619</v>
+        <v>0.02476115666267319</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01190627729103711</v>
+        <v>0.06385280335419569</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01185665328908921</v>
+        <v>0.02484506069225506</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01226192095958559</v>
+        <v>0.01813053639056724</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01264709684169516</v>
+        <v>0.02631594441646524</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03150876516837978</v>
+        <v>0.01963564224735238</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01247842553480814</v>
+        <v>0.02647768119937692</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05129875578702903</v>
+        <v>0.0447734363881907</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01244750615796927</v>
+        <v>0.02641190044018473</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01226192095958559</v>
+        <v>0.06785218693294098</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01264709684169516</v>
+        <v>0.02650139807173873</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01291641854940109</v>
+        <v>0.01978276689117598</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01344451170363441</v>
+        <v>0.02796069094249432</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0330019073917231</v>
+        <v>0.02046491717221063</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01325832713073365</v>
+        <v>0.02813253627433798</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05271121160569958</v>
+        <v>0.04694085838218828</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01322547529284234</v>
+        <v>0.02806264421769628</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01291641854940109</v>
+        <v>0.07087504712612708</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01344451170363441</v>
+        <v>0.0281577354512224</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01316512071008211</v>
+        <v>0.02035603084629489</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01422798394690705</v>
+        <v>0.02960543746852339</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03359337068879492</v>
+        <v>0.02102167745629854</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01403822872665916</v>
+        <v>0.02978739134929903</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05460764730066542</v>
+        <v>0.0480303148433707</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01400344442771542</v>
+        <v>0.02971338799520782</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01316512071008211</v>
+        <v>0.07285596712957854</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01422798394690705</v>
+        <v>0.02981407283070607</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01372330371126119</v>
+        <v>0.02083972947421215</v>
       </c>
       <c r="G84" t="n">
-        <v>0.015018427499513</v>
+        <v>0.03125018399455247</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03458191415972617</v>
+        <v>0.02168992698705289</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01481813032258467</v>
+        <v>0.03144224642426009</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05538675717920971</v>
+        <v>0.04970894238536672</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0147814135625885</v>
+        <v>0.03136413177271937</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01372330371126119</v>
+        <v>0.0754295301391199</v>
       </c>
       <c r="O84" t="n">
-        <v>0.015018427499513</v>
+        <v>0.03147041021018974</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01418603507086096</v>
+        <v>0.02122326399321606</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01580887105211895</v>
+        <v>0.03289493052058155</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03556629690464777</v>
+        <v>0.02235366965191046</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01559803191851018</v>
+        <v>0.03309710149922115</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05714723554861556</v>
+        <v>0.05074387762180529</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01555938269746158</v>
+        <v>0.03301487555023092</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01418603507086096</v>
+        <v>0.07793031935057598</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01580887105211895</v>
+        <v>0.03312674758967342</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01465234769102273</v>
+        <v>0.02051913488406439</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01659931460472489</v>
+        <v>0.03453967704661062</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03664527802369066</v>
+        <v>0.02289690933830803</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01637793351443569</v>
+        <v>0.03475195657418221</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05918777671616604</v>
+        <v>0.05190225716631511</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01633735183233466</v>
+        <v>0.03466561932774246</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01465234769102273</v>
+        <v>0.07989291795977121</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01659931460472489</v>
+        <v>0.03478308496915709</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01502127447388787</v>
+        <v>0.01980076597505003</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01738975815733084</v>
+        <v>0.0361844235726397</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03751761661698569</v>
+        <v>0.02302522844649892</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0171578351103612</v>
+        <v>0.03640681164914326</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05990707498914433</v>
+        <v>0.05260253112000454</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01711532096720774</v>
+        <v>0.03631636310525401</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01502127447388787</v>
+        <v>0.08119357001882627</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01738975815733084</v>
+        <v>0.03643942234864075</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01559184832159769</v>
+        <v>0.02207289202759095</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01818020170993679</v>
+        <v>0.03782917009866878</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03878207178466381</v>
+        <v>0.02333219369884752</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01793773670628671</v>
+        <v>0.03806166672410433</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06210382467483355</v>
+        <v>0.05288250991921209</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01789329010208082</v>
+        <v>0.03796710688276556</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01559184832159769</v>
+        <v>0.08157494954749894</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01818020170993679</v>
+        <v>0.03809575972812443</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01596310213629353</v>
+        <v>0.02033361628952985</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01897064526254273</v>
+        <v>0.03947391662469785</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03963740262685594</v>
+        <v>0.023728931190038</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01871763830221222</v>
+        <v>0.03971652179906538</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06307672008051685</v>
+        <v>0.0535375281339176</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0186712592369539</v>
+        <v>0.0396178506602771</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01596310213629353</v>
+        <v>0.08242158811364003</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01897064526254273</v>
+        <v>0.0397520971076081</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01643406882011673</v>
+        <v>0.0225810420087094</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01976108881514868</v>
+        <v>0.04111866315072693</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04038236824369304</v>
+        <v>0.02411335337353301</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01949753989813773</v>
+        <v>0.04137137687402644</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06432445551347732</v>
+        <v>0.05416292019963015</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01944922837182698</v>
+        <v>0.04126859443778865</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01643406882011673</v>
+        <v>0.08352615257112933</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01976108881514868</v>
+        <v>0.04140843448709177</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01710378127520863</v>
+        <v>0.02181327243297231</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02055153236775463</v>
+        <v>0.04276340967675601</v>
       </c>
       <c r="J91" t="n">
-        <v>0.041415727735306</v>
+        <v>0.02428337270279519</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02027744149406323</v>
+        <v>0.04302623194898749</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06654572528099811</v>
+        <v>0.05485402055185878</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02022719750670006</v>
+        <v>0.0429193382153002</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01710378127520863</v>
+        <v>0.08488130977384661</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02055153236775463</v>
+        <v>0.04306477186657545</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01757127240371053</v>
+        <v>0.02102841081016123</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02134197592036058</v>
+        <v>0.04440815620278509</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04223624020182565</v>
+        <v>0.02463690163128721</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02105734308998874</v>
+        <v>0.04468108702394855</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06773922369036239</v>
+        <v>0.05550616362611266</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02100516664157314</v>
+        <v>0.04457008199281174</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01757127240371053</v>
+        <v>0.08527972657567179</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02134197592036058</v>
+        <v>0.04472110924605911</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01803557510776379</v>
+        <v>0.02122456038811885</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02213241947296652</v>
+        <v>0.04605290272881416</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04344266474338307</v>
+        <v>0.0247718526124717</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02183724468591425</v>
+        <v>0.04633594209890961</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06870364504885329</v>
+        <v>0.05591468385790074</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02178313577644622</v>
+        <v>0.04622082577032328</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01803557510776379</v>
+        <v>0.08691406983048455</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02213241947296652</v>
+        <v>0.04637744662554278</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01849572228950973</v>
+        <v>0.02239982441468789</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02292286302557247</v>
+        <v>0.04769764925484324</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04403376046010904</v>
+        <v>0.02508613809981131</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02261714628183976</v>
+        <v>0.04799079717387067</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06983768366375376</v>
+        <v>0.05617491568273225</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0225611049113193</v>
+        <v>0.04787156954783483</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01849572228950973</v>
+        <v>0.08727700639216457</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02292286302557247</v>
+        <v>0.04803378400502645</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0187507468510897</v>
+        <v>0.021552306137711</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02371330657817842</v>
+        <v>0.04934239578087232</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04490828645213454</v>
+        <v>0.02507767054676872</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02339704787776527</v>
+        <v>0.04964565224883172</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07144003384234721</v>
+        <v>0.05678219353611616</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02333907404619237</v>
+        <v>0.04952231332534638</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0187507468510897</v>
+        <v>0.08826120311459196</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02371330657817842</v>
+        <v>0.04969012138451012</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01929968169464503</v>
+        <v>0.02368010880503087</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02450375013078436</v>
+        <v>0.0509871423069014</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04576500181959048</v>
+        <v>0.02544436240680658</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02417694947369078</v>
+        <v>0.05130050732379279</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07280938989191649</v>
+        <v>0.05713185185356162</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02411704318106546</v>
+        <v>0.05117305710285792</v>
       </c>
       <c r="N96" t="n">
-        <v>0.01929968169464503</v>
+        <v>0.08875932685164623</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02450375013078436</v>
+        <v>0.0513464587639938</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01974155972231701</v>
+        <v>0.02278133566449018</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02529419368339031</v>
+        <v>0.05263188883293048</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04670266566260778</v>
+        <v>0.02548412613338751</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02495685106961629</v>
+        <v>0.05295536239875384</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07394444611974504</v>
+        <v>0.05751922507057772</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02489501231593853</v>
+        <v>0.05282380088036947</v>
       </c>
       <c r="N97" t="n">
-        <v>0.01974155972231701</v>
+        <v>0.08906404445720728</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02529419368339031</v>
+        <v>0.05300279614347746</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02007541383624702</v>
+        <v>0.02185408996393163</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02608463723599626</v>
+        <v>0.05427663535895955</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04772003708131736</v>
+        <v>0.02569487417997419</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02573675266554179</v>
+        <v>0.0546102174737149</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07564389683311568</v>
+        <v>0.05793964762267348</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02567298145081161</v>
+        <v>0.05447454465788101</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02007541383624702</v>
+        <v>0.08986802278515499</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02608463723599626</v>
+        <v>0.05465913352296113</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02060027693857642</v>
+        <v>0.02390724274412705</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02687508078860221</v>
+        <v>0.05592138188498863</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04831587517585009</v>
+        <v>0.02577451900002927</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0265166542614673</v>
+        <v>0.05626507254867595</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07670643633931173</v>
+        <v>0.05816758433202243</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02645095058568469</v>
+        <v>0.05612528843539256</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02060027693857642</v>
+        <v>0.08956392868936902</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02687508078860221</v>
+        <v>0.0563154709024448</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02111518193144648</v>
+        <v>0.02390692711875061</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02766552434120815</v>
+        <v>0.05756612841101771</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0488889390463369</v>
+        <v>0.02583283709880218</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02729655585739281</v>
+        <v>0.05791992762363701</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07763075894561622</v>
+        <v>0.05816097847414056</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02722891972055777</v>
+        <v>0.0577760322129041</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02111518193144648</v>
+        <v>0.09050233156524273</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02766552434120815</v>
+        <v>0.05797180828192848</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02141916171699857</v>
+        <v>0.02289568958885434</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0284559678938141</v>
+        <v>0.05921087493704678</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04983798779290879</v>
+        <v>0.02573250225858611</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02807645745331832</v>
+        <v>0.05957478269859807</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07901555895931228</v>
+        <v>0.05816038834423692</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02800688885543085</v>
+        <v>0.05942677599041565</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02141916171699857</v>
+        <v>0.08970226261998893</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0284559678938141</v>
+        <v>0.05962814566141215</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.021711249197374</v>
+        <v>0.02386908479650721</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02924641144642005</v>
+        <v>0.06085562146307586</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05056178051569662</v>
+        <v>0.02582026343754482</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02885635904924383</v>
+        <v>0.06122963777355912</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07995953068768324</v>
+        <v>0.05771736242128783</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02878485799030393</v>
+        <v>0.06107751976792719</v>
       </c>
       <c r="N102" t="n">
-        <v>0.021711249197374</v>
+        <v>0.09026824605273226</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02924641144642005</v>
+        <v>0.06128448304089582</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02209047727471412</v>
+        <v>0.02382811238479544</v>
       </c>
       <c r="G103" t="n">
-        <v>0.030036854999026</v>
+        <v>0.06250036798910494</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05105907631483125</v>
+        <v>0.02579121963375635</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02963626064516934</v>
+        <v>0.06288449284852018</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08106136843801193</v>
+        <v>0.05753767673545193</v>
       </c>
       <c r="M103" t="n">
-        <v>0.029562827125177</v>
+        <v>0.06272826354543874</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02209047727471412</v>
+        <v>0.08947468936034148</v>
       </c>
       <c r="O103" t="n">
-        <v>0.030036854999026</v>
+        <v>0.06294082042037949</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02265587885116028</v>
+        <v>0.02177377199680516</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03082729855163194</v>
+        <v>0.06414511451513402</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0519286342904437</v>
+        <v>0.0255464710444474</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03041616224109485</v>
+        <v>0.06453934792348123</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0818197665175816</v>
+        <v>0.05752379017376327</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03034079626005009</v>
+        <v>0.06437900732295029</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02265587885116028</v>
+        <v>0.08952545732229822</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03082729855163194</v>
+        <v>0.06459715779986315</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02290648682885376</v>
+        <v>0.02370706327562264</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03161774210423789</v>
+        <v>0.06578986104116309</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05246921354266482</v>
+        <v>0.02548711786684465</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03119606383702036</v>
+        <v>0.06619420299844229</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08233341923367554</v>
+        <v>0.05767816162325609</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03111876539492316</v>
+        <v>0.06602975110046183</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02290648682885376</v>
+        <v>0.08982441471808411</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03161774210423789</v>
+        <v>0.06625349517934684</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02334133410993593</v>
+        <v>0.02162898586433407</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03240818565684384</v>
+        <v>0.06743460756719216</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0532795731716256</v>
+        <v>0.02551426029817479</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03197596543294587</v>
+        <v>0.06784905807340336</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08330102089357672</v>
+        <v>0.05710324997096447</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03189673452979624</v>
+        <v>0.06768049487797338</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02334133410993593</v>
+        <v>0.08977542632718044</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03240818565684384</v>
+        <v>0.0679098325588305</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02355945359654812</v>
+        <v>0.02154053940602565</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03319862920944978</v>
+        <v>0.06907935409322125</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05365847227745682</v>
+        <v>0.0254289985356645</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03275586702887137</v>
+        <v>0.06950391314836442</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0844212658045681</v>
+        <v>0.05690151410392255</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03267470366466933</v>
+        <v>0.06933123865548492</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02355945359654812</v>
+        <v>0.08908235692906907</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03319862920944978</v>
+        <v>0.06956616993831417</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02385987819083168</v>
+        <v>0.02244272354378358</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03398907276205573</v>
+        <v>0.07072410061925032</v>
       </c>
       <c r="J108" t="n">
-        <v>0.05450466996028958</v>
+        <v>0.02533243277654048</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03353576862479688</v>
+        <v>0.07115876822332548</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08459284827393315</v>
+        <v>0.05707541290916446</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0334526727995424</v>
+        <v>0.07098198243299647</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02385987819083168</v>
+        <v>0.08824907130323145</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03398907276205573</v>
+        <v>0.07122250731779785</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02414164079492791</v>
+        <v>0.02233653792069409</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03477951631466168</v>
+        <v>0.0723688471452794</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05501692532025462</v>
+        <v>0.02532566321802939</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03431567022072239</v>
+        <v>0.07281362329828653</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0854144626089548</v>
+        <v>0.0565274052737243</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03423064193441548</v>
+        <v>0.07263272621050802</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02414164079492791</v>
+        <v>0.0885794342291491</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03477951631466168</v>
+        <v>0.07287884469728151</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02430377431097818</v>
+        <v>0.02122298217984333</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03556995986726762</v>
+        <v>0.07401359367130848</v>
       </c>
       <c r="J110" t="n">
-        <v>0.05559399745748297</v>
+        <v>0.02520979005735794</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0350955718166479</v>
+        <v>0.07446847837324759</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08618480311691623</v>
+        <v>0.05625995008463625</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03500861106928856</v>
+        <v>0.07428346998801956</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02430377431097818</v>
+        <v>0.08807731048630357</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03556995986726762</v>
+        <v>0.07453518207676518</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02464531164112378</v>
+        <v>0.02210305596431756</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03636040341987357</v>
+        <v>0.07565834019733755</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0556346454721055</v>
+        <v>0.02488591349175281</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03587547341257341</v>
+        <v>0.07612333344820865</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08710256410510053</v>
+        <v>0.05627550622893449</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03578658020416164</v>
+        <v>0.07593421376553111</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02464531164112378</v>
+        <v>0.08794656485417651</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03636040341987357</v>
+        <v>0.07619151945624886</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02486528568750607</v>
+        <v>0.02297775891720297</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03715084697247952</v>
+        <v>0.07730308672336664</v>
       </c>
       <c r="J112" t="n">
-        <v>0.05623762846425312</v>
+        <v>0.02475513371844069</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03665537500849892</v>
+        <v>0.0777781885231697</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08716643988079087</v>
+        <v>0.055576532593653</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03656454933903472</v>
+        <v>0.07758495754304265</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02486528568750607</v>
+        <v>0.08729106211224941</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03715084697247952</v>
+        <v>0.07784785683573253</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0250627293522664</v>
+        <v>0.02184809068158574</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03794129052508546</v>
+        <v>0.07894783324939571</v>
       </c>
       <c r="J113" t="n">
-        <v>0.05630170553405683</v>
+        <v>0.02481855093464828</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03743527660442443</v>
+        <v>0.07943304359813076</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0884751247512704</v>
+        <v>0.05576548806582604</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0373425184739078</v>
+        <v>0.0792357013205542</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0250627293522664</v>
+        <v>0.08651466704000382</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03794129052508546</v>
+        <v>0.07950419421521619</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02513667553754604</v>
+        <v>0.02271505090055213</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03873173407769142</v>
+        <v>0.08059257977542479</v>
       </c>
       <c r="J114" t="n">
-        <v>0.05712563578164742</v>
+        <v>0.02447726533760223</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03821517820034994</v>
+        <v>0.08108789867309181</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08822731302382214</v>
+        <v>0.0553448315324877</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03812048760878088</v>
+        <v>0.08088644509806575</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02513667553754604</v>
+        <v>0.08612124441692137</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03873173407769142</v>
+        <v>0.08116053159469987</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02548615714548639</v>
+        <v>0.02257963921718827</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03952217763029736</v>
+        <v>0.08223732630145386</v>
       </c>
       <c r="J115" t="n">
-        <v>0.05720817830715594</v>
+        <v>0.02433237712452924</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03899507979627545</v>
+        <v>0.08274275374805287</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0886216990057293</v>
+        <v>0.05471702188067207</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03889845674365396</v>
+        <v>0.0825371888755773</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02548615714548639</v>
+        <v>0.08591465902248346</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03952217763029736</v>
+        <v>0.08281686897418354</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02561020707822876</v>
+        <v>0.02144285527458042</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04031262118290331</v>
+        <v>0.08388207282748295</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0572480922107132</v>
+        <v>0.02428498649265603</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03977498139220095</v>
+        <v>0.08439760882301393</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08885697700427514</v>
+        <v>0.05478451799741338</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03967642587852704</v>
+        <v>0.08418793265308884</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02561020707822876</v>
+        <v>0.08509877563617185</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04031262118290331</v>
+        <v>0.08447320635366722</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02560785823791447</v>
+        <v>0.02230569871581477</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04110306473550926</v>
+        <v>0.08552681935351203</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05754413659245017</v>
+        <v>0.02413619363920928</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04055488298812646</v>
+        <v>0.08605246389797498</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08983184132674249</v>
+        <v>0.05404977876974568</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04045439501340011</v>
+        <v>0.08583867643060039</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02560785823791447</v>
+        <v>0.08407745903746794</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04110306473550926</v>
+        <v>0.08612954373315089</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02577814352668487</v>
+        <v>0.02016916918397752</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0418935082881152</v>
+        <v>0.0871715658795411</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05769507055249776</v>
+        <v>0.02388709876141563</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04133478458405197</v>
+        <v>0.08770731897293604</v>
       </c>
       <c r="L118" t="n">
-        <v>0.08934498628041471</v>
+        <v>0.05371526308470315</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04123236414827319</v>
+        <v>0.08748942020811193</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02577814352668487</v>
+        <v>0.08355457400585331</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0418935082881152</v>
+        <v>0.08778588111263455</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02583283709880218</v>
+        <v>0.02003421827779406</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04268395184072115</v>
+        <v>0.08881631240557018</v>
       </c>
       <c r="J119" t="n">
-        <v>0.05799965319098688</v>
+        <v>0.0237388020565018</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04211468617997748</v>
+        <v>0.08936217404789711</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08959510617257488</v>
+        <v>0.05338342982931987</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04201033328314627</v>
+        <v>0.08914016398562348</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02583283709880218</v>
+        <v>0.08343398532080959</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04268395184072115</v>
+        <v>0.08944221849211823</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02573280264589577</v>
+        <v>0.01988803660415723</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0434743953933271</v>
+        <v>0.09046105893159925</v>
       </c>
       <c r="J120" t="n">
-        <v>0.05816758433202243</v>
+        <v>0.02379197635796287</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04289458777590299</v>
+        <v>0.09101702912285815</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09050233156524273</v>
+        <v>0.05324793209900933</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04278830241801936</v>
+        <v>0.09079090776313502</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02573280264589577</v>
+        <v>0.08281945298618482</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0434743953933271</v>
+        <v>0.09109855587160189</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02582615628582457</v>
+        <v>0.02172230491501442</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04426483894593305</v>
+        <v>0.09210580545762832</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05786649675940606</v>
+        <v>0.02363035807451871</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0436744893718285</v>
+        <v>0.09267188419781923</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08980035271131553</v>
+        <v>0.05296721778991692</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04356627155289244</v>
+        <v>0.09244165154064657</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02582615628582457</v>
+        <v>0.08266309177812542</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04426483894593305</v>
+        <v>0.09275489325108556</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02580835791398566</v>
+        <v>0.02154028016703301</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04505528249853899</v>
+        <v>0.09375055198365741</v>
       </c>
       <c r="J122" t="n">
-        <v>0.05765044884868842</v>
+        <v>0.02324778620907168</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04445439096775401</v>
+        <v>0.09432673927278028</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09003010730868383</v>
+        <v>0.05244240987174931</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04434424068776551</v>
+        <v>0.09409239531815811</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02580835791398566</v>
+        <v>0.08213157912394026</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04505528249853899</v>
+        <v>0.09441123063056923</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02567992672296229</v>
+        <v>0.0193452193168805</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04584572605114494</v>
+        <v>0.09539529850968648</v>
       </c>
       <c r="J123" t="n">
-        <v>0.05781571162193816</v>
+        <v>0.02314784533569867</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04523429256367952</v>
+        <v>0.09598159434774134</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08966360465487272</v>
+        <v>0.05188151969238733</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04512220982263859</v>
+        <v>0.09574313909566966</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02567992672296229</v>
+        <v>0.08103750693715756</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04584572605114494</v>
+        <v>0.09606756801005291</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02564138190533772</v>
+        <v>0.01914037932122426</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04663616960375089</v>
+        <v>0.09704004503571556</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0580629131746265</v>
+        <v>0.02293412002847652</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04601419415960502</v>
+        <v>0.0976364494227024</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08940675556030864</v>
+        <v>0.05159255859971174</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04590017895751167</v>
+        <v>0.09739388287318121</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02564138190533772</v>
+        <v>0.08059346713130561</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04663616960375089</v>
+        <v>0.09772390538953657</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02549324265369517</v>
+        <v>0.0209290171367317</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04742661315635684</v>
+        <v>0.09868479156174463</v>
       </c>
       <c r="J125" t="n">
-        <v>0.05779268160222464</v>
+        <v>0.02281019486148213</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04679409575553053</v>
+        <v>0.09929130449766345</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08916547083541793</v>
+        <v>0.05078353794160334</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04667814809238475</v>
+        <v>0.09904462665069276</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02549324265369517</v>
+        <v>0.07961205161991242</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04742661315635684</v>
+        <v>0.09938024276902024</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0254360281606179</v>
+        <v>0.02071438972007022</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04821705670896279</v>
+        <v>0.1003295380877737</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05760564500020388</v>
+        <v>0.02257965440879236</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04757399735145604</v>
+        <v>0.1009461595726245</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08844566129062709</v>
+        <v>0.05026246906594301</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04745611722725782</v>
+        <v>0.1006953704282043</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0254360281606179</v>
+        <v>0.07890585231650632</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04821705670896279</v>
+        <v>0.1010365801485039</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02537025761868918</v>
+        <v>0.01949975402790727</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04900750026156873</v>
+        <v>0.1019742846138028</v>
       </c>
       <c r="J127" t="n">
-        <v>0.05730243146403527</v>
+        <v>0.02214608324448406</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04835389894738155</v>
+        <v>0.1026010146475856</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08875323773636262</v>
+        <v>0.05003736332061159</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04823408636213091</v>
+        <v>0.1023461142057158</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02537025761868918</v>
+        <v>0.07778746113461549</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04900750026156873</v>
+        <v>0.1026929175279876</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0254964502204922</v>
+        <v>0.01828836701691029</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04979794381417468</v>
+        <v>0.1036190311398319</v>
       </c>
       <c r="J128" t="n">
-        <v>0.05728366908919014</v>
+        <v>0.02201306594263413</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04913380054330706</v>
+        <v>0.1042558697225466</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08739411098305083</v>
+        <v>0.04921623205348971</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04901205549700399</v>
+        <v>0.1039968579832274</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0254964502204922</v>
+        <v>0.07706946998776804</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04979794381417468</v>
+        <v>0.1043492549074713</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02531512515861024</v>
+        <v>0.01908348564374663</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05058838736678063</v>
+        <v>0.105263777665861</v>
       </c>
       <c r="J129" t="n">
-        <v>0.05744998597113968</v>
+        <v>0.02168418707731942</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04991370213923257</v>
+        <v>0.1059107247975077</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08687419184111833</v>
+        <v>0.04890708661245841</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04979002463187707</v>
+        <v>0.1056476017607389</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02531512515861024</v>
+        <v>0.07656447078949236</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05058838736678063</v>
+        <v>0.1060055922869549</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02512680162562652</v>
+        <v>0.01888832067790782</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05137883091938657</v>
+        <v>0.10690852419189</v>
       </c>
       <c r="J130" t="n">
-        <v>0.05700201020535503</v>
+        <v>0.02146303122261679</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05069360373515808</v>
+        <v>0.1075655798724687</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08659939112099141</v>
+        <v>0.0484179383453984</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05056799376675015</v>
+        <v>0.1072983455382505</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02512680162562652</v>
+        <v>0.07598505545331641</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05137883091938657</v>
+        <v>0.1076619296664386</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02523199881412431</v>
+        <v>0.01768678607953397</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05216927447199252</v>
+        <v>0.1085532707179191</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05724036988730749</v>
+        <v>0.0214521330391436</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05147350533108359</v>
+        <v>0.1092204349474298</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08577561963309654</v>
+        <v>0.04784296509095068</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05134596290162322</v>
+        <v>0.108949089315762</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02523199881412431</v>
+        <v>0.07524294402045212</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05216927447199252</v>
+        <v>0.1093182670459223</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02513123591668683</v>
+        <v>0.01946722761879576</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05295971802459847</v>
+        <v>0.1101980172439482</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0568656931124682</v>
+        <v>0.02102900893473227</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0522534069270091</v>
+        <v>0.1108752900223909</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08510878818786027</v>
+        <v>0.04732666607271779</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0521239320364963</v>
+        <v>0.1105998330932736</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02513123591668683</v>
+        <v>0.07446955487347168</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05295971802459847</v>
+        <v>0.110974604425406</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02502503212589734</v>
+        <v>0.01823430763011673</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05375016157720441</v>
+        <v>0.1118427637699773</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05637860797630842</v>
+        <v>0.02088713165276073</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05303330852293461</v>
+        <v>0.1125301450973519</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08400480759570894</v>
+        <v>0.04657212048353801</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05290190117136938</v>
+        <v>0.1122505768707851</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02502503212589734</v>
+        <v>0.07362821906182343</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05375016157720441</v>
+        <v>0.1126309418048896</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02481390663433907</v>
+        <v>0.01699268844792044</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05454060512981036</v>
+        <v>0.1134875102960063</v>
       </c>
       <c r="J134" t="n">
-        <v>0.05647974257429933</v>
+        <v>0.02063163251207006</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05381321011886012</v>
+        <v>0.114185000172313</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08316958866706903</v>
+        <v>0.04649079657024954</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05367987030624246</v>
+        <v>0.1139013206482967</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02481390663433907</v>
+        <v>0.07263696191341196</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05454060512981036</v>
+        <v>0.1142872791843733</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02459837863459528</v>
+        <v>0.01674703240663037</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0553310486824163</v>
+        <v>0.1151322568220354</v>
       </c>
       <c r="J135" t="n">
-        <v>0.05636972500191217</v>
+        <v>0.02046764283150147</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05459311171478563</v>
+        <v>0.115839855247274</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08260904221236698</v>
+        <v>0.04579416257969068</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05445783944111554</v>
+        <v>0.1155520644258082</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02459837863459528</v>
+        <v>0.07121380875614153</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0553310486824163</v>
+        <v>0.115943616563857</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02467896731924919</v>
+        <v>0.01850200184067011</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05612149223502225</v>
+        <v>0.1167770033480645</v>
       </c>
       <c r="J136" t="n">
-        <v>0.05604918335461809</v>
+        <v>0.020000293929896</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05537301331071113</v>
+        <v>0.1174947103222351</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08122907904202931</v>
+        <v>0.04519368675869984</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05523580857598862</v>
+        <v>0.1172028082033197</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02467896731924919</v>
+        <v>0.07087678491791671</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05612149223502225</v>
+        <v>0.1175999539433406</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02455619188088406</v>
+        <v>0.01726225908446317</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0569119357876282</v>
+        <v>0.1184217498740936</v>
       </c>
       <c r="J137" t="n">
-        <v>0.05571874572788835</v>
+        <v>0.01973471712609489</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05615291490663664</v>
+        <v>0.1191495653971961</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08083560996648226</v>
+        <v>0.04430083735411522</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0560137777108617</v>
+        <v>0.1188535519808313</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02455619188088406</v>
+        <v>0.06974391572664196</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0569119357876282</v>
+        <v>0.1192562913228243</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02423057151208314</v>
+        <v>0.01703246647243307</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05770237934023415</v>
+        <v>0.1200664964001227</v>
       </c>
       <c r="J138" t="n">
-        <v>0.05557904021719412</v>
+        <v>0.01957604373893925</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05693281650256216</v>
+        <v>0.1208044204721572</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08013454579615253</v>
+        <v>0.04392708261277528</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05679174684573478</v>
+        <v>0.1205042957583428</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02423057151208314</v>
+        <v>0.06903322651022142</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05770237934023415</v>
+        <v>0.120912628702308</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02420262540542966</v>
+        <v>0.01681728633900337</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05849282289284009</v>
+        <v>0.1217112429261517</v>
       </c>
       <c r="J139" t="n">
-        <v>0.05513069491800665</v>
+        <v>0.01942940508727022</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05771271809848767</v>
+        <v>0.1224592755471182</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07933179734146634</v>
+        <v>0.04348389078151824</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05756971598060786</v>
+        <v>0.1221550395358544</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02420262540542966</v>
+        <v>0.0681627425965598</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05849282289284009</v>
+        <v>0.1225689660817916</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02397287275350688</v>
+        <v>0.01562138101859761</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05928326644544604</v>
+        <v>0.1233559894521808</v>
       </c>
       <c r="J140" t="n">
-        <v>0.05517433792579718</v>
+        <v>0.01919993248992893</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05849261969441316</v>
+        <v>0.1241141306220793</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07843327541285028</v>
+        <v>0.04308273010718244</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05834768511548094</v>
+        <v>0.1238057833133659</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02397287275350688</v>
+        <v>0.06715048931356149</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05928326644544604</v>
+        <v>0.1242253034612753</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02384183274889803</v>
+        <v>0.0154494128456393</v>
       </c>
       <c r="G141" t="n">
-        <v>0.060073709998052</v>
+        <v>0.1250007359782099</v>
       </c>
       <c r="J141" t="n">
-        <v>0.05471059733603684</v>
+        <v>0.01879275726575654</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05927252129033868</v>
+        <v>0.1257689856970404</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07694489082073075</v>
+        <v>0.04243506883660625</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05912565425035401</v>
+        <v>0.1254565270908775</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02384183274889803</v>
+        <v>0.06631449198913081</v>
       </c>
       <c r="O141" t="n">
-        <v>0.060073709998052</v>
+        <v>0.125881640840759</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02371002458418634</v>
+        <v>0.01630604415455199</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06086415355065794</v>
+        <v>0.126645482504239</v>
       </c>
       <c r="J142" t="n">
-        <v>0.05454010124419684</v>
+        <v>0.01871301073359419</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06005242288626419</v>
+        <v>0.1274238407720014</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07577255437553415</v>
+        <v>0.04185237521662788</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05990362338522709</v>
+        <v>0.127107270868389</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02371002458418634</v>
+        <v>0.06587277595117225</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06086415355065794</v>
+        <v>0.1275379782202427</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0235779674519551</v>
+        <v>0.01519593727975922</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06165459710326389</v>
+        <v>0.128290229030268</v>
       </c>
       <c r="J143" t="n">
-        <v>0.05396347774574842</v>
+        <v>0.01866582421228304</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0608323244821897</v>
+        <v>0.1290786958469625</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07522217688768701</v>
+        <v>0.04164611749408581</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06068159252010017</v>
+        <v>0.1287580146459006</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0235779674519551</v>
+        <v>0.06484336652759026</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06165459710326389</v>
+        <v>0.1291943155997263</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0234461805447875</v>
+        <v>0.01512375455568451</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06244504065586983</v>
+        <v>0.1299349755562971</v>
       </c>
       <c r="J144" t="n">
-        <v>0.05398135493616282</v>
+        <v>0.0183563290206642</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0616122260781152</v>
+        <v>0.1307335509219235</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07449966916761563</v>
+        <v>0.04142776391581826</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06145956165497326</v>
+        <v>0.1304087584234121</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0234461805447875</v>
+        <v>0.06504428904628923</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06244504065586983</v>
+        <v>0.13085065297921</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02341518305526683</v>
+        <v>0.0150941583167514</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06323548420847579</v>
+        <v>0.1315797220823262</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0534943609109112</v>
+        <v>0.01848965647757882</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06239212767404071</v>
+        <v>0.1323884059968846</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07421094202574663</v>
+        <v>0.04160878272866356</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06223753078984633</v>
+        <v>0.1320595022009237</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02341518305526683</v>
+        <v>0.06419356883517369</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06323548420847579</v>
+        <v>0.1325069903586937</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02338549417597629</v>
+        <v>0.01509621491583776</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06402592776108172</v>
+        <v>0.1332244686083552</v>
       </c>
       <c r="J146" t="n">
-        <v>0.05320312376546479</v>
+        <v>0.01837054507908454</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06317202926996622</v>
+        <v>0.1340432610718457</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0725619062725063</v>
+        <v>0.04109136799158911</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0630154999247194</v>
+        <v>0.1337102459784352</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02338549417597629</v>
+        <v>0.0639091764117794</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06402592776108172</v>
+        <v>0.1341633277381773</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02305763309949915</v>
+        <v>0.01610537306291708</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06481637131368767</v>
+        <v>0.1348692151343843</v>
       </c>
       <c r="J147" t="n">
-        <v>0.05290827159529476</v>
+        <v>0.01847528470573525</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06395193086589174</v>
+        <v>0.1356981161468067</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07245847271832118</v>
+        <v>0.04120683211170753</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06379346905959249</v>
+        <v>0.1353609897559468</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02305763309949915</v>
+        <v>0.06432305622738455</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06481637131368767</v>
+        <v>0.135819665117661</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02313211901841866</v>
+        <v>0.01512088086053134</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06560681486629362</v>
+        <v>0.1365139616604134</v>
       </c>
       <c r="J148" t="n">
-        <v>0.05291043249587243</v>
+        <v>0.01838723947686827</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06473183246181724</v>
+        <v>0.1373529712217678</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07120655217361777</v>
+        <v>0.04163821633366274</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06457143819446558</v>
+        <v>0.1370117335334583</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02313211901841866</v>
+        <v>0.06396239744734633</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06560681486629362</v>
+        <v>0.1374760024971447</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02300947112531803</v>
+        <v>0.01714239572204544</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06639725841889957</v>
+        <v>0.1381587081864425</v>
       </c>
       <c r="J149" t="n">
-        <v>0.05261023456266889</v>
+        <v>0.01850603234504434</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06551173405774274</v>
+        <v>0.1390078262967288</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07091043851608247</v>
+        <v>0.04138467797485454</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06534940732933865</v>
+        <v>0.1386624773109698</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02300947112531803</v>
+        <v>0.06422587557713666</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06639725841889957</v>
+        <v>0.1391323398766283</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02288950033155408</v>
+        <v>0.01716957506082428</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06718770197150552</v>
+        <v>0.1398034547124716</v>
       </c>
       <c r="J150" t="n">
-        <v>0.05240830589115542</v>
+        <v>0.01833128626282416</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06629163565366826</v>
+        <v>0.1406626813716899</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07094159111361831</v>
+        <v>0.04134537435268279</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06612737646421173</v>
+        <v>0.1403132210884814</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02288950033155408</v>
+        <v>0.06491216612222689</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06718770197150552</v>
+        <v>0.140788677256112</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02266554993007202</v>
+        <v>0.01620207629023275</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06797814552411147</v>
+        <v>0.1414482012385006</v>
       </c>
       <c r="J151" t="n">
-        <v>0.05170527457680316</v>
+        <v>0.0184626241827685</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06707153724959376</v>
+        <v>0.142317536446651</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0697870724964772</v>
+        <v>0.04141946278454736</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0669053455990848</v>
+        <v>0.1419639648659929</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02266554993007202</v>
+        <v>0.06471994458808877</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06797814552411147</v>
+        <v>0.1424450146355957</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0225360996073774</v>
+        <v>0.01723955682363576</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06876858907671742</v>
+        <v>0.1430929477645297</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05130176871508338</v>
+        <v>0.01849966905743807</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06785143884551928</v>
+        <v>0.143972391521612</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06974619664905501</v>
+        <v>0.04160610058784803</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06768331473395789</v>
+        <v>0.1436147086435045</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0225360996073774</v>
+        <v>0.06434788648019396</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06876858907671742</v>
+        <v>0.1441013520150794</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02240145179009754</v>
+        <v>0.01728167407439821</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06955903262932335</v>
+        <v>0.1447376942905588</v>
       </c>
       <c r="J153" t="n">
-        <v>0.05109841640146726</v>
+        <v>0.0186420438393936</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06863134044144478</v>
+        <v>0.1456272465965731</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06911827755574756</v>
+        <v>0.04190444507998467</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06846128386883096</v>
+        <v>0.145265452421016</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02240145179009754</v>
+        <v>0.06509466730401409</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06955903262932335</v>
+        <v>0.145757689394563</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02236190890485974</v>
+        <v>0.01732808545588498</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07034947618192931</v>
+        <v>0.1463824408165879</v>
       </c>
       <c r="J154" t="n">
-        <v>0.05109584573142603</v>
+        <v>0.01868937148119582</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0694112420373703</v>
+        <v>0.1472821016715341</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06880262920095082</v>
+        <v>0.04201365357835712</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06923925300370405</v>
+        <v>0.1469161961985276</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02236190890485974</v>
+        <v>0.06455896256502069</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07034947618192931</v>
+        <v>0.1474140267740467</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02201777337829135</v>
+        <v>0.01537844838146098</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07113991973453525</v>
+        <v>0.148027187342617</v>
       </c>
       <c r="J155" t="n">
-        <v>0.05049468480043087</v>
+        <v>0.01874127493540546</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0701911436332958</v>
+        <v>0.1489369567464952</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06829856556906072</v>
+        <v>0.04173288340036518</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07001722213857713</v>
+        <v>0.1485669399760391</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02201777337829135</v>
+        <v>0.0648394477686855</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07113991973453525</v>
+        <v>0.1490703641535304</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02186934763701966</v>
+        <v>0.01743242026449111</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0719303632871412</v>
+        <v>0.149671933868646</v>
       </c>
       <c r="J156" t="n">
-        <v>0.05009502133452315</v>
+        <v>0.01879737715458325</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07097104522922132</v>
+        <v>0.1505918118214562</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06690540064447315</v>
+        <v>0.0423612918634087</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0707951912734502</v>
+        <v>0.1502176837535507</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02186934763701966</v>
+        <v>0.06583479842048018</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0719303632871412</v>
+        <v>0.150726701533014</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02171693410767201</v>
+        <v>0.01648965851834028</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07272080683974715</v>
+        <v>0.1513166803946751</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0501707941972033</v>
+        <v>0.01875730109128989</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07175094682514682</v>
+        <v>0.1522466668964173</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0664224484115839</v>
+        <v>0.04219803628488758</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07157316040832329</v>
+        <v>0.1518684275310622</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02171693410767201</v>
+        <v>0.06594369002587624</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07272080683974715</v>
+        <v>0.1523830389124977</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02176083521687571</v>
+        <v>0.01557343244315382</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07351125039235309</v>
+        <v>0.1529614269207042</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0498089067178788</v>
+        <v>0.01892273389988721</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07253084842107232</v>
+        <v>0.1539015219713783</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06594902285478893</v>
+        <v>0.04216151518456424</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07235112954319636</v>
+        <v>0.1535191713085738</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02176083521687571</v>
+        <v>0.06536760632566457</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07351125039235309</v>
+        <v>0.1540393762919814</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02150135339125809</v>
+        <v>0.01571128235265896</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07430169394495904</v>
+        <v>0.1546061734467333</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04941151768298843</v>
+        <v>0.01893555926878274</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07331075001699784</v>
+        <v>0.1555563770463394</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06578443795848432</v>
+        <v>0.04285005256162627</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07312909867806944</v>
+        <v>0.1551699150860853</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02150135339125809</v>
+        <v>0.06574279016073509</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07430169394495904</v>
+        <v>0.1556957136714651</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02143879105744644</v>
+        <v>0.01789314885307057</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07509213749756499</v>
+        <v>0.1562509199727623</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04888078587897096</v>
+        <v>0.01900383327246936</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07409065161292334</v>
+        <v>0.1572112321213004</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06582800770706565</v>
+        <v>0.04305617113212187</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07390706781294251</v>
+        <v>0.1568206588635968</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02143879105744644</v>
+        <v>0.06711633711369358</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07509213749756499</v>
+        <v>0.1573520510509487</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02107345064206812</v>
+        <v>0.01810869008073723</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07588258105017093</v>
+        <v>0.1578956664987914</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0481188700922652</v>
+        <v>0.0193161737587919</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07487055320884886</v>
+        <v>0.1588660871962615</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06547904608492905</v>
+        <v>0.04335443234223907</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0746850369478156</v>
+        <v>0.1584714026411084</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02107345064206812</v>
+        <v>0.06784826389151005</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07588258105017093</v>
+        <v>0.1590083884304324</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02090563457175042</v>
+        <v>0.01634756417200758</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07667302460277688</v>
+        <v>0.1595404130248205</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04762792910930988</v>
+        <v>0.01966119857559518</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07565045480477436</v>
+        <v>0.1605209422712226</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06413686707647037</v>
+        <v>0.04431939763816586</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07546300608268867</v>
+        <v>0.16012214641862</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02090563457175042</v>
+        <v>0.06849858720115476</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07667302460277688</v>
+        <v>0.1606647258099161</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02073564527312068</v>
+        <v>0.01759942926323018</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07746346815538284</v>
+        <v>0.1611851595508496</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0476101217165438</v>
+        <v>0.01982752557072404</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07643035640069988</v>
+        <v>0.1621757973461836</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06410078466608543</v>
+        <v>0.04462562846609028</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07624097521756176</v>
+        <v>0.1617728901961315</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02073564527312068</v>
+        <v>0.06942732374959787</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07746346815538284</v>
+        <v>0.1623210631893997</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02076378517280623</v>
+        <v>0.01685394349075366</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07825391170798877</v>
+        <v>0.1628299060768787</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04686760670040571</v>
+        <v>0.02000377259202333</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07721025799662538</v>
+        <v>0.1638306524211447</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06407011283817027</v>
+        <v>0.0453476862722004</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07701894435243484</v>
+        <v>0.163423633973643</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02076378517280623</v>
+        <v>0.0704944902438096</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07825391170798877</v>
+        <v>0.1639774005688834</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02049035669743434</v>
+        <v>0.01710076499092662</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07904435526059472</v>
+        <v>0.1644746526029077</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04610254284733439</v>
+        <v>0.02027855748733783</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0779901595925509</v>
+        <v>0.1654855074961057</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06344416557712063</v>
+        <v>0.04616013250268428</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07779691348730791</v>
+        <v>0.1650743777511546</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02049035669743434</v>
+        <v>0.07106010339075985</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07904435526059472</v>
+        <v>0.1656337379483671</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02021566227363237</v>
+        <v>0.01832955190009766</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07983479881320067</v>
+        <v>0.1661193991289368</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04551708894376863</v>
+        <v>0.02054049810451245</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0787700611884764</v>
+        <v>0.1671403625710668</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0628222568673325</v>
+        <v>0.04633752860372983</v>
       </c>
       <c r="M166" t="n">
-        <v>0.078574882622181</v>
+        <v>0.1667251215286661</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02021566227363237</v>
+        <v>0.07198417989741912</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07983479881320067</v>
+        <v>0.1672900753278508</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02014000432802763</v>
+        <v>0.01852996235461537</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08062524236580662</v>
+        <v>0.1677641456549659</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0451134037761472</v>
+        <v>0.02077821229139198</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07954996278440191</v>
+        <v>0.1687952176460279</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06240370069320184</v>
+        <v>0.04715443602152519</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07935285175705407</v>
+        <v>0.1683758653061777</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02014000432802763</v>
+        <v>0.07312673647075735</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08062524236580662</v>
+        <v>0.1689464127073344</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02006368528724744</v>
+        <v>0.01770865931300631</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08141568591841257</v>
+        <v>0.169408892180995</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04429364613090883</v>
+        <v>0.02098279392743582</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08032986438032742</v>
+        <v>0.1704500727209889</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06208781103912436</v>
+        <v>0.04760133769555117</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08013082089192715</v>
+        <v>0.1700266090836892</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02006368528724744</v>
+        <v>0.07385273630951705</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08141568591841257</v>
+        <v>0.1706027500868181</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0197870075779191</v>
+        <v>0.01888282649761657</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08220612947101852</v>
+        <v>0.1710536387070241</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04385997479449236</v>
+        <v>0.02117496397649084</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08110976597625293</v>
+        <v>0.17210492779595</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06117390188949617</v>
+        <v>0.0482303627520981</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08090879002680022</v>
+        <v>0.1716773528612008</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0197870075779191</v>
+        <v>0.07402806994029909</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08220612947101852</v>
+        <v>0.1722590874663018</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01971027362666997</v>
+        <v>0.01805283808202073</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08299657302362445</v>
+        <v>0.1726983852330531</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04321454855333653</v>
+        <v>0.02136237881846038</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08188966757217843</v>
+        <v>0.173759782870911</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06096128722871308</v>
+        <v>0.04844892462105022</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08168675916167331</v>
+        <v>0.1733280966387123</v>
       </c>
       <c r="N170" t="n">
-        <v>0.01971027362666997</v>
+        <v>0.07508660656348304</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08299657302362445</v>
+        <v>0.1739154248457854</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01943378586012736</v>
+        <v>0.01921902214126057</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0837870165762304</v>
+        <v>0.1743431317590822</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0424595261938801</v>
+        <v>0.02154539952946859</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08266956916810395</v>
+        <v>0.1754146379458721</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06084928104117088</v>
+        <v>0.04855783028989888</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08246472829654639</v>
+        <v>0.1749788404162239</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01943378586012736</v>
+        <v>0.07582961456946469</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0837870165762304</v>
+        <v>0.1755717622252691</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01935784670491856</v>
+        <v>0.01938170675037788</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08457746012883637</v>
+        <v>0.1759878782851113</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04189706650256184</v>
+        <v>0.02192438718563968</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08344947076402946</v>
+        <v>0.1770694930208332</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06013719731126577</v>
+        <v>0.04895788674613555</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08324269743141947</v>
+        <v>0.1766295841937354</v>
       </c>
       <c r="N172" t="n">
-        <v>0.01935784670491856</v>
+        <v>0.07585836234864013</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08457746012883637</v>
+        <v>0.1772280996047528</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01898275858767091</v>
+        <v>0.01854121998441444</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0853679036814423</v>
+        <v>0.1776326248111404</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04102932826582054</v>
+        <v>0.02209970286309779</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08422937235995497</v>
+        <v>0.1787243480957942</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05962435002339322</v>
+        <v>0.04944990097725174</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08402066656629255</v>
+        <v>0.178280327971247</v>
       </c>
       <c r="N173" t="n">
-        <v>0.01898275858767091</v>
+        <v>0.0771741182914053</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0853679036814423</v>
+        <v>0.1788844369842365</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01890882393501172</v>
+        <v>0.01969788991841207</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08615834723404825</v>
+        <v>0.1792773713371694</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04075847027009499</v>
+        <v>0.0222717076379671</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08500927395588047</v>
+        <v>0.1803792031707553</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06001005316194957</v>
+        <v>0.04983467997073887</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08479863570116562</v>
+        <v>0.1799310717487585</v>
       </c>
       <c r="N174" t="n">
-        <v>0.01890882393501172</v>
+        <v>0.07747815078815606</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08615834723404825</v>
+        <v>0.1805407743637201</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01863634517356832</v>
+        <v>0.01985204462741254</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0869487907866542</v>
+        <v>0.1809221178631985</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03988665130182392</v>
+        <v>0.02234076258637182</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08578917555180599</v>
+        <v>0.1820340582457163</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0595936207113304</v>
+        <v>0.05061303071408846</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08557660483603871</v>
+        <v>0.18158181552627</v>
       </c>
       <c r="N175" t="n">
-        <v>0.01863634517356832</v>
+        <v>0.07777172822928857</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0869487907866542</v>
+        <v>0.1821971117432038</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01856562472996804</v>
+        <v>0.01900401218645766</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08773923433926015</v>
+        <v>0.1825668643892276</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03931603014744614</v>
+        <v>0.0226072287844361</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08656907714773149</v>
+        <v>0.1836889133206774</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05887436665593165</v>
+        <v>0.05058576019479188</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08635457397091179</v>
+        <v>0.1832325593037816</v>
       </c>
       <c r="N176" t="n">
-        <v>0.01856562472996804</v>
+        <v>0.07835611900519868</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08773923433926015</v>
+        <v>0.1838534491226874</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01849696503083818</v>
+        <v>0.02015412067058926</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0885296778918661</v>
+        <v>0.1842116109152566</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03864876559340039</v>
+        <v>0.02257146730828411</v>
       </c>
       <c r="K177" t="n">
-        <v>0.087348978743657</v>
+        <v>0.1853437683956385</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05845160498014945</v>
+        <v>0.05135367540034066</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08713254310578487</v>
+        <v>0.1848833030812931</v>
       </c>
       <c r="N177" t="n">
-        <v>0.01849696503083818</v>
+        <v>0.07953259150628245</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0885296778918661</v>
+        <v>0.1855097865021711</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01813066850280606</v>
+        <v>0.01930269815484905</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08932012144447204</v>
+        <v>0.1858563574412857</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03808701642612544</v>
+        <v>0.02273383923404004</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08812888033958251</v>
+        <v>0.1869986234705995</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05782464966837947</v>
+        <v>0.05141758331822621</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08791051224065793</v>
+        <v>0.1865340468588047</v>
       </c>
       <c r="N178" t="n">
-        <v>0.01813066850280606</v>
+        <v>0.07940241412293564</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08932012144447204</v>
+        <v>0.1871661238816548</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.017967037572499</v>
+        <v>0.01945360904986657</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09011056499707798</v>
+        <v>0.1875011039673148</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03713294143206008</v>
+        <v>0.02309504843544962</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08890878193550801</v>
+        <v>0.1886534785455606</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05719281470501769</v>
+        <v>0.05158129801608571</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08868848137553102</v>
+        <v>0.1881847906363162</v>
       </c>
       <c r="N179" t="n">
-        <v>0.017967037572499</v>
+        <v>0.08046734942622791</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09011056499707798</v>
+        <v>0.1888224612611385</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01780637466654434</v>
+        <v>0.02161331792182385</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09090100854968393</v>
+        <v>0.1891458504933439</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03628869939764309</v>
+        <v>0.02306417396674321</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08968868353143353</v>
+        <v>0.1903083336205216</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05655541407446002</v>
+        <v>0.05246573609601968</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0894664505104041</v>
+        <v>0.1898355344138278</v>
       </c>
       <c r="N180" t="n">
-        <v>0.01780637466654434</v>
+        <v>0.08115758678409002</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09090100854968393</v>
+        <v>0.1904787986406221</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01784898221156938</v>
+        <v>0.02077672349396447</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09169145210228988</v>
+        <v>0.190790597019373</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03595644910931323</v>
+        <v>0.02324052582211467</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09046858512735904</v>
+        <v>0.1919631886954827</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0569117617611023</v>
+        <v>0.05286346470815406</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09024441964527719</v>
+        <v>0.1914862781913393</v>
       </c>
       <c r="N181" t="n">
-        <v>0.01784898221156938</v>
+        <v>0.0818748240449052</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09169145210228988</v>
+        <v>0.1921351360201058</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01759516263420145</v>
+        <v>0.02093819001570566</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09248189565489583</v>
+        <v>0.192435343545402</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03533834935350927</v>
+        <v>0.02351790135059082</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09124848672328455</v>
+        <v>0.1936180437704437</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05576117174934053</v>
+        <v>0.05296062123069223</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09102238878015026</v>
+        <v>0.1931370219688509</v>
       </c>
       <c r="N182" t="n">
-        <v>0.01759516263420145</v>
+        <v>0.08179727249876673</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09248189565489583</v>
+        <v>0.1937914733995895</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01754521836106785</v>
+        <v>0.02009208173646462</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09327233920750178</v>
+        <v>0.1940800900714311</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03493655891667002</v>
+        <v>0.02369009790119844</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09202838831921005</v>
+        <v>0.1952728988454048</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05540295802357054</v>
+        <v>0.05314334304183765</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09180035791502333</v>
+        <v>0.1947877657463624</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01754521836106785</v>
+        <v>0.08280314343576795</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09327233920750178</v>
+        <v>0.1954478107790731</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01719945181879593</v>
+        <v>0.02123276290565856</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09406278276010772</v>
+        <v>0.1957248365974602</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03385323658523423</v>
+        <v>0.02395091282296436</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09280828991513557</v>
+        <v>0.1969277539203659</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05513643456818818</v>
+        <v>0.05349776751979377</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09257832704989642</v>
+        <v>0.196438509523874</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01719945181879593</v>
+        <v>0.08337064814600209</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09406278276010772</v>
+        <v>0.1971041481585568</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01705816543401297</v>
+        <v>0.02235459777270469</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09485322631271367</v>
+        <v>0.1973695831234893</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03359054114564061</v>
+        <v>0.02389414346491537</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09358819151106107</v>
+        <v>0.1985826089953269</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0545609153675895</v>
+        <v>0.05421003204276392</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0933562961847695</v>
+        <v>0.1980892533013855</v>
       </c>
       <c r="N185" t="n">
-        <v>0.01705816543401297</v>
+        <v>0.08417799791956249</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09485322631271367</v>
+        <v>0.1987604855380405</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01702166163334635</v>
+        <v>0.02245195058702017</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09564366986531962</v>
+        <v>0.1990143296495183</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03275063138432802</v>
+        <v>0.02421358717607831</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09436809310698659</v>
+        <v>0.2002374640702879</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05447571440617022</v>
+        <v>0.05446627398895154</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09413426531964258</v>
+        <v>0.1997399970788971</v>
       </c>
       <c r="N186" t="n">
-        <v>0.01702166163334635</v>
+        <v>0.08440340404654245</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09564366986531962</v>
+        <v>0.2004168229175242</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01699024284342334</v>
+        <v>0.0205204705463996</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09643411341792557</v>
+        <v>0.2006590761755474</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0325356660877352</v>
+        <v>0.02410304130547997</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09514799470291209</v>
+        <v>0.201892319145249</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05348014566832637</v>
+        <v>0.05465263073656002</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09491223445451565</v>
+        <v>0.2013907408564086</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01699024284342334</v>
+        <v>0.08512507781703532</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09643411341792557</v>
+        <v>0.2020731602970078</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01676421149087127</v>
+        <v>0.02257946713947376</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09722455697053151</v>
+        <v>0.2023038227015765</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0317478040423009</v>
+        <v>0.0243685135248202</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09592789629883759</v>
+        <v>0.2035471742202101</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05307352313845382</v>
+        <v>0.05459757241383845</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09569020358938873</v>
+        <v>0.2030414846339201</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01676421149087127</v>
+        <v>0.08465694695017068</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09722455697053151</v>
+        <v>0.2037294976764915</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01654387000231745</v>
+        <v>0.02063716446885049</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09801500052313745</v>
+        <v>0.2039485692276056</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03138920403446394</v>
+        <v>0.02443189945719836</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09670779789476311</v>
+        <v>0.2052020292951711</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05275516080094839</v>
+        <v>0.05503934340478472</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09646817272426182</v>
+        <v>0.2046922284114317</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01654387000231745</v>
+        <v>0.0846795481114922</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09801500052313745</v>
+        <v>0.2053858350559752</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01652930300807304</v>
+        <v>0.02169354179420501</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0988054440757434</v>
+        <v>0.2055933157536347</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03096202485066304</v>
+        <v>0.02449385193808461</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09748769949068863</v>
+        <v>0.2068568843701322</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05242437264020616</v>
+        <v>0.05517789319317754</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0972461418591349</v>
+        <v>0.2063429721889432</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01652930300807304</v>
+        <v>0.08489712372410874</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0988054440757434</v>
+        <v>0.2070421724354588</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0165181626621834</v>
+        <v>0.02274857837521261</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09959588762834935</v>
+        <v>0.2072380622796637</v>
       </c>
       <c r="J191" t="n">
-        <v>0.030568425277337</v>
+        <v>0.02445434814088402</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09826760108661411</v>
+        <v>0.2085117394450932</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05198047264062283</v>
+        <v>0.05521317076269278</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09802411099400797</v>
+        <v>0.2079937159664548</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0165181626621834</v>
+        <v>0.08530959360261925</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09959588762834935</v>
+        <v>0.2086985098149425</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01630963289807732</v>
+        <v>0.02280225347154847</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1003863311809553</v>
+        <v>0.2088828088056928</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03011056410092464</v>
+        <v>0.02441336523900169</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09904750268253963</v>
+        <v>0.2101665945200543</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05152277478659439</v>
+        <v>0.05494512509700636</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09880208012888105</v>
+        <v>0.2096444597439663</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01630963289807732</v>
+        <v>0.08621687756162294</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1003863311809553</v>
+        <v>0.2103548471944262</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01620358642214741</v>
+        <v>0.02285454634288788</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1011767747335613</v>
+        <v>0.2105275553317219</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03019060010786465</v>
+        <v>0.0244708804058427</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09982740427846515</v>
+        <v>0.2118214495950154</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05065059306251674</v>
+        <v>0.05547370517979427</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09958004926375413</v>
+        <v>0.2112952035214779</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01620358642214741</v>
+        <v>0.08571889541571898</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1011767747335613</v>
+        <v>0.2120111845739099</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01619989594078629</v>
+        <v>0.02090543624890607</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1019672182861672</v>
+        <v>0.212172301857751</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02961069208459582</v>
+        <v>0.02462687081481216</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1006073058743907</v>
+        <v>0.2134763046699764</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05036324145278581</v>
+        <v>0.05559885999473246</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1003580183986272</v>
+        <v>0.2129459472989894</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01619989594078629</v>
+        <v>0.08611556697950662</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1019672182861672</v>
+        <v>0.2136675219533935</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01589843416038658</v>
+        <v>0.02295490244927827</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1027576618387731</v>
+        <v>0.21381704838378</v>
       </c>
       <c r="J195" t="n">
-        <v>0.029672998817557</v>
+        <v>0.02458131363931514</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1013872074703162</v>
+        <v>0.2151311597449375</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04896003394179743</v>
+        <v>0.05542053852549678</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1011359875335003</v>
+        <v>0.214596691076501</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01589843416038658</v>
+        <v>0.08600681206758481</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1027576618387731</v>
+        <v>0.2153238593328772</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01589907378734085</v>
+        <v>0.02300292420367974</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1035481053913791</v>
+        <v>0.2154617949098091</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02907967909318684</v>
+        <v>0.02483418605275679</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1021671090662417</v>
+        <v>0.2167860148198985</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04834028451394756</v>
+        <v>0.05573868975576324</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1019139566683734</v>
+        <v>0.2162474348540125</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01589907378734085</v>
+        <v>0.0864925504945529</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1035481053913791</v>
+        <v>0.2169801967123609</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01580168752804172</v>
+        <v>0.02204948077178571</v>
       </c>
       <c r="G197" t="n">
-        <v>0.104338548943985</v>
+        <v>0.2171065414358382</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02933289169792422</v>
+        <v>0.02468546522854213</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1029470106621672</v>
+        <v>0.2184408698948596</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04840330715363206</v>
+        <v>0.05605326266920777</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1026919258032464</v>
+        <v>0.2178981786315241</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01580168752804172</v>
+        <v>0.08637270207500991</v>
       </c>
       <c r="O197" t="n">
-        <v>0.104338548943985</v>
+        <v>0.2186365340918445</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0156061480888818</v>
+        <v>0.02209455141327141</v>
       </c>
       <c r="G198" t="n">
-        <v>0.105128992496591</v>
+        <v>0.2187512879618673</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02922686028423041</v>
+        <v>0.02493512834007631</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1037269122580927</v>
+        <v>0.2200957249698206</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04704841584524683</v>
+        <v>0.05606420624950631</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1034698949381195</v>
+        <v>0.2195489224090356</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0156061480888818</v>
+        <v>0.08684718662355523</v>
       </c>
       <c r="O198" t="n">
-        <v>0.105128992496591</v>
+        <v>0.2202928714713282</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01571232817625372</v>
+        <v>0.02313811538781212</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1059194360491969</v>
+        <v>0.2203960344878964</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02903218768380433</v>
+        <v>0.0247831525607644</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1045068138540182</v>
+        <v>0.2217505800447817</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04647492457318786</v>
+        <v>0.05627146948033479</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1042478640729926</v>
+        <v>0.2211996661865471</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01571232817625372</v>
+        <v>0.08671592395478778</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1059194360491969</v>
+        <v>0.2219492088508119</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01562010049655007</v>
+        <v>0.02118015195508304</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1067098796018029</v>
+        <v>0.2220407810139254</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02894536712534584</v>
+        <v>0.0249295150640115</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1052867154499437</v>
+        <v>0.2234054351197428</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04598214732185091</v>
+        <v>0.05637500134536919</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1050258332078657</v>
+        <v>0.2228504099640587</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01562010049655007</v>
+        <v>0.08697883388330679</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1067098796018029</v>
+        <v>0.2236055462302956</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01552933775616345</v>
+        <v>0.02222064037475945</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1075003231544088</v>
+        <v>0.2236855275399545</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02896580186368677</v>
+        <v>0.0248741930232227</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1060666170458692</v>
+        <v>0.2250602901947038</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04536939244373583</v>
+        <v>0.05637475082828539</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1058038023427388</v>
+        <v>0.2245011537415702</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01552933775616345</v>
+        <v>0.08743583622371143</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1075003231544088</v>
+        <v>0.2252618836097792</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01543991266148644</v>
+        <v>0.02325955990651656</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1082907667070148</v>
+        <v>0.2253302740659836</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02879289515365885</v>
+        <v>0.02511716361180313</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1068465186417947</v>
+        <v>0.2267151452696649</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04469228950752063</v>
+        <v>0.05627066691275937</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1065817714776119</v>
+        <v>0.2261518975190818</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01543991266148644</v>
+        <v>0.0871868507906009</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1082907667070148</v>
+        <v>0.2269182209892629</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0151516979189117</v>
+        <v>0.02329688981002966</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1090812102596207</v>
+        <v>0.2269750205920127</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0284260502500939</v>
+        <v>0.02515840400315781</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1076264202377202</v>
+        <v>0.228370000344626</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04411550426090177</v>
+        <v>0.056162698582467</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1073597406124849</v>
+        <v>0.2278026412965933</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0151516979189117</v>
+        <v>0.08743179739857437</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1090812102596207</v>
+        <v>0.2285745583687466</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01516456623483182</v>
+        <v>0.02333260934497394</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1098716538122267</v>
+        <v>0.2286197671180417</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02856467040782373</v>
+        <v>0.0250978913706919</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1084063218336457</v>
+        <v>0.230024855419587</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04254892735232996</v>
+        <v>0.05655079482108433</v>
       </c>
       <c r="M204" t="n">
-        <v>0.108137709747358</v>
+        <v>0.2294533850741049</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01516456623483182</v>
+        <v>0.08777059586223085</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1098716538122267</v>
+        <v>0.2302308957482302</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01507839031563939</v>
+        <v>0.02136669777102466</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1106620973648326</v>
+        <v>0.2302645136440708</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02870815888168016</v>
+        <v>0.02503560288781046</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1091862234295713</v>
+        <v>0.2316797104945481</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04180244943025624</v>
+        <v>0.05663490461228721</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1089156788822311</v>
+        <v>0.2311041288516164</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01507839031563939</v>
+        <v>0.08810316599616957</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1106620973648326</v>
+        <v>0.2318872331277139</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01509304286772704</v>
+        <v>0.02339913434785706</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1114525409174386</v>
+        <v>0.2319092601700999</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02875591892649484</v>
+        <v>0.02507151572791861</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1099661250254967</v>
+        <v>0.2333345655695091</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04008596114313162</v>
+        <v>0.05661497693975168</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1096936480171042</v>
+        <v>0.232754872629128</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01509304286772704</v>
+        <v>0.08802942761498989</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1114525409174386</v>
+        <v>0.2335435705071976</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01490839659748736</v>
+        <v>0.02342989833514638</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1122429844700445</v>
+        <v>0.233554006696129</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02830735379709973</v>
+        <v>0.02510560706442144</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1107460266214223</v>
+        <v>0.2349894206444702</v>
       </c>
       <c r="L207" t="n">
-        <v>0.039609353139407</v>
+        <v>0.05699096078715354</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1104716171519772</v>
+        <v>0.2344056164066395</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01490839659748736</v>
+        <v>0.08854930053329069</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1122429844700445</v>
+        <v>0.2351999078866812</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01482432421131296</v>
+        <v>0.02345896899256788</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1130334280226505</v>
+        <v>0.2351987532221581</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02826186674832651</v>
+        <v>0.02523785407072402</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1115259282173478</v>
+        <v>0.2366442757194312</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0376825160675332</v>
+        <v>0.05686280513816885</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1112495862868503</v>
+        <v>0.2360563601841511</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01482432421131296</v>
+        <v>0.08806270456567133</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1130334280226505</v>
+        <v>0.2368562452661649</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01484069841559647</v>
+        <v>0.02348632557979679</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1138238715752564</v>
+        <v>0.2368434997481871</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02851886103500706</v>
+        <v>0.02536823392023146</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1123058298132733</v>
+        <v>0.2382991307943923</v>
       </c>
       <c r="L209" t="n">
-        <v>0.03731534057596136</v>
+        <v>0.05693045897647347</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1120275554217234</v>
+        <v>0.2377071039616626</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01484069841559647</v>
+        <v>0.08856955952673073</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1138238715752564</v>
+        <v>0.2385125826456486</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01455739191673042</v>
+        <v>0.02151194735650835</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1146143151278624</v>
+        <v>0.2384882462742162</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02827773991197308</v>
+        <v>0.02539672378634885</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1130857314091988</v>
+        <v>0.2399539858693533</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03571771731314222</v>
+        <v>0.05669387128574341</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1128055245565965</v>
+        <v>0.2393578477391742</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01455739191673042</v>
+        <v>0.08816978523106833</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1146143151278624</v>
+        <v>0.2401689200251323</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01457427742110753</v>
+        <v>0.02253581358237781</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1154047586804683</v>
+        <v>0.2401329928002453</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02833790663405641</v>
+        <v>0.02532330084248131</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1138656330051243</v>
+        <v>0.2416088409443144</v>
       </c>
       <c r="L211" t="n">
-        <v>0.03419953692752697</v>
+        <v>0.05725299104965453</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1135834936914696</v>
+        <v>0.2410085915166857</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01457427742110753</v>
+        <v>0.08886330149328314</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1154047586804683</v>
+        <v>0.2418252574046159</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01459122763512034</v>
+        <v>0.0225579035170804</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1161952022330743</v>
+        <v>0.2417777393262744</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02799876445608881</v>
+        <v>0.02534794226203389</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1146455346010498</v>
+        <v>0.2432636960192754</v>
       </c>
       <c r="L212" t="n">
-        <v>0.03257069006756635</v>
+        <v>0.05710776725188285</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1143614628263426</v>
+        <v>0.2426593352941973</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01459122763512034</v>
+        <v>0.08905002812797441</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1161952022330743</v>
+        <v>0.2434815947840996</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01450811526516146</v>
+        <v>0.02357819642029139</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1169856457856802</v>
+        <v>0.2434224858523034</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02795971663290214</v>
+        <v>0.02537062521841172</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1154254361969753</v>
+        <v>0.2449185510942365</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03164106738171141</v>
+        <v>0.05715814887610426</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1151394319612157</v>
+        <v>0.2443100790717088</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01450811526516146</v>
+        <v>0.0887298849497411</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1169856457856802</v>
+        <v>0.2451379321635833</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01432481301762348</v>
+        <v>0.023596671551686</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1177760893382861</v>
+        <v>0.2450672323783325</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02832016641932816</v>
+        <v>0.02549132688501986</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1162053377929008</v>
+        <v>0.2465734061691976</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03012055951841319</v>
+        <v>0.05700408490599473</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1159174010960888</v>
+        <v>0.2459608228492203</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01432481301762348</v>
+        <v>0.08890279177318255</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1177760893382861</v>
+        <v>0.246794269543067</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01424119359889908</v>
+        <v>0.02261330817093945</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1185665328908921</v>
+        <v>0.2467119789043616</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02817951707019858</v>
+        <v>0.02541002443526345</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1169852393888263</v>
+        <v>0.2482282612441586</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02891905712612231</v>
+        <v>0.05714552432523021</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1166953702309619</v>
+        <v>0.2476115666267319</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01424119359889908</v>
+        <v>0.08906866841289784</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1185665328908921</v>
+        <v>0.2484506069225506</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01425712971538078</v>
+        <v>0.02162808553772703</v>
       </c>
       <c r="G216" t="n">
-        <v>0.119356976443498</v>
+        <v>0.2483567254303907</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02783717184034531</v>
+        <v>0.02552669504254754</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1177651409847518</v>
+        <v>0.2498831163191197</v>
       </c>
       <c r="L216" t="n">
-        <v>0.02814645085328998</v>
+        <v>0.05718241611748656</v>
       </c>
       <c r="M216" t="n">
-        <v>0.117473339365835</v>
+        <v>0.2492623104042434</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01425712971538078</v>
+        <v>0.08902743468348628</v>
       </c>
       <c r="O216" t="n">
-        <v>0.119356976443498</v>
+        <v>0.2501069443020343</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0140727912599597</v>
+        <v>0.02164098291172394</v>
       </c>
       <c r="G217" t="n">
-        <v>0.120147419996104</v>
+        <v>0.2500014719564198</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02819253398460009</v>
+        <v>0.02534131588027726</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1185450425806774</v>
+        <v>0.2515379713940807</v>
       </c>
       <c r="L217" t="n">
-        <v>0.02621263134836721</v>
+        <v>0.05701470926643978</v>
       </c>
       <c r="M217" t="n">
-        <v>0.118251308500708</v>
+        <v>0.250913054181755</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0140727912599597</v>
+        <v>0.08927901039954683</v>
       </c>
       <c r="O217" t="n">
-        <v>0.120147419996104</v>
+        <v>0.251763281681518</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01408866591984046</v>
+        <v>0.02265197955260547</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1209378635487099</v>
+        <v>0.2516462184824488</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02824500675779468</v>
+        <v>0.02555386412185769</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1193249441766029</v>
+        <v>0.2531928264690418</v>
       </c>
       <c r="L218" t="n">
-        <v>0.02542748925980465</v>
+        <v>0.05714235275576582</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1190292776355811</v>
+        <v>0.2525637979592665</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01408866591984046</v>
+        <v>0.08872331537567874</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1209378635487099</v>
+        <v>0.2534196190610016</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01400476958850825</v>
+        <v>0.02166105472004681</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1217283071013159</v>
+        <v>0.2532909650084779</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02809399341476093</v>
+        <v>0.02556431694069394</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1201048457725284</v>
+        <v>0.2548476815440028</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02450091523605347</v>
+        <v>0.05756529556914061</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1198072467704542</v>
+        <v>0.2542145417367781</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01400476958850825</v>
+        <v>0.08956026942648115</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1217283071013159</v>
+        <v>0.2550759564404853</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0139211074284686</v>
+        <v>0.02366818767372324</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1225187506539218</v>
+        <v>0.254935711534507</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02793889721033058</v>
+        <v>0.02557265151019105</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1208847473684539</v>
+        <v>0.2565025366189639</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02314279992556451</v>
+        <v>0.05708348669024005</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1205852159053273</v>
+        <v>0.2558652855142896</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0139211074284686</v>
+        <v>0.08928979236655327</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1225187506539218</v>
+        <v>0.256732293819969</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01373768460222705</v>
+        <v>0.02267335767330998</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1233091942065278</v>
+        <v>0.2565804580605361</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02797912139933548</v>
+        <v>0.02547884500375417</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1216646489643794</v>
+        <v>0.2581573916939249</v>
       </c>
       <c r="L221" t="n">
-        <v>0.02196303397678889</v>
+        <v>0.05739687510274016</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1213631850402003</v>
+        <v>0.2575160292918012</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01373768460222705</v>
+        <v>0.08871180401049422</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1233091942065278</v>
+        <v>0.2583886311994526</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01375450627228921</v>
+        <v>0.0226765439784823</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1240996377591337</v>
+        <v>0.2582252045865651</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02791406923660736</v>
+        <v>0.02538287459478839</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1224445505603049</v>
+        <v>0.259812246768886</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0216715080381773</v>
+        <v>0.0572054097903168</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1221411541750734</v>
+        <v>0.2591667730693127</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01375450627228921</v>
+        <v>0.08882622417290315</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1240996377591337</v>
+        <v>0.2600449685789363</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01367157760116058</v>
+        <v>0.0226777258489154</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1248900813117397</v>
+        <v>0.2598699511125943</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02784314397697804</v>
+        <v>0.02548471745669877</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1232244521562304</v>
+        <v>0.2614671018438471</v>
       </c>
       <c r="L223" t="n">
-        <v>0.02057811275818083</v>
+        <v>0.05730903973664594</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1229191233099465</v>
+        <v>0.2608175168468242</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01367157760116058</v>
+        <v>0.0888329726683792</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1248900813117397</v>
+        <v>0.26170130595842</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01348890375134672</v>
+        <v>0.02365172255337229</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1256805248643456</v>
+        <v>0.2615146976386233</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02766574887527931</v>
+        <v>0.02536968501382895</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1240043537521559</v>
+        <v>0.2631219569188081</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01938976632391337</v>
+        <v>0.05746423646861448</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1236970924448196</v>
+        <v>0.2624682606243358</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01348890375134672</v>
+        <v>0.08928591930912916</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1256805248643456</v>
+        <v>0.2633576433379037</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01330648988535319</v>
+        <v>0.0225677180308427</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1264709684169516</v>
+        <v>0.2631594441646524</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02758128718634295</v>
+        <v>0.02529308211910956</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1247842553480814</v>
+        <v>0.2647768119937692</v>
       </c>
       <c r="L225" t="n">
-        <v>0.01933558419551562</v>
+        <v>0.05707861447495516</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1244750615796927</v>
+        <v>0.2641190044018473</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01330648988535319</v>
+        <v>0.08872500352865753</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1264709684169516</v>
+        <v>0.2650139807173874</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01322434116568557</v>
+        <v>0.02343195151033523</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1272614119695575</v>
+        <v>0.2648041906906815</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02768916216500081</v>
+        <v>0.02535816323128769</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1255641569440069</v>
+        <v>0.2664316670687303</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01818244844609113</v>
+        <v>0.05656387927468381</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1252530307145658</v>
+        <v>0.2657697481793589</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01322434116568557</v>
+        <v>0.08805854584259326</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1272614119695575</v>
+        <v>0.266670318096871</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01314246275484938</v>
+        <v>0.02225088865084413</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1280518555221634</v>
+        <v>0.2664489372167105</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0274887770660846</v>
+        <v>0.02507204439027032</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1263440585399324</v>
+        <v>0.2680865221436913</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01733116107319649</v>
+        <v>0.05643593486922607</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1260309998494388</v>
+        <v>0.2674204919568705</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01314246275484938</v>
+        <v>0.08731154351902193</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1280518555221634</v>
+        <v>0.2683266554763546</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01326085981535018</v>
+        <v>0.02303099511136366</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1288422990747694</v>
+        <v>0.2680936837427396</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02737065989112145</v>
+        <v>0.02484184163596447</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1271239601358579</v>
+        <v>0.2697413772186524</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01708252407438809</v>
+        <v>0.05601068526000758</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1268089689843119</v>
+        <v>0.269071235734382</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01326085981535018</v>
+        <v>0.08680899382602919</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1288422990747694</v>
+        <v>0.2699829928558383</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01317953750969351</v>
+        <v>0.02177873655088807</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1296327426273753</v>
+        <v>0.2697384302687686</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0268256027599332</v>
+        <v>0.02467467100827713</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1279038617317835</v>
+        <v>0.2713962322936134</v>
       </c>
       <c r="L229" t="n">
-        <v>0.01613733944722262</v>
+        <v>0.05550403444845389</v>
       </c>
       <c r="M229" t="n">
-        <v>0.127586938119185</v>
+        <v>0.2707219795118935</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01317953750969351</v>
+        <v>0.08567589403170045</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1296327426273753</v>
+        <v>0.271639330235322</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01289850100038494</v>
+        <v>0.02250057862841161</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1304231861799813</v>
+        <v>0.2713831767947978</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02715421739329935</v>
+        <v>0.02417764854711529</v>
       </c>
       <c r="K230" t="n">
-        <v>0.128683763327709</v>
+        <v>0.2730510873685745</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01559640918925659</v>
+        <v>0.05473188643599067</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1283649072540581</v>
+        <v>0.272372723289405</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01289850100038494</v>
+        <v>0.08463724140412143</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1304231861799813</v>
+        <v>0.2732956676148057</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01291775544993003</v>
+        <v>0.02220298700292857</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1312136297325872</v>
+        <v>0.2730279233208268</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02695711752683497</v>
+        <v>0.02405789029238597</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1294636649236345</v>
+        <v>0.2747059424435355</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01526053529804638</v>
+        <v>0.05371014522404338</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1291428763889312</v>
+        <v>0.2740234670669166</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01291775544993003</v>
+        <v>0.08381803321137765</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1312136297325872</v>
+        <v>0.2749520049942893</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01293730602083432</v>
+        <v>0.02089242733343317</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1320040732851932</v>
+        <v>0.2746726698468559</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02633491689615514</v>
+        <v>0.02352251228399612</v>
       </c>
       <c r="K232" t="n">
-        <v>0.13024356651956</v>
+        <v>0.2763607975184966</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01483051977114869</v>
+        <v>0.05335471481403781</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1299208455238042</v>
+        <v>0.2756742108444281</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01293730602083432</v>
+        <v>0.08244326672155472</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1320040732851932</v>
+        <v>0.276608342373773</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01265715787560336</v>
+        <v>0.02157536527891971</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1327945168377991</v>
+        <v>0.276317416372885</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02618822923687497</v>
+        <v>0.02317863056185277</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1310234681154855</v>
+        <v>0.2780156525934577</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01400716460611989</v>
+        <v>0.05218149920739942</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1306988146586773</v>
+        <v>0.2773249546219397</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01265715787560336</v>
+        <v>0.08113793920273815</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1327945168377991</v>
+        <v>0.2782646797532567</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0126773161767427</v>
+        <v>0.01925826649838239</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1335849603904051</v>
+        <v>0.2779621628989141</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02601766828460958</v>
+        <v>0.02283336116586292</v>
       </c>
       <c r="K234" t="n">
-        <v>0.131803369711411</v>
+        <v>0.2796705076684187</v>
       </c>
       <c r="L234" t="n">
-        <v>0.01379127180051659</v>
+        <v>0.05170640240555396</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1314767837935504</v>
+        <v>0.2789756983994512</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0126773161767427</v>
+        <v>0.08062704792301362</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1335849603904051</v>
+        <v>0.2799210171327404</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01259778608675793</v>
+        <v>0.02094759665081552</v>
       </c>
       <c r="G235" t="n">
-        <v>0.134375403943011</v>
+        <v>0.2796069094249432</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02542384777497406</v>
+        <v>0.02269382013593357</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1325832713073365</v>
+        <v>0.2813253627433798</v>
       </c>
       <c r="L235" t="n">
-        <v>0.01238364335189523</v>
+        <v>0.0507453284099269</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1322547529284235</v>
+        <v>0.2806264421769628</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01259778608675793</v>
+        <v>0.07943559015046658</v>
       </c>
       <c r="O235" t="n">
-        <v>0.134375403943011</v>
+        <v>0.281577354512224</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01241857276815455</v>
+        <v>0.02064982139521334</v>
       </c>
       <c r="G236" t="n">
-        <v>0.135165847495617</v>
+        <v>0.2812516559509722</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02510738144358349</v>
+        <v>0.02216712351197168</v>
       </c>
       <c r="K236" t="n">
-        <v>0.133363172903262</v>
+        <v>0.2829802178183408</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0118850812578124</v>
+        <v>0.04981418122194387</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1330327220632965</v>
+        <v>0.2822771859544744</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01241857276815455</v>
+        <v>0.07768856315318268</v>
       </c>
       <c r="O236" t="n">
-        <v>0.135165847495617</v>
+        <v>0.2832336918917077</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01253968138343816</v>
+        <v>0.0193714063905701</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1359562910482229</v>
+        <v>0.2828964024770013</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02496888302605293</v>
+        <v>0.02186038733388427</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1341430744991875</v>
+        <v>0.2846350728933019</v>
       </c>
       <c r="L237" t="n">
-        <v>0.01119638751582458</v>
+        <v>0.04932886484303056</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1338106911981696</v>
+        <v>0.2839279297319859</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01253968138343816</v>
+        <v>0.07701096419924741</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1359562910482229</v>
+        <v>0.2848900292711914</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01246111709511426</v>
+        <v>0.01911665499747465</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1367467346008289</v>
+        <v>0.2845411490030304</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02440896625799754</v>
+        <v>0.02167998253263356</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1349229760951131</v>
+        <v>0.286289927968263</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0114183641234884</v>
+        <v>0.0485023931234797</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1345886603330427</v>
+        <v>0.2855786735094974</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01246111709511426</v>
+        <v>0.07602573365612258</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1367467346008289</v>
+        <v>0.2865463666506751</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01228288506568844</v>
+        <v>0.01786681817779132</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1375371781534348</v>
+        <v>0.2861858955290594</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02432824487503241</v>
+        <v>0.02130852468443879</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1357028776910386</v>
+        <v>0.287944783043224</v>
       </c>
       <c r="L239" t="n">
-        <v>0.01055181307836017</v>
+        <v>0.04799252525237774</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1353666294679158</v>
+        <v>0.287229417287009</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01228288506568844</v>
+        <v>0.07467394359987178</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1375371781534348</v>
+        <v>0.2882027040301587</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01230499045766626</v>
+        <v>0.01761602701338482</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1383276217060408</v>
+        <v>0.2878306420550885</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02412733261277264</v>
+        <v>0.02113602548429413</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1364827792869641</v>
+        <v>0.2895996381181851</v>
       </c>
       <c r="L240" t="n">
-        <v>0.009897536377996619</v>
+        <v>0.04768032186813018</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1361445986027889</v>
+        <v>0.2888801610645205</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01230499045766626</v>
+        <v>0.07351850007482535</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1383276217060408</v>
+        <v>0.2898590414096424</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01222743843355326</v>
+        <v>0.0173642661868692</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1391180652586467</v>
+        <v>0.2894753885811176</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02370684320683325</v>
+        <v>0.02086246807403714</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1372626808828896</v>
+        <v>0.2912544931931461</v>
       </c>
       <c r="L241" t="n">
-        <v>0.009156336019954192</v>
+        <v>0.04686574529356785</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1369225677376619</v>
+        <v>0.2905309048420321</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01222743843355326</v>
+        <v>0.07285934386152843</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1391180652586467</v>
+        <v>0.291515378789126</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01195023415585498</v>
+        <v>0.01911152038085854</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1399085088112527</v>
+        <v>0.2911201351071467</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02306739039282943</v>
+        <v>0.02058783559550541</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1380425824788151</v>
+        <v>0.2929093482681072</v>
       </c>
       <c r="L242" t="n">
-        <v>0.008529014001789348</v>
+        <v>0.04634875785152157</v>
       </c>
       <c r="M242" t="n">
-        <v>0.137700536872535</v>
+        <v>0.2921816486195437</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01195023415585498</v>
+        <v>0.0724964157405259</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1399085088112527</v>
+        <v>0.2931717161686097</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01197338278707698</v>
+        <v>0.01785777427796693</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1406989523638586</v>
+        <v>0.2927648816331758</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02230958790637624</v>
+        <v>0.02031211119053653</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1388224840747406</v>
+        <v>0.2945642033430682</v>
       </c>
       <c r="L243" t="n">
-        <v>0.008716372321058596</v>
+        <v>0.04582932186482228</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1384785060074081</v>
+        <v>0.2938323923970552</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01197338278707698</v>
+        <v>0.0715296564923627</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1406989523638586</v>
+        <v>0.2948280535480934</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01189688948972482</v>
+        <v>0.01760301256080842</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1414893959164646</v>
+        <v>0.2944096281592049</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02233404948308876</v>
+        <v>0.02013527800096804</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1396023856706661</v>
+        <v>0.2962190584180293</v>
       </c>
       <c r="L244" t="n">
-        <v>0.007919212975318557</v>
+        <v>0.04480739965630068</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1392564751422812</v>
+        <v>0.2954831361745667</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01189688948972482</v>
+        <v>0.07005900689758371</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1414893959164646</v>
+        <v>0.2964843909275771</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01192075942630407</v>
+        <v>0.01634721991199712</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1422798394690705</v>
+        <v>0.2960543746852339</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02184138885858208</v>
+        <v>0.01965731916863753</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1403822872665916</v>
+        <v>0.2978739134929904</v>
       </c>
       <c r="L245" t="n">
-        <v>0.007138337962125818</v>
+        <v>0.04418295354878771</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1400344442771543</v>
+        <v>0.2971338799520782</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01192075942630407</v>
+        <v>0.06878440773673383</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1422798394690705</v>
+        <v>0.2981407283070607</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01174499775932025</v>
+        <v>0.01709038101414705</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1430702830216765</v>
+        <v>0.297699121211263</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02083221976847136</v>
+        <v>0.01947821783538257</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1411621888625171</v>
+        <v>0.2995287685679514</v>
       </c>
       <c r="L246" t="n">
-        <v>0.006774549279036646</v>
+        <v>0.04355594586511424</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1408124134120273</v>
+        <v>0.2987846237295898</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01174499775932025</v>
+        <v>0.067805799790358</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1430702830216765</v>
+        <v>0.2997970656865444</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01166960965127892</v>
+        <v>0.01583248054987232</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1438607265742824</v>
+        <v>0.299343867737292</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02030715594837165</v>
+        <v>0.01909795714304074</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1419420904584426</v>
+        <v>0.3011836236429125</v>
       </c>
       <c r="L247" t="n">
-        <v>0.006428648923607838</v>
+        <v>0.04322633892811106</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1415903825469004</v>
+        <v>0.3004353675071013</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01166960965127892</v>
+        <v>0.06752312383900128</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1438607265742824</v>
+        <v>0.3014534030660281</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01159460026468565</v>
+        <v>0.016573503201787</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1446511701268884</v>
+        <v>0.3009886142633212</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02026681113389803</v>
+        <v>0.01901652023344958</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1427219920543681</v>
+        <v>0.3028384787178736</v>
       </c>
       <c r="L248" t="n">
-        <v>0.006001438893395716</v>
+        <v>0.04249409506060906</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1423683516817735</v>
+        <v>0.3020861112846129</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01159460026468565</v>
+        <v>0.06603632066320836</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1446511701268884</v>
+        <v>0.3031097404455118</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01141997476204597</v>
+        <v>0.01531343365250516</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1454416136794943</v>
+        <v>0.3026333607893502</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01961179906066565</v>
+        <v>0.0186338902484467</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1435018936502936</v>
+        <v>0.3044933337928346</v>
       </c>
       <c r="L249" t="n">
-        <v>0.005493721185956923</v>
+        <v>0.04215917658543908</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1431463208166466</v>
+        <v>0.3037368550621244</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01141997476204597</v>
+        <v>0.06544533104352424</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1454416136794943</v>
+        <v>0.3047660778249954</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01134573830586546</v>
+        <v>0.01505225658464086</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1462320572321002</v>
+        <v>0.3042781073153793</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01864273346428955</v>
+        <v>0.01845005032986968</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1442817952462191</v>
+        <v>0.3061481888677957</v>
       </c>
       <c r="L250" t="n">
-        <v>0.00500629779884787</v>
+        <v>0.0413215458254319</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1439242899515196</v>
+        <v>0.305387598839636</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01134573830586546</v>
+        <v>0.06435009576049378</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1462320572321002</v>
+        <v>0.306422415204479</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01127189605864964</v>
+        <v>0.0157899566808082</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1470225007847062</v>
+        <v>0.3059228538414084</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01856022808038485</v>
+        <v>0.01806498361955606</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1450616968421446</v>
+        <v>0.3078030439427566</v>
       </c>
       <c r="L251" t="n">
-        <v>0.005139970729625132</v>
+        <v>0.04088116510341844</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1447022590863927</v>
+        <v>0.3070383426171475</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01127189605864964</v>
+        <v>0.06295055559466217</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1470225007847062</v>
+        <v>0.3080787525839628</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01129845318290409</v>
+        <v>0.01452651862362123</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1478129443373122</v>
+        <v>0.3075676003674375</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01786489664456667</v>
+        <v>0.01777867325934341</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1458415984380702</v>
+        <v>0.3094578990177178</v>
       </c>
       <c r="L252" t="n">
-        <v>0.003995541975845229</v>
+        <v>0.03983799674222954</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1454802282212658</v>
+        <v>0.3086890863946591</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01129845318290409</v>
+        <v>0.06234665132657402</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1478129443373122</v>
+        <v>0.3097350899634465</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01132541484113437</v>
+        <v>0.01626192709569405</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1486033878899181</v>
+        <v>0.3092123468934665</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01725735289245006</v>
+        <v>0.01759110239106933</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1466215000339957</v>
+        <v>0.3111127540926788</v>
       </c>
       <c r="L253" t="n">
-        <v>0.00417381353506463</v>
+        <v>0.03909200306469604</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1462581973561389</v>
+        <v>0.3103398301721706</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01132541484113437</v>
+        <v>0.06103832373677442</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1486033878899181</v>
+        <v>0.3113914273429301</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.011252786195846</v>
+        <v>0.0139961667796407</v>
       </c>
       <c r="G254" t="n">
-        <v>0.149393831442524</v>
+        <v>0.3108570934194956</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01633821055965012</v>
+        <v>0.01710225415657137</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1474014016299212</v>
+        <v>0.3127676091676398</v>
       </c>
       <c r="L254" t="n">
-        <v>0.003775587404840075</v>
+        <v>0.03874314639364876</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1470361664910119</v>
+        <v>0.3119905739496822</v>
       </c>
       <c r="N254" t="n">
-        <v>0.011252786195846</v>
+        <v>0.06022551360580813</v>
       </c>
       <c r="O254" t="n">
-        <v>0.149393831442524</v>
+        <v>0.3130477647224138</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01118057240954454</v>
+        <v>0.01372922235807526</v>
       </c>
       <c r="G255" t="n">
-        <v>0.15018427499513</v>
+        <v>0.3125018399455247</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01560808338178202</v>
+        <v>0.01681211169768714</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1481813032258467</v>
+        <v>0.3144224642426009</v>
       </c>
       <c r="L255" t="n">
-        <v>0.003201665582727775</v>
+        <v>0.03789138905191858</v>
       </c>
       <c r="M255" t="n">
-        <v>0.147814135625885</v>
+        <v>0.3136413177271937</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01118057240954454</v>
+        <v>0.0595081617142203</v>
       </c>
       <c r="O255" t="n">
-        <v>0.15018427499513</v>
+        <v>0.3147041021018974</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01090877864473556</v>
+        <v>0.01546107851361184</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1509747185477359</v>
+        <v>0.3141465864715538</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01526758509446074</v>
+        <v>0.01672065815625415</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1489612048217722</v>
+        <v>0.316077319317562</v>
       </c>
       <c r="L256" t="n">
-        <v>0.003052850066284474</v>
+        <v>0.03723669336233634</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1485921047607581</v>
+        <v>0.3152920615047052</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01090877864473556</v>
+        <v>0.05838620884255569</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1509747185477359</v>
+        <v>0.3163604394813811</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01103741006392461</v>
+        <v>0.01419171992886447</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1517651621003419</v>
+        <v>0.3157913329975828</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01481732943330147</v>
+        <v>0.01632787667411003</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1497411064176977</v>
+        <v>0.317732174392523</v>
       </c>
       <c r="L257" t="n">
-        <v>0.002729942853066603</v>
+        <v>0.03667902164773287</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1493700738956312</v>
+        <v>0.3169428052822168</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01103741006392461</v>
+        <v>0.05745959577135923</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1517651621003419</v>
+        <v>0.3180167768608648</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01086647182961724</v>
+        <v>0.01492113128644725</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1525556056529478</v>
+        <v>0.3174360795236119</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01385793013391928</v>
+        <v>0.01603375039309234</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1505210080136232</v>
+        <v>0.3193870294674841</v>
       </c>
       <c r="L258" t="n">
-        <v>0.003333745940630628</v>
+        <v>0.03621833623093906</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1501480430305043</v>
+        <v>0.3185935490597284</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01086647182961724</v>
+        <v>0.05612826328117582</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1525556056529478</v>
+        <v>0.3196731142403484</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.010695969104319</v>
+        <v>0.01264929726897423</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1533460492055538</v>
+        <v>0.319080826049641</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01329000093192928</v>
+        <v>0.01583826245503863</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1513009096095487</v>
+        <v>0.3210418845424452</v>
       </c>
       <c r="L259" t="n">
-        <v>0.002765061326533202</v>
+        <v>0.03525459943478565</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1509260121653773</v>
+        <v>0.3202442928372399</v>
       </c>
       <c r="N259" t="n">
-        <v>0.010695969104319</v>
+        <v>0.05499215215255054</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1533460492055538</v>
+        <v>0.3213294516198322</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01062590705053544</v>
+        <v>0.0123762025590595</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1541364927581597</v>
+        <v>0.3207255725756701</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01281415556294652</v>
+        <v>0.01544139600178649</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1520808112054742</v>
+        <v>0.3226967396174062</v>
       </c>
       <c r="L260" t="n">
-        <v>0.002724691008330726</v>
+        <v>0.03498777358210364</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1517039813002504</v>
+        <v>0.3218950366147514</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01062590705053544</v>
+        <v>0.05375120316602811</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1541364927581597</v>
+        <v>0.3229857889993158</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01055629083077212</v>
+        <v>0.01210183183931713</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1549269363107657</v>
+        <v>0.3223703191016992</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01183100776258614</v>
+        <v>0.01504313417517351</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1528607128013998</v>
+        <v>0.3243515946923672</v>
       </c>
       <c r="L261" t="n">
-        <v>0.002113436983579797</v>
+        <v>0.03381782099572378</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1524819504351235</v>
+        <v>0.323545780392263</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01055629083077212</v>
+        <v>0.05320535710215357</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1549269363107657</v>
+        <v>0.3246421263787995</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01048712560753459</v>
+        <v>0.01182616979236121</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1557173798633716</v>
+        <v>0.3240150656277282</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01144117126646316</v>
+        <v>0.01494346011703724</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1536406143973253</v>
+        <v>0.3260064497673283</v>
       </c>
       <c r="L262" t="n">
-        <v>0.002532101249836938</v>
+        <v>0.03354470399847695</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1532599195699966</v>
+        <v>0.3251965241697745</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01048712560753459</v>
+        <v>0.05155455474147175</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1557173798633716</v>
+        <v>0.3262984637582831</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0106184165433284</v>
+        <v>0.01354920110080577</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1565078234159775</v>
+        <v>0.3256598121537573</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01054525981019283</v>
+        <v>0.01464235696921521</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1544205159932508</v>
+        <v>0.3276613048422894</v>
       </c>
       <c r="L263" t="n">
-        <v>0.002381485804658634</v>
+        <v>0.03276838491319395</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1540378887048697</v>
+        <v>0.3268472679472861</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0106184165433284</v>
+        <v>0.0505987368645277</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1565078234159775</v>
+        <v>0.3279548011377668</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01035016880065911</v>
+        <v>0.01127091044726494</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1572982669685835</v>
+        <v>0.3273045586797864</v>
       </c>
       <c r="J264" t="n">
-        <v>0.009643887129390072</v>
+        <v>0.01423980787354508</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1552004175891763</v>
+        <v>0.3293161599172504</v>
       </c>
       <c r="L264" t="n">
-        <v>0.00256239264560143</v>
+        <v>0.03188882606270566</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1548158578397427</v>
+        <v>0.3284980117247976</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01035016880065911</v>
+        <v>0.05023784425186623</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1572982669685835</v>
+        <v>0.3296111385172504</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1322.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1322.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04427267174838346</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04427267174838346</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07083627479741354</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06338402137206353</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01195362137206352</v>
+        <v>0.01291641854940109</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01244235016253591</v>
+        <v>0.01344451170363441</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003077449200917348</v>
+        <v>0.00124841287752131</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001644746526029077</v>
+        <v>0.0006404748656932769</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003080747294112854</v>
+        <v>0.00124841287752131</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001654855074961058</v>
+        <v>0.0006404748656932769</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009117490883580159</v>
+        <v>0.004880484524451056</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001650743777511546</v>
+        <v>0.001021761489310559</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0151107268832697</v>
+        <v>0.008927962353854457</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001656337379483671</v>
+        <v>0.001012155499643716</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005657892351541911</v>
+        <v>0.002469519339311145</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003289493052058155</v>
+        <v>0.001280949731386554</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005745719492325337</v>
+        <v>0.002469519339311145</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003309710149922115</v>
+        <v>0.001280949731386554</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01512357192632582</v>
+        <v>0.00955151885179456</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003026282856789712</v>
+        <v>0.002043522978621118</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02715069946957283</v>
+        <v>0.01759758916306953</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003539249968957759</v>
+        <v>0.002024310999287431</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006640900762257512</v>
+        <v>0.003641027110531464</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004147450054178637</v>
+        <v>0.001921424597079831</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007714559999999995</v>
+        <v>0.003641027110531464</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004817983799999997</v>
+        <v>0.001921424597079831</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01890608605306476</v>
+        <v>0.01512357192632582</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004952231332534637</v>
+        <v>0.003486804161083799</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03087052970656745</v>
+        <v>0.02534065283826797</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004969012138451012</v>
+        <v>0.003112724972698748</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00863805440324223</v>
+        <v>0.004740643916344232</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00657898610411631</v>
+        <v>0.002561899462773107</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008969175301438134</v>
+        <v>0.004740643916344232</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00661942029984423</v>
+        <v>0.002561899462773107</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02152359762795178</v>
+        <v>0.01637943912431805</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006602975110046184</v>
+        <v>0.004087045957242235</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03357221274653699</v>
+        <v>0.02896094841382529</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006625349517934683</v>
+        <v>0.004048621998574862</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004147450054178637</v>
+        <v>0.004817983799999997</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006640900762257512</v>
+        <v>0.007714559999999995</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.0096919060353894</v>
+        <v>0.00574607748191143</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008223732630145386</v>
+        <v>0.003202374328466385</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009849203853313074</v>
+        <v>0.00574607748191143</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008274275374805287</v>
+        <v>0.003202374328466385</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02322253784162479</v>
+        <v>0.01885803829890792</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008253718887557729</v>
+        <v>0.005108807446552795</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03647046072247856</v>
+        <v>0.03256650679412743</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008281686897418355</v>
+        <v>0.005060777498218577</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01060479413803071</v>
+        <v>0.006635035532395001</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009868479156174463</v>
+        <v>0.003842849194159661</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01066280533454667</v>
+        <v>0.006635035532395001</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009929130449766345</v>
+        <v>0.003842849194159661</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02482014008590624</v>
+        <v>0.02084513348056857</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009904462665069275</v>
+        <v>0.006130568935863353</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03867456084532256</v>
+        <v>0.03631757338860109</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009938024276902024</v>
+        <v>0.006072932997862293</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01146190186334832</v>
+        <v>0.007385225792956918</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01151322568220354</v>
+        <v>0.004483324059852938</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01139421670224303</v>
+        <v>0.007385225792956918</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.0115839855247274</v>
+        <v>0.004483324059852938</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02673363775261867</v>
+        <v>0.02259696401502931</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01155520644258082</v>
+        <v>0.007152330425173913</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04089380032599971</v>
+        <v>0.03914739903134634</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.0115943616563857</v>
+        <v>0.007085088497506009</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01195362137206352</v>
+        <v>0.007714559999999995</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01244235016253591</v>
+        <v>0.004817983799999997</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01212767491350635</v>
+        <v>0.007714559999999995</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01323884059968846</v>
+        <v>0.004817983799999997</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0290837921660112</v>
+        <v>0.02466976924801953</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01363580320754717</v>
+        <v>0.00817409191448447</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04253746637544048</v>
+        <v>0.04168923455646345</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01325069903586937</v>
+        <v>0.008097243997149724</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01224415727637878</v>
+        <v>0.008551884286951646</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0148027187342617</v>
+        <v>0.005764273791239493</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01291641854940109</v>
+        <v>0.008551884286951646</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01445395139999999</v>
+        <v>0.005764273791239493</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03057897196656184</v>
+        <v>0.02581978852526856</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01485669399760391</v>
+        <v>0.009195853403795029</v>
       </c>
       <c r="N74" s="171" t="n">
         <v>0.04525116578262134</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01474893</v>
+        <v>0.009264062418746263</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01315238770748699</v>
+        <v>0.009085130650547009</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01644746526029077</v>
+        <v>0.00640474865693277</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01383296754556455</v>
+        <v>0.009085130650547009</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01654855074961057</v>
+        <v>0.00640474865693277</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03247197787187264</v>
+        <v>0.0277032611925058</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01650743777511546</v>
+        <v>0.01021761489310559</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04789762282321997</v>
+        <v>0.04683970736281245</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01656337379483671</v>
+        <v>0.01012155499643715</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01505584306508771</v>
+        <v>0.009590376654964518</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01809221178631985</v>
+        <v>0.007045223522626046</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01496141195121772</v>
+        <v>0.009590376654964518</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01820340582457163</v>
+        <v>0.007045223522626046</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0345170619489665</v>
+        <v>0.0290837921660112</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01815818155262701</v>
+        <v>0.01117565436244807</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05079837126713033</v>
+        <v>0.0498271482621131</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01821971117432038</v>
+        <v>0.01113371049608087</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01594392456746918</v>
+        <v>0.01006678126076965</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01973695831234893</v>
+        <v>0.007685698388319322</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01591331839147973</v>
+        <v>0.01006678126076965</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01985826089953269</v>
+        <v>0.007685698388319322</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03658136081147226</v>
+        <v>0.03038063831162424</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01980892533013855</v>
+        <v>0.01226113787172671</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05464968034635853</v>
+        <v>0.05172898383101515</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01987604855380405</v>
+        <v>0.01214586599572459</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01680603343291963</v>
+        <v>0.01051350342852792</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02138170483837801</v>
+        <v>0.0083261732540126</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01677269075378742</v>
+        <v>0.01051350342852792</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02151311597449375</v>
+        <v>0.0083261732540126</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03903201107301874</v>
+        <v>0.0319153512235103</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0214596691076501</v>
+        <v>0.01328289936103727</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05728613325672904</v>
+        <v>0.05393505891420441</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02153238593328772</v>
+        <v>0.0131580214953683</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0176315708797273</v>
+        <v>0.01092970211880478</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02302645136440708</v>
+        <v>0.008966648119705876</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01782353292557756</v>
+        <v>0.01092970211880478</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02316797104945481</v>
+        <v>0.008966648119705876</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04073614934723477</v>
+        <v>0.03377283187419305</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02311041288516164</v>
+        <v>0.01430466085034783</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06074231319406659</v>
+        <v>0.0572352183563668</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02318872331277139</v>
+        <v>0.01417017699501202</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01740993812618042</v>
+        <v>0.01131453629216577</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02467119789043616</v>
+        <v>0.009607122985399154</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01854984879428694</v>
+        <v>0.01131453629216577</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02482282612441586</v>
+        <v>0.009607122985399154</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04286091224774913</v>
+        <v>0.03534535664247282</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02476115666267319</v>
+        <v>0.01532642233965838</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06385280335419569</v>
+        <v>0.0590193070021881</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02484506069225506</v>
+        <v>0.01518233249465573</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01813053639056724</v>
+        <v>0.01166716490917632</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02631594441646524</v>
+        <v>0.01024759785109243</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01963564224735238</v>
+        <v>0.01166716490917632</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02647768119937692</v>
+        <v>0.01024759785109243</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0447734363881907</v>
+        <v>0.03652520190714986</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02641190044018473</v>
+        <v>0.01634818382896894</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06785218693294098</v>
+        <v>0.06187716969635426</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02650139807173873</v>
+        <v>0.01619448799429945</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01978276689117598</v>
+        <v>0.01198674693040198</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02796069094249432</v>
+        <v>0.01088807271678571</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02046491717221063</v>
+        <v>0.01198674693040198</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02813253627433798</v>
+        <v>0.01088807271678571</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04694085838218828</v>
+        <v>0.03820464404702459</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02806264421769628</v>
+        <v>0.0173699453182795</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07087504712612708</v>
+        <v>0.06429865128355111</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0281577354512224</v>
+        <v>0.01720664349394316</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02035603084629489</v>
+        <v>0.01227244131640817</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02960543746852339</v>
+        <v>0.01152854758247899</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02102167745629854</v>
+        <v>0.01227244131640817</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02978739134929903</v>
+        <v>0.01152854758247899</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0480303148433707</v>
+        <v>0.03957595944089728</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02971338799520782</v>
+        <v>0.01839170680759006</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07285596712957854</v>
+        <v>0.06697359660846447</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02981407283070607</v>
+        <v>0.01821879899358688</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02083972947421215</v>
+        <v>0.01252340702776045</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03125018399455247</v>
+        <v>0.01216902244817226</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02168992698705289</v>
+        <v>0.01252340702776045</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03144224642426009</v>
+        <v>0.01216902244817226</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04970894238536672</v>
+        <v>0.04113142446756823</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03136413177271937</v>
+        <v>0.01941346829690062</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0754295301391199</v>
+        <v>0.06899185051578016</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03147041021018974</v>
+        <v>0.0192309544932306</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02122326399321606</v>
+        <v>0.01273880302502426</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03289493052058155</v>
+        <v>0.01280949731386554</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02235366965191046</v>
+        <v>0.01273880302502426</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03309710149922115</v>
+        <v>0.01280949731386554</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05074387762180529</v>
+        <v>0.04286331550583786</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03301487555023092</v>
+        <v>0.02043522978621118</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07793031935057598</v>
+        <v>0.07084325785018403</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03312674758967342</v>
+        <v>0.02024310999287431</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02051913488406439</v>
+        <v>0.01291641854940109</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03453967704661062</v>
+        <v>0.01344451170363441</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02289690933830803</v>
+        <v>0.01291641854940109</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03475195657418221</v>
+        <v>0.01344451170363441</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05190225716631511</v>
+        <v>0.04466390893450636</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03466561932774246</v>
+        <v>0.02145699127552174</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07989291795977121</v>
+        <v>0.07321766345636205</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03478308496915709</v>
+        <v>0.02125526549251803</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01980076597505003</v>
+        <v>0.01307765058379785</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0361844235726397</v>
+        <v>0.01409044704525209</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02302522844649892</v>
+        <v>0.01307765058379785</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03640681164914326</v>
+        <v>0.01409044704525209</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05260253112000454</v>
+        <v>0.04592548113237416</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03631636310525401</v>
+        <v>0.0224787527648323</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08119357001882627</v>
+        <v>0.07550491217899985</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03643942234864075</v>
+        <v>0.02226742099216174</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02207289202759095</v>
+        <v>0.01323562840207195</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03782917009866878</v>
+        <v>0.01473092191094537</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02333219369884752</v>
+        <v>0.01323562840207195</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03806166672410433</v>
+        <v>0.01473092191094537</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05288250991921209</v>
+        <v>0.04754030847824153</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03796710688276556</v>
+        <v>0.02350051425414286</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08157494954749894</v>
+        <v>0.07789484886278347</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03809575972812443</v>
+        <v>0.02327957649180546</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02033361628952985</v>
+        <v>0.01339171831582333</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03947391662469785</v>
+        <v>0.01537139677663864</v>
       </c>
       <c r="J89" t="n">
-        <v>0.023728931190038</v>
+        <v>0.01339171831582333</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03971652179906538</v>
+        <v>0.01537139677663864</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0535375281339176</v>
+        <v>0.04840066735090884</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0396178506602771</v>
+        <v>0.02452227574345341</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08242158811364003</v>
+        <v>0.07897731835239868</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0397520971076081</v>
+        <v>0.02429173199144917</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0225810420087094</v>
+        <v>0.01354591563187171</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04111866315072693</v>
+        <v>0.01601187164233192</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02411335337353301</v>
+        <v>0.01354591563187171</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04137137687402644</v>
+        <v>0.01601187164233192</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05416292019963015</v>
+        <v>0.04979883412917632</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04126859443778865</v>
+        <v>0.02554403723276397</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08352615257112933</v>
+        <v>0.08094216549253141</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04140843448709177</v>
+        <v>0.02530388749109289</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02181327243297231</v>
+        <v>0.01369821565703688</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04276340967675601</v>
+        <v>0.0166523465080252</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02428337270279519</v>
+        <v>0.01369821565703688</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04302623194898749</v>
+        <v>0.0166523465080252</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05485402055185878</v>
+        <v>0.05112708519184439</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0429193382153002</v>
+        <v>0.02656579872207453</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08488130977384661</v>
+        <v>0.08317923512786735</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04306477186657545</v>
+        <v>0.02631604299073661</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02102841081016123</v>
+        <v>0.01384861369813861</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04440815620278509</v>
+        <v>0.01729282137371848</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02463690163128721</v>
+        <v>0.01384861369813861</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04468108702394855</v>
+        <v>0.01729282137371848</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05550616362611266</v>
+        <v>0.05247769691771334</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04457008199281174</v>
+        <v>0.02758756021138509</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08527972657567179</v>
+        <v>0.08397837210309256</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04472110924605911</v>
+        <v>0.02732819849038032</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02122456038811885</v>
+        <v>0.01399710506199669</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04605290272881416</v>
+        <v>0.01793329623941175</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0247718526124717</v>
+        <v>0.01399710506199669</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04633594209890961</v>
+        <v>0.01793329623941175</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05591468385790074</v>
+        <v>0.05344294568558347</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04622082577032328</v>
+        <v>0.02860932170069565</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08691406983048455</v>
+        <v>0.08512942126289269</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04637744662554278</v>
+        <v>0.02834035399002404</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02239982441468789</v>
+        <v>0.01414368505543092</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04769764925484324</v>
+        <v>0.01857377110510503</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02508613809981131</v>
+        <v>0.01414368505543092</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04799079717387067</v>
+        <v>0.01857377110510503</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05617491568273225</v>
+        <v>0.05421510787425513</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04787156954783483</v>
+        <v>0.02963108319000621</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08727700639216457</v>
+        <v>0.0870222274519537</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04803378400502645</v>
+        <v>0.02935250948966775</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.021552306137711</v>
+        <v>0.01428834898526102</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04934239578087232</v>
+        <v>0.01921424597079831</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02507767054676872</v>
+        <v>0.01428834898526102</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04964565224883172</v>
+        <v>0.01921424597079831</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05678219353611616</v>
+        <v>0.05518645986252865</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04952231332534638</v>
+        <v>0.03065284467931677</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08826120311459196</v>
+        <v>0.08754663551496145</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04969012138451012</v>
+        <v>0.03036466498931147</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02368010880503087</v>
+        <v>0.01443109215830684</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0509871423069014</v>
+        <v>0.01985472083649158</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02544436240680658</v>
+        <v>0.01443109215830684</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05130050732379279</v>
+        <v>0.01985472083649158</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05713185185356162</v>
+        <v>0.05584927802920431</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05117305710285792</v>
+        <v>0.03167460616862733</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08875932685164623</v>
+        <v>0.08829249029660169</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0513464587639938</v>
+        <v>0.03137682048895518</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02278133566449018</v>
+        <v>0.01457190988138809</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05263188883293048</v>
+        <v>0.02049519570218486</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02548412613338751</v>
+        <v>0.01457190988138809</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05295536239875384</v>
+        <v>0.02049519570218486</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05751922507057772</v>
+        <v>0.05659583875308249</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05282380088036947</v>
+        <v>0.03269636765793788</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08906404445720728</v>
+        <v>0.08954963664156046</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05300279614347746</v>
+        <v>0.0323889759885989</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02185408996393163</v>
+        <v>0.01471079746132459</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05427663535895955</v>
+        <v>0.02113567056787814</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02569487417997419</v>
+        <v>0.01471079746132459</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0546102174737149</v>
+        <v>0.02113567056787814</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05793964762267348</v>
+        <v>0.05721841841296346</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05447454465788101</v>
+        <v>0.03371812914724844</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08986802278515499</v>
+        <v>0.09010791939452334</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05465913352296113</v>
+        <v>0.03340113148824262</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02390724274412705</v>
+        <v>0.01484775020493615</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05592138188498863</v>
+        <v>0.02177614543357142</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02577451900002927</v>
+        <v>0.01484775020493615</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05626507254867595</v>
+        <v>0.02177614543357142</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05816758433202243</v>
+        <v>0.05730929338764759</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05612528843539256</v>
+        <v>0.034739890636559</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08956392868936902</v>
+        <v>0.09050233156524273</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0563154709024448</v>
+        <v>0.03441328698788633</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02390692711875061</v>
+        <v>0.01498276341904247</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05756612841101771</v>
+        <v>0.02241662029926469</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02583283709880218</v>
+        <v>0.01498276341904247</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05791992762363701</v>
+        <v>0.02241662029926469</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05816097847414056</v>
+        <v>0.05816758433202243</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0577760322129041</v>
+        <v>0.03576165212586956</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09050233156524273</v>
+        <v>0.0904989918359379</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05797180828192848</v>
+        <v>0.03542544248753005</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02289568958885434</v>
+        <v>0.01511583241046337</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05921087493704678</v>
+        <v>0.02305709516495797</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02573250225858611</v>
+        <v>0.01511583241046337</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05957478269859807</v>
+        <v>0.02305709516495797</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05816038834423692</v>
+        <v>0.05766503479662652</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05942677599041565</v>
+        <v>0.03678341361518012</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08970226261998893</v>
+        <v>0.08995665926616964</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05962814566141215</v>
+        <v>0.03643759798717376</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02386908479650721</v>
+        <v>0.01524695248601866</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06085562146307586</v>
+        <v>0.02369757003065125</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02582026343754482</v>
+        <v>0.01524695248601866</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06122963777355912</v>
+        <v>0.02369757003065125</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05771736242128783</v>
+        <v>0.05806248904720598</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06107751976792719</v>
+        <v>0.03780517510449068</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09026824605273226</v>
+        <v>0.09016864967798882</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06128448304089582</v>
+        <v>0.03744975348681748</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02382811238479544</v>
+        <v>0.01537611895252804</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06250036798910494</v>
+        <v>0.02433804489634452</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02579121963375635</v>
+        <v>0.01537611895252804</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06288449284852018</v>
+        <v>0.02433804489634452</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05753767673545193</v>
+        <v>0.05784288964359949</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06272826354543874</v>
+        <v>0.03882693659380124</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08947468936034148</v>
+        <v>0.08933869532206701</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06294082042037949</v>
+        <v>0.03846190898646119</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02177377199680516</v>
+        <v>0.01550332711681137</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06414511451513402</v>
+        <v>0.0249785197620378</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0255464710444474</v>
+        <v>0.01550332711681137</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06453934792348123</v>
+        <v>0.0249785197620378</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05752379017376327</v>
+        <v>0.05790932450262726</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06437900732295029</v>
+        <v>0.0398486980831118</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08952545732229822</v>
+        <v>0.08937052844907578</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06459715779986315</v>
+        <v>0.03947406448610491</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02370706327562264</v>
+        <v>0.01562857228568836</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06578986104116309</v>
+        <v>0.02561899462773108</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02548711786684465</v>
+        <v>0.01562857228568836</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06619420299844229</v>
+        <v>0.02561899462773108</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05767816162325609</v>
+        <v>0.05776258486620628</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06602975110046183</v>
+        <v>0.04087045957242236</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08982441471808411</v>
+        <v>0.08956788130968646</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06625349517934684</v>
+        <v>0.04048621998574862</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02162898586433407</v>
+        <v>0.01575184976597884</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06743460756719216</v>
+        <v>0.02625946949342435</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02551426029817479</v>
+        <v>0.01575184976597884</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06784905807340336</v>
+        <v>0.02625946949342435</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05710324997096447</v>
+        <v>0.05780346197625355</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06768049487797338</v>
+        <v>0.04189222106173291</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08977542632718044</v>
+        <v>0.0892344861545708</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0679098325588305</v>
+        <v>0.04149837548539234</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02154053940602565</v>
+        <v>0.01587315486450257</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06907935409322125</v>
+        <v>0.02689994435911763</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0254289985356645</v>
+        <v>0.01587315486450257</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06950391314836442</v>
+        <v>0.02689994435911763</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05690151410392255</v>
+        <v>0.05773274707468612</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06933123865548492</v>
+        <v>0.04291398255104347</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08908235692906907</v>
+        <v>0.08917407523440007</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06956616993831417</v>
+        <v>0.04251053098503606</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02244272354378358</v>
+        <v>0.01599248288807933</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07072410061925032</v>
+        <v>0.02754041922481091</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02533243277654048</v>
+        <v>0.01599248288807933</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07115876822332548</v>
+        <v>0.02754041922481091</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05707541290916446</v>
+        <v>0.05755123140342092</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07098198243299647</v>
+        <v>0.04393574404035403</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08824907130323145</v>
+        <v>0.08839038079984596</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07122250731779785</v>
+        <v>0.04352268648467977</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02233653792069409</v>
+        <v>0.01610982914352891</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0723688471452794</v>
+        <v>0.02818089409050418</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02532566321802939</v>
+        <v>0.01610982914352891</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07281362329828653</v>
+        <v>0.02818089409050418</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0565274052737243</v>
+        <v>0.05755970620437498</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07263272621050802</v>
+        <v>0.04495750552966459</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0885794342291491</v>
+        <v>0.08798713510157974</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07287884469728151</v>
+        <v>0.04453484198432349</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02122298217984333</v>
+        <v>0.01622518893767106</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07401359367130848</v>
+        <v>0.02882136895619746</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02520979005735794</v>
+        <v>0.01622518893767106</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07446847837324759</v>
+        <v>0.02882136895619746</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05625995008463625</v>
+        <v>0.05755896271946537</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07428346998801956</v>
+        <v>0.04597926701897515</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08807731048630357</v>
+        <v>0.08806807039027315</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07453518207676518</v>
+        <v>0.0455469974839672</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02210305596431756</v>
+        <v>0.01633855757732557</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07565834019733755</v>
+        <v>0.02946184382189074</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02488591349175281</v>
+        <v>0.01633855757732557</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07612333344820865</v>
+        <v>0.02946184382189074</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05627550622893449</v>
+        <v>0.05704979219060896</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07593421376553111</v>
+        <v>0.04700102850828571</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08794656485417651</v>
+        <v>0.08743691891659761</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07619151945624886</v>
+        <v>0.04655915298361092</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02297775891720297</v>
+        <v>0.01644993036931224</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07730308672336664</v>
+        <v>0.03010231868758402</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02475513371844069</v>
+        <v>0.01644993036931224</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0777781885231697</v>
+        <v>0.03010231868758402</v>
       </c>
       <c r="L112" t="n">
-        <v>0.055576532593653</v>
+        <v>0.05723298585972283</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07758495754304265</v>
+        <v>0.04802278999759627</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08729106211224941</v>
+        <v>0.08719741293122457</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07784785683573253</v>
+        <v>0.04757130848325463</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02184809068158574</v>
+        <v>0.01655930262045081</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07894783324939571</v>
+        <v>0.03074279355327729</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02481855093464828</v>
+        <v>0.01655930262045081</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07943304359813076</v>
+        <v>0.03074279355327729</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05576548806582604</v>
+        <v>0.05680933496872403</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0792357013205542</v>
+        <v>0.04904455148690683</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08651466704000382</v>
+        <v>0.08685328468482562</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07950419421521619</v>
+        <v>0.04858346398289835</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02271505090055213</v>
+        <v>0.01666666963756108</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08059257977542479</v>
+        <v>0.03138326841897057</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02447726533760223</v>
+        <v>0.01666666963756108</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08108789867309181</v>
+        <v>0.03138326841897057</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0553448315324877</v>
+        <v>0.05707963075952949</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08088644509806575</v>
+        <v>0.05006631297621739</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08612124441692137</v>
+        <v>0.08680826642807216</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08116053159469987</v>
+        <v>0.04959561948254207</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02257963921718827</v>
+        <v>0.01677202672746286</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08223732630145386</v>
+        <v>0.03202374328466385</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02433237712452924</v>
+        <v>0.01677202672746286</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08274275374805287</v>
+        <v>0.03202374328466385</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05471702188067207</v>
+        <v>0.05674466447405621</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0825371888755773</v>
+        <v>0.05108807446552794</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08591465902248346</v>
+        <v>0.08656609041163588</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08281686897418354</v>
+        <v>0.05060777498218578</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02144285527458042</v>
+        <v>0.01687536919697586</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08388207282748295</v>
+        <v>0.03266421815035712</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02428498649265603</v>
+        <v>0.01687536919697586</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08439760882301393</v>
+        <v>0.03266421815035712</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05478451799741338</v>
+        <v>0.0567052273542212</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08418793265308884</v>
+        <v>0.0521098359548385</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08509877563617185</v>
+        <v>0.08593048888618804</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08447320635366722</v>
+        <v>0.0516199304818295</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02230569871581477</v>
+        <v>0.01697669235291994</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08552681935351203</v>
+        <v>0.0333046930160504</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02413619363920928</v>
+        <v>0.01697669235291994</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08605246389797498</v>
+        <v>0.0333046930160504</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05404977876974568</v>
+        <v>0.0562621106419415</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08583867643060039</v>
+        <v>0.05313159744414906</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08407745903746794</v>
+        <v>0.08610519410240031</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08612954373315089</v>
+        <v>0.05263208598147322</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02016916918397752</v>
+        <v>0.0170759915021148</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0871715658795411</v>
+        <v>0.03394516788174368</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02388709876141563</v>
+        <v>0.0170759915021148</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08770731897293604</v>
+        <v>0.03394516788174368</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05371526308470315</v>
+        <v>0.05611610557913407</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08748942020811193</v>
+        <v>0.05415335893345962</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08355457400585331</v>
+        <v>0.08579393831094412</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08778588111263455</v>
+        <v>0.05364424148111693</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02003421827779406</v>
+        <v>0.01717326195138027</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08881631240557018</v>
+        <v>0.03458564274743695</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0237388020565018</v>
+        <v>0.01717326195138027</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08936217404789711</v>
+        <v>0.03458564274743695</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05338342982931987</v>
+        <v>0.05606800340771595</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08914016398562348</v>
+        <v>0.05517512042277017</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08343398532080959</v>
+        <v>0.08480045376249101</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08944221849211823</v>
+        <v>0.05465639698076064</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01988803660415723</v>
+        <v>0.01726849900753611</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09046105893159925</v>
+        <v>0.03522611761313024</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02379197635796287</v>
+        <v>0.01726849900753611</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09101702912285815</v>
+        <v>0.03522611761313024</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05324793209900933</v>
+        <v>0.05601859536960413</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09079090776313502</v>
+        <v>0.05619688191208074</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08281945298618482</v>
+        <v>0.08522847270771239</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09109855587160189</v>
+        <v>0.05566855248040435</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02172230491501442</v>
+        <v>0.01736169797740209</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09210580545762832</v>
+        <v>0.0358665924788235</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02363035807451871</v>
+        <v>0.01736169797740209</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09267188419781923</v>
+        <v>0.0358665924788235</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05296721778991692</v>
+        <v>0.05616867270671561</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09244165154064657</v>
+        <v>0.0572186434013913</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08266309177812542</v>
+        <v>0.08458172739727993</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09275489325108556</v>
+        <v>0.05668070798004807</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02154028016703301</v>
+        <v>0.01745285416779802</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09375055198365741</v>
+        <v>0.03650706734451679</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02324778620907168</v>
+        <v>0.01745285416779802</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09432673927278028</v>
+        <v>0.03650706734451679</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05244240987174931</v>
+        <v>0.05561902666096738</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09409239531815811</v>
+        <v>0.05824040489070186</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08213157912394026</v>
+        <v>0.08426395008186505</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09441123063056923</v>
+        <v>0.05769286347969179</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0193452193168805</v>
+        <v>0.01754196288554364</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09539529850968648</v>
+        <v>0.03714754221021006</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02314784533569867</v>
+        <v>0.01754196288554364</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09598159434774134</v>
+        <v>0.03714754221021006</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05188151969238733</v>
+        <v>0.05557044847427645</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09574313909566966</v>
+        <v>0.05926216638001242</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08103750693715756</v>
+        <v>0.08367887301213928</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09606756801005291</v>
+        <v>0.0587050189793355</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01914037932122426</v>
+        <v>0.01762901943745875</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09704004503571556</v>
+        <v>0.03778801707590334</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02293412002847652</v>
+        <v>0.01762901943745875</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0976364494227024</v>
+        <v>0.03778801707590334</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05159255859971174</v>
+        <v>0.05542372938855983</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09739388287318121</v>
+        <v>0.06028392786932297</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08059346713130561</v>
+        <v>0.08443022843877401</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09772390538953657</v>
+        <v>0.05971717447897923</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0209290171367317</v>
+        <v>0.01771401913036314</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09868479156174463</v>
+        <v>0.03842849194159662</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02281019486148213</v>
+        <v>0.01771401913036314</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09929130449766345</v>
+        <v>0.03842849194159662</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05078353794160334</v>
+        <v>0.0552796606457345</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09904462665069276</v>
+        <v>0.06130568935863354</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07961205161991242</v>
+        <v>0.08392174861244084</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09938024276902024</v>
+        <v>0.06072932997862294</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02071438972007022</v>
+        <v>0.01779695727107656</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1003295380877737</v>
+        <v>0.03906896680728989</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02257965440879236</v>
+        <v>0.01779695727107656</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1009461595726245</v>
+        <v>0.03906896680728989</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05026246906594301</v>
+        <v>0.0549390334877175</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1006953704282043</v>
+        <v>0.06232745084794409</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07890585231650632</v>
+        <v>0.0833571657838113</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1010365801485039</v>
+        <v>0.06174148547826665</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01949975402790727</v>
+        <v>0.0178778291664188</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1019742846138028</v>
+        <v>0.03970944167298317</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02214608324448406</v>
+        <v>0.0178778291664188</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1026010146475856</v>
+        <v>0.03970944167298317</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05003736332061159</v>
+        <v>0.05520263915642581</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1023461142057158</v>
+        <v>0.06334921233725466</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07778746113461549</v>
+        <v>0.08373968210130656</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1026929175279876</v>
+        <v>0.06275364097791036</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01828836701691029</v>
+        <v>0.01795663012320966</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1036190311398319</v>
+        <v>0.04034991653867644</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02201306594263413</v>
+        <v>0.01795663012320966</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1042558697225466</v>
+        <v>0.04034991653867644</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04921623205348971</v>
+        <v>0.05477126889377643</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1039968579832274</v>
+        <v>0.0643709738265652</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07706946998776804</v>
+        <v>0.08344536946815806</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1043492549074713</v>
+        <v>0.06376579647755409</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01908348564374663</v>
+        <v>0.01803335544826887</v>
       </c>
       <c r="G129" t="n">
-        <v>0.105263777665861</v>
+        <v>0.04099039140436972</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02168418707731942</v>
+        <v>0.01803335544826887</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1059107247975077</v>
+        <v>0.04099039140436972</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04890708661245841</v>
+        <v>0.05493766725311741</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1056476017607389</v>
+        <v>0.06539273531587576</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07656447078949236</v>
+        <v>0.08415913115856366</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1060055922869549</v>
+        <v>0.0647779519771978</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01888832067790782</v>
+        <v>0.01810800044841628</v>
       </c>
       <c r="G130" t="n">
-        <v>0.10690852419189</v>
+        <v>0.041630866270063</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02146303122261679</v>
+        <v>0.01810800044841628</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1075655798724687</v>
+        <v>0.041630866270063</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0484179383453984</v>
+        <v>0.05489010175252396</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1072983455382505</v>
+        <v>0.06641449680518634</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07598505545331641</v>
+        <v>0.08428023668296164</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1076619296664386</v>
+        <v>0.06579010747684151</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01768678607953397</v>
+        <v>0.01818056043047159</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1085532707179191</v>
+        <v>0.04227134113575628</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0214521330391436</v>
+        <v>0.01818056043047159</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1092204349474298</v>
+        <v>0.04227134113575628</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04784296509095068</v>
+        <v>0.05443011828773439</v>
       </c>
       <c r="M131" t="n">
-        <v>0.108949089315762</v>
+        <v>0.06743625829449688</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07524294402045212</v>
+        <v>0.08420795555179073</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1093182670459223</v>
+        <v>0.06680226297648524</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01946722761879576</v>
+        <v>0.01825103070125465</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1101980172439482</v>
+        <v>0.04291181600144955</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02102900893473227</v>
+        <v>0.01825103070125465</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1108752900223909</v>
+        <v>0.04291181600144955</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04732666607271779</v>
+        <v>0.05415944753304039</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1105998330932736</v>
+        <v>0.06845801978380744</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07446955487347168</v>
+        <v>0.08354155727548923</v>
       </c>
       <c r="O132" t="n">
-        <v>0.110974604425406</v>
+        <v>0.06781441847612894</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01823430763011673</v>
+        <v>0.01831940656758518</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1118427637699773</v>
+        <v>0.04355229086714283</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02088713165276073</v>
+        <v>0.01831940656758518</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1125301450973519</v>
+        <v>0.04355229086714283</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04657212048353801</v>
+        <v>0.05417982016273354</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1122505768707851</v>
+        <v>0.069479781273118</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07362821906182343</v>
+        <v>0.08418031136449589</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1126309418048896</v>
+        <v>0.06882657397577266</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01699268844792044</v>
+        <v>0.01838568333628298</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1134875102960063</v>
+        <v>0.04419276573283611</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02063163251207006</v>
+        <v>0.01838568333628298</v>
       </c>
       <c r="K134" t="n">
-        <v>0.114185000172313</v>
+        <v>0.04419276573283611</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04649079657024954</v>
+        <v>0.05369296685110533</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1139013206482967</v>
+        <v>0.07050154276242857</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07263696191341196</v>
+        <v>0.08352348732924891</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1142872791843733</v>
+        <v>0.06983872947541638</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01674703240663037</v>
+        <v>0.01844985631416785</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1151322568220354</v>
+        <v>0.04483324059852939</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02046764283150147</v>
+        <v>0.01844985631416785</v>
       </c>
       <c r="K135" t="n">
-        <v>0.115839855247274</v>
+        <v>0.04483324059852939</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04579416257969068</v>
+        <v>0.05380061827244745</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1155520644258082</v>
+        <v>0.07152330425173911</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07121380875614153</v>
+        <v>0.08407035468018703</v>
       </c>
       <c r="O135" t="n">
-        <v>0.115943616563857</v>
+        <v>0.07085088497506009</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01850200184067011</v>
+        <v>0.01851192080805954</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1167770033480645</v>
+        <v>0.04547371546422266</v>
       </c>
       <c r="J136" t="n">
-        <v>0.020000293929896</v>
+        <v>0.01851192080805954</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1174947103222351</v>
+        <v>0.04547371546422266</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04519368675869984</v>
+        <v>0.05340450510105149</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1172028082033197</v>
+        <v>0.07254506574104969</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07087678491791671</v>
+        <v>0.08402018292774865</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1175999539433406</v>
+        <v>0.07186304047470381</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01726225908446317</v>
+        <v>0.01857187212477785</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1184217498740936</v>
+        <v>0.04611419032991594</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01973471712609489</v>
+        <v>0.01857187212477785</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1191495653971961</v>
+        <v>0.04611419032991594</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04430083735411522</v>
+        <v>0.05360635801120897</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1188535519808313</v>
+        <v>0.07356682723036023</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06974391572664196</v>
+        <v>0.08447224158237232</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1192562913228243</v>
+        <v>0.07287519597434752</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01703246647243307</v>
+        <v>0.01862970557114254</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1200664964001227</v>
+        <v>0.04675466519560921</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01957604373893925</v>
+        <v>0.01862970557114254</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1208044204721572</v>
+        <v>0.04675466519560921</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04392708261277528</v>
+        <v>0.05320790767721154</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1205042957583428</v>
+        <v>0.07458858871967079</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06903322651022142</v>
+        <v>0.08442580015449647</v>
       </c>
       <c r="O138" t="n">
-        <v>0.120912628702308</v>
+        <v>0.07388735147399124</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01681728633900337</v>
+        <v>0.01868541645397339</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1217112429261517</v>
+        <v>0.04739514006130249</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01942940508727022</v>
+        <v>0.01868541645397339</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1224592755471182</v>
+        <v>0.04739514006130249</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04348389078151824</v>
+        <v>0.05291088477335076</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1221550395358544</v>
+        <v>0.07561035020898137</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0681627425965598</v>
+        <v>0.08408012815455967</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1225689660817916</v>
+        <v>0.07489950697363496</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01562138101859761</v>
+        <v>0.0187390000800902</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1233559894521808</v>
+        <v>0.04803561492699577</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01919993248992893</v>
+        <v>0.0187390000800902</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1241141306220793</v>
+        <v>0.04803561492699577</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04308273010718244</v>
+        <v>0.05261701997391824</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1238057833133659</v>
+        <v>0.07663211169829191</v>
       </c>
       <c r="N140" t="n">
-        <v>0.06715048931356149</v>
+        <v>0.08453449509300043</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1242253034612753</v>
+        <v>0.07591166247327867</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0154494128456393</v>
+        <v>0.01879045175631273</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1250007359782099</v>
+        <v>0.04867608979268905</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01879275726575654</v>
+        <v>0.01879045175631273</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1257689856970404</v>
+        <v>0.04867608979268905</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04243506883660625</v>
+        <v>0.05252804395320559</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1254565270908775</v>
+        <v>0.07765387318760247</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06631449198913081</v>
+        <v>0.08458817048025713</v>
       </c>
       <c r="O141" t="n">
-        <v>0.125881640840759</v>
+        <v>0.07692381797292239</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01630604415455199</v>
+        <v>0.01883976678946078</v>
       </c>
       <c r="G142" t="n">
-        <v>0.126645482504239</v>
+        <v>0.04931656465838232</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01871301073359419</v>
+        <v>0.01883976678946078</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1274238407720014</v>
+        <v>0.04931656465838232</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04185237521662788</v>
+        <v>0.05214568738550435</v>
       </c>
       <c r="M142" t="n">
-        <v>0.127107270868389</v>
+        <v>0.07867563467691303</v>
       </c>
       <c r="N142" t="n">
-        <v>0.06587277595117225</v>
+        <v>0.08484042382676849</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1275379782202427</v>
+        <v>0.0779359734725661</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01519593727975922</v>
+        <v>0.01888694048635407</v>
       </c>
       <c r="G143" t="n">
-        <v>0.128290229030268</v>
+        <v>0.0499570395240756</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01866582421228304</v>
+        <v>0.01888694048635407</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1290786958469625</v>
+        <v>0.0499570395240756</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04164611749408581</v>
+        <v>0.05197168094510612</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1287580146459006</v>
+        <v>0.07969739616622359</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06484336652759026</v>
+        <v>0.08489052464297275</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1291943155997263</v>
+        <v>0.07894812897220982</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01512375455568451</v>
+        <v>0.01893196815381244</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1299349755562971</v>
+        <v>0.05059751438976887</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0183563290206642</v>
+        <v>0.01893196815381244</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1307335509219235</v>
+        <v>0.05059751438976887</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04142776391581826</v>
+        <v>0.05220775530630256</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1304087584234121</v>
+        <v>0.08071915765553414</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06504428904628923</v>
+        <v>0.08463774243930861</v>
       </c>
       <c r="O144" t="n">
-        <v>0.13085065297921</v>
+        <v>0.07996028447185353</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0150941583167514</v>
+        <v>0.01897484509865565</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1315797220823262</v>
+        <v>0.05123798925546216</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01848965647757882</v>
+        <v>0.01897484509865565</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1323884059968846</v>
+        <v>0.05123798925546216</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04160878272866356</v>
+        <v>0.05195564114338513</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1320595022009237</v>
+        <v>0.08174091914484471</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06419356883517369</v>
+        <v>0.08498134672621449</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1325069903586937</v>
+        <v>0.08097243997149724</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01509621491583776</v>
+        <v>0.01901556662770348</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1332244686083552</v>
+        <v>0.05187846412115543</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01837054507908454</v>
+        <v>0.01901556662770348</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1340432610718457</v>
+        <v>0.05187846412115543</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04109136799158911</v>
+        <v>0.0520170691306456</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1337102459784352</v>
+        <v>0.08276268063415528</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0639091764117794</v>
+        <v>0.08462060701412888</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1341633277381773</v>
+        <v>0.08198459547114097</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01610537306291708</v>
+        <v>0.0190541280477757</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1348692151343843</v>
+        <v>0.05251893898684871</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01847528470573525</v>
+        <v>0.0190541280477757</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1356981161468067</v>
+        <v>0.05251893898684871</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04120683211170753</v>
+        <v>0.05149376994237539</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1353609897559468</v>
+        <v>0.08378444212346582</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06432305622738455</v>
+        <v>0.0843547928134904</v>
       </c>
       <c r="O147" t="n">
-        <v>0.135819665117661</v>
+        <v>0.08299675097078468</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01512088086053134</v>
+        <v>0.01909052466569212</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1365139616604134</v>
+        <v>0.05315941385254198</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01838723947686827</v>
+        <v>0.01909052466569212</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1373529712217678</v>
+        <v>0.05315941385254198</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04163821633366274</v>
+        <v>0.0512874742528662</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1370117335334583</v>
+        <v>0.0848062036127764</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06396239744734633</v>
+        <v>0.08458317363473733</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1374760024971447</v>
+        <v>0.0840089064704284</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01714239572204544</v>
+        <v>0.01912475178827245</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1381587081864425</v>
+        <v>0.05379988871823526</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01850603234504434</v>
+        <v>0.01912475178827245</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1390078262967288</v>
+        <v>0.05379988871823526</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04138467797485454</v>
+        <v>0.05159991273640957</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1386624773109698</v>
+        <v>0.08582796510208694</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06422587557713666</v>
+        <v>0.08430501898830839</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1391323398766283</v>
+        <v>0.08502106197007211</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01716957506082428</v>
+        <v>0.01915680472233656</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1398034547124716</v>
+        <v>0.05444036358392854</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01833128626282416</v>
+        <v>0.01915680472233656</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1406626813716899</v>
+        <v>0.05444036358392854</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04134537435268279</v>
+        <v>0.05153281606729712</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1403132210884814</v>
+        <v>0.0868497265913975</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06491216612222689</v>
+        <v>0.08481959838464198</v>
       </c>
       <c r="O150" t="n">
-        <v>0.140788677256112</v>
+        <v>0.08603321746971583</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01620207629023275</v>
+        <v>0.01918667877470414</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1414482012385006</v>
+        <v>0.05508083844962182</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0184626241827685</v>
+        <v>0.01918667877470414</v>
       </c>
       <c r="K151" t="n">
-        <v>0.142317536446651</v>
+        <v>0.05508083844962182</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04141946278454736</v>
+        <v>0.0515879149198204</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1419639648659929</v>
+        <v>0.08787148808070806</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06471994458808877</v>
+        <v>0.08462618133417665</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1424450146355957</v>
+        <v>0.08704537296935955</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01723955682363576</v>
+        <v>0.01921436925219503</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1430929477645297</v>
+        <v>0.05572131331531509</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01849966905743807</v>
+        <v>0.01921436925219503</v>
       </c>
       <c r="K152" t="n">
-        <v>0.143972391521612</v>
+        <v>0.05572131331531509</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04160610058784803</v>
+        <v>0.05116693996827104</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1436147086435045</v>
+        <v>0.08889324957001862</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06434788648019396</v>
+        <v>0.08422228967821421</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1441013520150794</v>
+        <v>0.08805752846900325</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01728167407439821</v>
+        <v>0.01923987146162898</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1447376942905588</v>
+        <v>0.05636178818100836</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0186420438393936</v>
+        <v>0.01923987146162898</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1456272465965731</v>
+        <v>0.05636178818100836</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04190444507998467</v>
+        <v>0.0511684875491856</v>
       </c>
       <c r="M153" t="n">
-        <v>0.145265452421016</v>
+        <v>0.08991501105932918</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06509466730401409</v>
+        <v>0.0846033822886168</v>
       </c>
       <c r="O153" t="n">
-        <v>0.145757689394563</v>
+        <v>0.08906968396864698</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01732808545588498</v>
+        <v>0.01926318070982578</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1463824408165879</v>
+        <v>0.05700226304670165</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01868937148119582</v>
+        <v>0.01926318070982578</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1472821016715341</v>
+        <v>0.05700226304670165</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04201365357835712</v>
+        <v>0.05108324434489167</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1469161961985276</v>
+        <v>0.09093677254863974</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06455896256502069</v>
+        <v>0.08466985982739811</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1474140267740467</v>
+        <v>0.09008183946829069</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01537844838146098</v>
+        <v>0.0192842923036052</v>
       </c>
       <c r="G155" t="n">
-        <v>0.148027187342617</v>
+        <v>0.05764273791239492</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01874127493540546</v>
+        <v>0.0192842923036052</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1489369567464952</v>
+        <v>0.05764273791239492</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04173288340036518</v>
+        <v>0.05120981775168182</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1485669399760391</v>
+        <v>0.0919585340379503</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0648394477686855</v>
+        <v>0.08502236704633848</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1490703641535304</v>
+        <v>0.0910939949679344</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01743242026449111</v>
+        <v>0.01930320154978703</v>
       </c>
       <c r="G156" t="n">
-        <v>0.149671933868646</v>
+        <v>0.05828321277808821</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01879737715458325</v>
+        <v>0.01930320154978703</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1505918118214562</v>
+        <v>0.05828321277808821</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0423612918634087</v>
+        <v>0.05124750008942625</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1502176837535507</v>
+        <v>0.09298029552726085</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06583479842048018</v>
+        <v>0.08456154869721821</v>
       </c>
       <c r="O156" t="n">
-        <v>0.150726701533014</v>
+        <v>0.09210615046757813</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01648965851834028</v>
+        <v>0.01931990375519104</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1513166803946751</v>
+        <v>0.05892368764378147</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01875730109128989</v>
+        <v>0.01931990375519104</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1522466668964173</v>
+        <v>0.05892368764378147</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04219803628488758</v>
+        <v>0.05119558367799507</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1518684275310622</v>
+        <v>0.09400205701657142</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06594369002587624</v>
+        <v>0.08448804953181765</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1523830389124977</v>
+        <v>0.09311830596722184</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01557343244315382</v>
+        <v>0.01933439422663701</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1529614269207042</v>
+        <v>0.05956416250947475</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01892273389988721</v>
+        <v>0.01933439422663701</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1539015219713783</v>
+        <v>0.05956416250947475</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04216151518456424</v>
+        <v>0.05165336083725844</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1535191713085738</v>
+        <v>0.09502381850588197</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06536760632566457</v>
+        <v>0.08470251430191711</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1540393762919814</v>
+        <v>0.09413046146686554</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01571128235265896</v>
+        <v>0.01934666827094473</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1546061734467333</v>
+        <v>0.06020463737516803</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01893555926878274</v>
+        <v>0.01934666827094473</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1555563770463394</v>
+        <v>0.06020463737516803</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04285005256162627</v>
+        <v>0.05132012388708657</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1551699150860853</v>
+        <v>0.09604557999519253</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06574279016073509</v>
+        <v>0.08400558775929695</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1556957136714651</v>
+        <v>0.09514261696650926</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01789314885307057</v>
+        <v>0.01935672119493394</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1562509199727623</v>
+        <v>0.06084511224086131</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01900383327246936</v>
+        <v>0.01935672119493394</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1572112321213004</v>
+        <v>0.06084511224086131</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04305617113212187</v>
+        <v>0.05159516514734952</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1568206588635968</v>
+        <v>0.09706734148450309</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06711633711369358</v>
+        <v>0.08369791465573739</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1573520510509487</v>
+        <v>0.09615477246615299</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01810869008073723</v>
+        <v>0.01936454830542449</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1578956664987914</v>
+        <v>0.06148558710655458</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0193161737587919</v>
+        <v>0.01936454830542449</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1588660871962615</v>
+        <v>0.06148558710655458</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04335443234223907</v>
+        <v>0.05157777693791749</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1584714026411084</v>
+        <v>0.09808910297381365</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06784826389151005</v>
+        <v>0.08418013974301886</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1590083884304324</v>
+        <v>0.09716692796579669</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01634756417200758</v>
+        <v>0.01937014490923607</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1595404130248205</v>
+        <v>0.06212606197224785</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01966119857559518</v>
+        <v>0.01937014490923607</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1605209422712226</v>
+        <v>0.06212606197224785</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04431939763816586</v>
+        <v>0.05166725157866064</v>
       </c>
       <c r="M162" t="n">
-        <v>0.16012214641862</v>
+        <v>0.09911086446312421</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06849858720115476</v>
+        <v>0.08385290777292159</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1606647258099161</v>
+        <v>0.09817908346544041</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01759942926323018</v>
+        <v>0.01937350631318855</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1611851595508496</v>
+        <v>0.06276653683794113</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01982752557072404</v>
+        <v>0.01937350631318855</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1621757973461836</v>
+        <v>0.06276653683794113</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04462562846609028</v>
+        <v>0.05186288138944914</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1617728901961315</v>
+        <v>0.1001326259524348</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06942732374959787</v>
+        <v>0.08371686349722596</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1623210631893997</v>
+        <v>0.09919123896508414</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01685394349075366</v>
+        <v>0.01937462782410163</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1628299060768787</v>
+        <v>0.06340701170363441</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02000377259202333</v>
+        <v>0.01937462782410163</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1638306524211447</v>
+        <v>0.06340701170363441</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0453476862722004</v>
+        <v>0.05206395869015309</v>
       </c>
       <c r="M164" t="n">
-        <v>0.163423633973643</v>
+        <v>0.1011543874417453</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0704944902438096</v>
+        <v>0.08377265166771219</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1639774005688834</v>
+        <v>0.1002033944647279</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01710076499092662</v>
+        <v>0.01937462782410163</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1644746526029077</v>
+        <v>0.06340701170363441</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02027855748733783</v>
+        <v>0.01937462782410163</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1654855074961057</v>
+        <v>0.06340701170363441</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04616013250268428</v>
+        <v>0.05216977580064266</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1650743777511546</v>
+        <v>0.1021761489310559</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07106010339075985</v>
+        <v>0.0831209170361607</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1656337379483671</v>
+        <v>0.1012155499643716</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01832955190009766</v>
+        <v>0.01888254134267684</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1661193991289368</v>
+        <v>0.06340674317517041</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02054049810451245</v>
+        <v>0.01888254134267684</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1671403625710668</v>
+        <v>0.06340674317517041</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04633752860372983</v>
+        <v>0.05227962504078801</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1667251215286661</v>
+        <v>0.1031979104203665</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07198417989741912</v>
+        <v>0.08346230435435176</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1672900753278508</v>
+        <v>0.1022277054640153</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01852996235461537</v>
+        <v>0.018395761632205</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1677641456549659</v>
+        <v>0.06340647464670639</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02077821229139198</v>
+        <v>0.018395761632205</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1687952176460279</v>
+        <v>0.06340647464670639</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04715443602152519</v>
+        <v>0.05249279873045934</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1683758653061777</v>
+        <v>0.104219671909677</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07312673647075735</v>
+        <v>0.08289745837406587</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1689464127073344</v>
+        <v>0.103239860963659</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01770865931300631</v>
+        <v>0.01791506412487608</v>
       </c>
       <c r="G168" t="n">
-        <v>0.169408892180995</v>
+        <v>0.06340620611824237</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02098279392743582</v>
+        <v>0.01791506412487608</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1704500727209889</v>
+        <v>0.06340620611824237</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04760133769555117</v>
+        <v>0.0527085891895267</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1700266090836892</v>
+        <v>0.1052414333989876</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07385273630951705</v>
+        <v>0.08322702384708303</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1706027500868181</v>
+        <v>0.1042520164633027</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01888282649761657</v>
+        <v>0.01744122425294264</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1710536387070241</v>
+        <v>0.06340593758977835</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02117496397649084</v>
+        <v>0.01744122425294264</v>
       </c>
       <c r="K169" t="n">
-        <v>0.17210492779595</v>
+        <v>0.06340593758977835</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0482303627520981</v>
+        <v>0.05262628873786029</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1716773528612008</v>
+        <v>0.1062631948882981</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07402806994029909</v>
+        <v>0.08255164552518374</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1722590874663018</v>
+        <v>0.1052641719629464</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01805283808202073</v>
+        <v>0.0169750174485943</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1726983852330531</v>
+        <v>0.06340566906131433</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02136237881846038</v>
+        <v>0.0169750174485943</v>
       </c>
       <c r="K170" t="n">
-        <v>0.173759782870911</v>
+        <v>0.06340566906131433</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04844892462105022</v>
+        <v>0.05284518969533028</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1733280966387123</v>
+        <v>0.1072849563776087</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07508660656348304</v>
+        <v>0.08247196816014829</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1739154248457854</v>
+        <v>0.1062763274625902</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01921902214126057</v>
+        <v>0.01651721914404183</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1743431317590822</v>
+        <v>0.06340540053285032</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02154539952946859</v>
+        <v>0.01651721914404183</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1754146379458721</v>
+        <v>0.06340540053285032</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04855783028989888</v>
+        <v>0.05266458438180677</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1749788404162239</v>
+        <v>0.1083067178669192</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07582961456946469</v>
+        <v>0.08278863650375695</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1755717622252691</v>
+        <v>0.1072884829622339</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01938170675037788</v>
+        <v>0.01606860477147658</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1759878782851113</v>
+        <v>0.06340513200438629</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02192438718563968</v>
+        <v>0.01606860477147658</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1770694930208332</v>
+        <v>0.06340513200438629</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04895788674613555</v>
+        <v>0.05278376511716001</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1766295841937354</v>
+        <v>0.1093284793562298</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07585836234864013</v>
+        <v>0.08230229530779015</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1772280996047528</v>
+        <v>0.1083006384618776</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01854121998441444</v>
+        <v>0.01562994976314837</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1776326248111404</v>
+        <v>0.06340486347592228</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02209970286309779</v>
+        <v>0.01562994976314837</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1787243480957942</v>
+        <v>0.06340486347592228</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04944990097725174</v>
+        <v>0.05300202422126005</v>
       </c>
       <c r="M173" t="n">
-        <v>0.178280327971247</v>
+        <v>0.1103502408455403</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0771741182914053</v>
+        <v>0.08221358932402811</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1788844369842365</v>
+        <v>0.1093127939615213</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01969788991841207</v>
+        <v>0.01520202955124816</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1792773713371694</v>
+        <v>0.06340459494745826</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0222717076379671</v>
+        <v>0.01520202955124816</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1803792031707553</v>
+        <v>0.06340459494745826</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04983467997073887</v>
+        <v>0.05331865401397712</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1799310717487585</v>
+        <v>0.1113720023348509</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07747815078815606</v>
+        <v>0.08172316330425128</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1805407743637201</v>
+        <v>0.110324949461165</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01985204462741254</v>
+        <v>0.01478561956798666</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1809221178631985</v>
+        <v>0.06340432641899425</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02234076258637182</v>
+        <v>0.01478561956798666</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1820340582457163</v>
+        <v>0.06340432641899425</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05061303071408846</v>
+        <v>0.05313294681518127</v>
       </c>
       <c r="M175" t="n">
-        <v>0.18158181552627</v>
+        <v>0.1123937638241615</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07777172822928857</v>
+        <v>0.08123166200023985</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1821971117432038</v>
+        <v>0.1113371049608087</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01900401218645766</v>
+        <v>0.01438149524555727</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1825668643892276</v>
+        <v>0.06340405789053022</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0226072287844361</v>
+        <v>0.01438149524555727</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1836889133206774</v>
+        <v>0.06340405789053022</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05058576019479188</v>
+        <v>0.05364419494474273</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1832325593037816</v>
+        <v>0.113415525313472</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07835611900519868</v>
+        <v>0.08143973016377415</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1838534491226874</v>
+        <v>0.1123492604604524</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02015412067058926</v>
+        <v>0.01399043201620592</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1842116109152566</v>
+        <v>0.06340378936206621</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02257146730828411</v>
+        <v>0.01399043201620592</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1853437683956385</v>
+        <v>0.06340378936206621</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05135367540034066</v>
+        <v>0.0534516907225317</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1848833030812931</v>
+        <v>0.1144372868027826</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07953259150628245</v>
+        <v>0.08084801254663448</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1855097865021711</v>
+        <v>0.1133614159600961</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01930269815484905</v>
+        <v>0.01361320531212542</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1858563574412857</v>
+        <v>0.06340352083360219</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02273383923404004</v>
+        <v>0.01361320531212542</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1869986234705995</v>
+        <v>0.06340352083360219</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05141758331822621</v>
+        <v>0.05335472646841818</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1865340468588047</v>
+        <v>0.1154590482920931</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07940241412293564</v>
+        <v>0.0811571539006013</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1871661238816548</v>
+        <v>0.1143735714597399</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01945360904986657</v>
+        <v>0.01325059056552651</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1875011039673148</v>
+        <v>0.06340325230513817</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02309504843544962</v>
+        <v>0.01325059056552651</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1886534785455606</v>
+        <v>0.06340325230513817</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05158129801608571</v>
+        <v>0.05395259450227249</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1881847906363162</v>
+        <v>0.1164808097814037</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08046734942622791</v>
+        <v>0.0805677989774547</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1888224612611385</v>
+        <v>0.1153857269593836</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02161331792182385</v>
+        <v>0.01290336320860516</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1891458504933439</v>
+        <v>0.06340298377667415</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02306417396674321</v>
+        <v>0.01290336320860516</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1903083336205216</v>
+        <v>0.06340298377667415</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05246573609601968</v>
+        <v>0.05374458714396466</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1898355344138278</v>
+        <v>0.1175025712707143</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08115758678409002</v>
+        <v>0.08088059252897523</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1904787986406221</v>
+        <v>0.1163978824590273</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02077672349396447</v>
+        <v>0.01257229867360226</v>
       </c>
       <c r="G181" t="n">
-        <v>0.190790597019373</v>
+        <v>0.06340271524821013</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02324052582211467</v>
+        <v>0.01257229867360226</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1919631886954827</v>
+        <v>0.06340271524821013</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05286346470815406</v>
+        <v>0.05392999671336487</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1914862781913393</v>
+        <v>0.1185243327600248</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0818748240449052</v>
+        <v>0.08049617930694314</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1921351360201058</v>
+        <v>0.117410037958671</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02093819001570566</v>
+        <v>0.01225817239271313</v>
       </c>
       <c r="G182" t="n">
-        <v>0.192435343545402</v>
+        <v>0.06340244671974613</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02351790135059082</v>
+        <v>0.01225817239271313</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1936180437704437</v>
+        <v>0.06340244671974613</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05296062123069223</v>
+        <v>0.05400811553034329</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1931370219688509</v>
+        <v>0.1195460942493354</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08179727249876673</v>
+        <v>0.08001520406313861</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1937914733995895</v>
+        <v>0.1184221934583147</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02009208173646462</v>
+        <v>0.01196175979814846</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1940800900714311</v>
+        <v>0.0634021781912821</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02369009790119844</v>
+        <v>0.01196175979814846</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1952728988454048</v>
+        <v>0.0634021781912821</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05314334304183765</v>
+        <v>0.0537782359147701</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1947877657463624</v>
+        <v>0.1205678557386459</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08280314343576795</v>
+        <v>0.08033831154934207</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1954478107790731</v>
+        <v>0.1194343489579585</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02123276290565856</v>
+        <v>0.01168383632210725</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1957248365974602</v>
+        <v>0.06340190966281808</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02395091282296436</v>
+        <v>0.01168383632210725</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1969277539203659</v>
+        <v>0.06340190966281808</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05349776751979377</v>
+        <v>0.0543396501865154</v>
       </c>
       <c r="M184" t="n">
-        <v>0.196438509523874</v>
+        <v>0.1215896172279565</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08337064814600209</v>
+        <v>0.08016614651733395</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1971041481585568</v>
+        <v>0.1204465044576022</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02235459777270469</v>
+        <v>0.01142517739682448</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1973695831234893</v>
+        <v>0.06340164113435406</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02389414346491537</v>
+        <v>0.01142517739682448</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1985826089953269</v>
+        <v>0.06340164113435406</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05421003204276392</v>
+        <v>0.05439165066544935</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1980892533013855</v>
+        <v>0.1226113787172671</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08417799791956249</v>
+        <v>0.07969935371889442</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1987604855380405</v>
+        <v>0.1214586599572459</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02245195058702017</v>
+        <v>0.01118655845449831</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1990143296495183</v>
+        <v>0.06340137260589006</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02421358717607831</v>
+        <v>0.01118655845449831</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2002374640702879</v>
+        <v>0.06340137260589006</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05446627398895154</v>
+        <v>0.05443352967144213</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1997399970788971</v>
+        <v>0.1236331402065776</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08440340404654245</v>
+        <v>0.07973857790580374</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2004168229175242</v>
+        <v>0.1224708154568896</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0205204705463996</v>
+        <v>0.01096875492733949</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2006590761755474</v>
+        <v>0.06340110407742604</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02410304130547997</v>
+        <v>0.01096875492733949</v>
       </c>
       <c r="K187" t="n">
-        <v>0.201892319145249</v>
+        <v>0.06340110407742604</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05465263073656002</v>
+        <v>0.05396457952436387</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2013907408564086</v>
+        <v>0.1246549016958882</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08512507781703532</v>
+        <v>0.07918446382984234</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2020731602970078</v>
+        <v>0.1234829709565333</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02257946713947376</v>
+        <v>0.01077254224755064</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2023038227015765</v>
+        <v>0.06340083554896202</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0243685135248202</v>
+        <v>0.01077254224755064</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2035471742202101</v>
+        <v>0.06340083554896202</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05459757241383845</v>
+        <v>0.05398409254408471</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2030414846339201</v>
+        <v>0.1256766631851987</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08465694695017068</v>
+        <v>0.07913765624279062</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2037294976764915</v>
+        <v>0.124495126456177</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02063716446885049</v>
+        <v>0.01059869584735957</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2039485692276056</v>
+        <v>0.063400567020498</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02443189945719836</v>
+        <v>0.01059869584735957</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2052020292951711</v>
+        <v>0.063400567020498</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05503934340478472</v>
+        <v>0.05399136105047483</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2046922284114317</v>
+        <v>0.1266984246745093</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0846795481114922</v>
+        <v>0.07959638101730748</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2053858350559752</v>
+        <v>0.1255072819558207</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02169354179420501</v>
+        <v>0.01044520321642413</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2055933157536347</v>
+        <v>0.06340029849203399</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02449385193808461</v>
+        <v>0.01044520321642413</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2068568843701322</v>
+        <v>0.06340029849203399</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05517789319317754</v>
+        <v>0.05398061359866818</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2063429721889432</v>
+        <v>0.1277201861638199</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08489712372410874</v>
+        <v>0.07915254645195396</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2070421724354588</v>
+        <v>0.1265194374554645</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02274857837521261</v>
+        <v>0.01029597022957172</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2072380622796637</v>
+        <v>0.06340002996356997</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02445434814088402</v>
+        <v>0.01029597022957172</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2085117394450932</v>
+        <v>0.06340002996356997</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05521317076269278</v>
+        <v>0.05424582592283192</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2079937159664548</v>
+        <v>0.1287419476531304</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08530959360261925</v>
+        <v>0.07910573463162646</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2086985098149425</v>
+        <v>0.1275315929551082</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02280225347154847</v>
+        <v>0.01014862173771473</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2088828088056928</v>
+        <v>0.06339976143510595</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02441336523900169</v>
+        <v>0.01014862173771473</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2101665945200543</v>
+        <v>0.06339976143510595</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05494512509700636</v>
+        <v>0.0538883607836271</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2096444597439663</v>
+        <v>0.129763709142441</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08621687756162294</v>
+        <v>0.07925627983450761</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2103548471944262</v>
+        <v>0.1285437484547519</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02285454634288788</v>
+        <v>0.01000355476742708</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2105275553317219</v>
+        <v>0.06339949290664193</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0244708804058427</v>
+        <v>0.01000355476742708</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2118214495950154</v>
+        <v>0.06339949290664193</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05547370517979427</v>
+        <v>0.05420961148682857</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2112952035214779</v>
+        <v>0.1307854706317515</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08571889541571898</v>
+        <v>0.0790045163387797</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2120111845739099</v>
+        <v>0.1295559039543956</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02090543624890607</v>
+        <v>0.009861166345263357</v>
       </c>
       <c r="G194" t="n">
-        <v>0.212172301857751</v>
+        <v>0.06339922437817791</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02462687081481216</v>
+        <v>0.009861166345263357</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2134763046699764</v>
+        <v>0.06339922437817791</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05559885999473246</v>
+        <v>0.05421097133821118</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2129459472989894</v>
+        <v>0.1318072321210621</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08611556697950662</v>
+        <v>0.07815077842262519</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2136675219533935</v>
+        <v>0.1305680594540393</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02295490244927827</v>
+        <v>0.009721853497784629</v>
       </c>
       <c r="G195" t="n">
-        <v>0.21381704838378</v>
+        <v>0.0633989558497139</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02458131363931514</v>
+        <v>0.009721853497784629</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2151311597449375</v>
+        <v>0.0633989558497139</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05542053852549678</v>
+        <v>0.0538938336435498</v>
       </c>
       <c r="M195" t="n">
-        <v>0.214596691076501</v>
+        <v>0.1328289936103727</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08600681206758481</v>
+        <v>0.07819540036422667</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2153238593328772</v>
+        <v>0.131580214953683</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02300292420367974</v>
+        <v>0.009586013251546135</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2154617949098091</v>
+        <v>0.06339868732124987</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02483418605275679</v>
+        <v>0.009586013251546135</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2167860148198985</v>
+        <v>0.06339868732124987</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05573868975576324</v>
+        <v>0.05345959170861933</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2162474348540125</v>
+        <v>0.1338507550996832</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0864925504945529</v>
+        <v>0.07833871644176638</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2169801967123609</v>
+        <v>0.1325923704533267</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02204948077178571</v>
+        <v>0.009454042633120774</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2171065414358382</v>
+        <v>0.06339841879278586</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02468546522854213</v>
+        <v>0.009454042633120774</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2184408698948596</v>
+        <v>0.06339841879278586</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05605326266920777</v>
+        <v>0.05340963883919456</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2178981786315241</v>
+        <v>0.1348725165889938</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08637270207500991</v>
+        <v>0.07818106093342697</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2186365340918445</v>
+        <v>0.1336045259529705</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02209455141327141</v>
+        <v>0.009326338669063607</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2187512879618673</v>
+        <v>0.06339815026432184</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02493512834007631</v>
+        <v>0.009326338669063607</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2200957249698206</v>
+        <v>0.06339815026432184</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05606420624950631</v>
+        <v>0.05354536834105042</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2195489224090356</v>
+        <v>0.1358942780783043</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08684718662355523</v>
+        <v>0.0783227681173907</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2202928714713282</v>
+        <v>0.1346166814526142</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02313811538781212</v>
+        <v>0.009203298385935706</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2203960344878964</v>
+        <v>0.06339788173585784</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0247831525607644</v>
+        <v>0.009203298385935706</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2217505800447817</v>
+        <v>0.06339788173585784</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05627146948033479</v>
+        <v>0.05306817351996165</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2211996661865471</v>
+        <v>0.1369160395676149</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08671592395478778</v>
+        <v>0.07776417227184018</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2219492088508119</v>
+        <v>0.1356288369522579</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02118015195508304</v>
+        <v>0.009085318810293112</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2220407810139254</v>
+        <v>0.0633976132073938</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0249295150640115</v>
+        <v>0.009085318810293112</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2234054351197428</v>
+        <v>0.0633976132073938</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05637500134536919</v>
+        <v>0.0531794476817033</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2228504099640587</v>
+        <v>0.1379378010569254</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08697883388330679</v>
+        <v>0.07720560767495777</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2236055462302956</v>
+        <v>0.1366409924519016</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02222064037475945</v>
+        <v>0.008972796968707168</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2236855275399545</v>
+        <v>0.0633973446789298</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0248741930232227</v>
+        <v>0.008972796968707168</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2250602901947038</v>
+        <v>0.0633973446789298</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05637475082828539</v>
+        <v>0.05288058413205002</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2245011537415702</v>
+        <v>0.138959562546236</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08743583622371143</v>
+        <v>0.07694740860492594</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2252618836097792</v>
+        <v>0.1376531479515453</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02325955990651656</v>
+        <v>0.008866129887733692</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2253302740659836</v>
+        <v>0.06339707615046578</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02511716361180313</v>
+        <v>0.008866129887733692</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2267151452696649</v>
+        <v>0.06339707615046578</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05627066691275937</v>
+        <v>0.0526729761767768</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2261518975190818</v>
+        <v>0.1399813240355466</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0871868507906009</v>
+        <v>0.0775899093399271</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2269182209892629</v>
+        <v>0.138665303451189</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02329688981002966</v>
+        <v>0.008765714593933743</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2269750205920127</v>
+        <v>0.06339680762200177</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02515840400315781</v>
+        <v>0.008765714593933743</v>
       </c>
       <c r="K203" t="n">
-        <v>0.228370000344626</v>
+        <v>0.06339680762200177</v>
       </c>
       <c r="L203" t="n">
-        <v>0.056162698582467</v>
+        <v>0.05265801712165843</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2278026412965933</v>
+        <v>0.1410030855248571</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08743179739857437</v>
+        <v>0.0772334441581437</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2285745583687466</v>
+        <v>0.1396774589508328</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02333260934497394</v>
+        <v>0.008671948113864451</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2286197671180417</v>
+        <v>0.06339653909353773</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0250978913706919</v>
+        <v>0.008671948113864451</v>
       </c>
       <c r="K204" t="n">
-        <v>0.230024855419587</v>
+        <v>0.06339653909353773</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05655079482108433</v>
+        <v>0.05233710027246985</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2294533850741049</v>
+        <v>0.1420248470141677</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08777059586223085</v>
+        <v>0.07677834733775829</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2302308957482302</v>
+        <v>0.1406896144504765</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02136669777102466</v>
+        <v>0.008585227474095056</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2302645136440708</v>
+        <v>0.06339627056507373</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02503560288781046</v>
+        <v>0.008585227474095056</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2316797104945481</v>
+        <v>0.06339627056507373</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05663490461228721</v>
+        <v>0.05221161893498585</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2311041288516164</v>
+        <v>0.1430466085034782</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08810316599616957</v>
+        <v>0.0772249531569531</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2318872331277139</v>
+        <v>0.1417017699501202</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02339913434785706</v>
+        <v>0.008505949701182396</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2319092601700999</v>
+        <v>0.06339600203660971</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02507151572791861</v>
+        <v>0.008505949701182396</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2333345655695091</v>
+        <v>0.06339600203660971</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05661497693975168</v>
+        <v>0.05198296641498132</v>
       </c>
       <c r="M206" t="n">
-        <v>0.232754872629128</v>
+        <v>0.1440683699927888</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08802942761498989</v>
+        <v>0.07647359589391084</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2335435705071976</v>
+        <v>0.1427139254497639</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02342989833514638</v>
+        <v>0.008434511821687522</v>
       </c>
       <c r="G207" t="n">
-        <v>0.233554006696129</v>
+        <v>0.06339573350814569</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02510560706442144</v>
+        <v>0.008434511821687522</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2349894206444702</v>
+        <v>0.06339573350814569</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05699096078715354</v>
+        <v>0.0517525360182311</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2344056164066395</v>
+        <v>0.1450901314820994</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08854930053329069</v>
+        <v>0.07632460982681372</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2351999078866812</v>
+        <v>0.1437260809494076</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02345896899256788</v>
+        <v>0.00837131086216894</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2351987532221581</v>
+        <v>0.06339546497968167</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02523785407072402</v>
+        <v>0.00837131086216894</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2366442757194312</v>
+        <v>0.06339546497968167</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05686280513816885</v>
+        <v>0.05112172105051005</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2360563601841511</v>
+        <v>0.1461118929714099</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08806270456567133</v>
+        <v>0.07667832923384438</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2368562452661649</v>
+        <v>0.1447382364490513</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02348632557979679</v>
+        <v>0.008316743849193224</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2368434997481871</v>
+        <v>0.06339519645121765</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02536823392023146</v>
+        <v>0.008316743849193224</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2382991307943923</v>
+        <v>0.06339519645121765</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05693045897647347</v>
+        <v>0.05119191481759305</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2377071039616626</v>
+        <v>0.1471336544607205</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08856955952673073</v>
+        <v>0.07583508839318509</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2385125826456486</v>
+        <v>0.145750391948695</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02151194735650835</v>
+        <v>0.008271207809318504</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2384882462742162</v>
+        <v>0.06339492792275364</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02539672378634885</v>
+        <v>0.008271207809318504</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2399539858693533</v>
+        <v>0.06339492792275364</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05669387128574341</v>
+        <v>0.05086451062525493</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2393578477391742</v>
+        <v>0.148155415950031</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08816978523106833</v>
+        <v>0.07589522158301837</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2401689200251323</v>
+        <v>0.1467625474483387</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02253581358237781</v>
+        <v>0.00823509976910583</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2401329928002453</v>
+        <v>0.06339465939428962</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02532330084248131</v>
+        <v>0.00823509976910583</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2416088409443144</v>
+        <v>0.06339465939428962</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05725299104965453</v>
+        <v>0.05084090177927059</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2410085915166857</v>
+        <v>0.1491771774393416</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08886330149328314</v>
+        <v>0.07555906308152677</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2418252574046159</v>
+        <v>0.1477747029479825</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0225579035170804</v>
+        <v>0.008208816755115367</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2417777393262744</v>
+        <v>0.0633943908658256</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02534794226203389</v>
+        <v>0.008208816755115367</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2432636960192754</v>
+        <v>0.0633943908658256</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05710776725188285</v>
+        <v>0.05062248158541482</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2426593352941973</v>
+        <v>0.1501989389286521</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08905002812797441</v>
+        <v>0.07572694716689254</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2434815947840996</v>
+        <v>0.1487868584476262</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02357819642029139</v>
+        <v>0.008192755793910461</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2434224858523034</v>
+        <v>0.06339412233736158</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02537062521841172</v>
+        <v>0.008192755793910461</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2449185510942365</v>
+        <v>0.06339412233736158</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05715814887610426</v>
+        <v>0.04991064334946255</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2443100790717088</v>
+        <v>0.1512207004179627</v>
       </c>
       <c r="N213" t="n">
-        <v>0.0887298849497411</v>
+        <v>0.07609920811729837</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2451379321635833</v>
+        <v>0.1497990139472699</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.023596671551686</v>
+        <v>0.008187313912050805</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2450672323783325</v>
+        <v>0.06339385380889757</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02549132688501986</v>
+        <v>0.008187313912050805</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2465734061691976</v>
+        <v>0.06339385380889757</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05700408490599473</v>
+        <v>0.05020678037718856</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2459608228492203</v>
+        <v>0.1522424619072733</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08890279177318255</v>
+        <v>0.07577618021092647</v>
       </c>
       <c r="O214" t="n">
-        <v>0.246794269543067</v>
+        <v>0.1508111694469136</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02261330817093945</v>
+        <v>0.008187313912050805</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2467119789043616</v>
+        <v>0.06339385380889757</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02541002443526345</v>
+        <v>0.008187313912050805</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2482282612441586</v>
+        <v>0.06339385380889757</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05714552432523021</v>
+        <v>0.04981228597436782</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2476115666267319</v>
+        <v>0.1532642233965838</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08906866841289784</v>
+        <v>0.07565819772595944</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2484506069225506</v>
+        <v>0.1518233249465573</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02162808553772703</v>
+        <v>0.007887720506219179</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2483567254303907</v>
+        <v>0.06336571120459536</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02552669504254754</v>
+        <v>0.007887720506219179</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2498831163191197</v>
+        <v>0.06336571120459536</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05718241611748656</v>
+        <v>0.04982855344677511</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2492623104042434</v>
+        <v>0.1542859848858944</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08902743468348628</v>
+        <v>0.07524559494057959</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2501069443020343</v>
+        <v>0.152835480446201</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02164098291172394</v>
+        <v>0.007593133972723619</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2500014719564198</v>
+        <v>0.06333756860029315</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02534131588027726</v>
+        <v>0.007593133972723619</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2515379713940807</v>
+        <v>0.06333756860029315</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05701470926643978</v>
+        <v>0.04945697610018526</v>
       </c>
       <c r="M217" t="n">
-        <v>0.250913054181755</v>
+        <v>0.1553077463752049</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08927901039954683</v>
+        <v>0.07553870613296948</v>
       </c>
       <c r="O217" t="n">
-        <v>0.251763281681518</v>
+        <v>0.1538476359458448</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02265197955260547</v>
+        <v>0.007304204512873981</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2516462184824488</v>
+        <v>0.06330942599599095</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02555386412185769</v>
+        <v>0.007304204512873981</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2531928264690418</v>
+        <v>0.06330942599599095</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05714235275576582</v>
+        <v>0.04929894724037323</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2525637979592665</v>
+        <v>0.1563295078645155</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08872331537567874</v>
+        <v>0.07483786558131156</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2534196190610016</v>
+        <v>0.1548597914454885</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02166105472004681</v>
+        <v>0.00702158232797976</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2532909650084779</v>
+        <v>0.06328128339168873</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02556431694069394</v>
+        <v>0.00702158232797976</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2548476815440028</v>
+        <v>0.06328128339168873</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05756529556914061</v>
+        <v>0.0488558601731138</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2542145417367781</v>
+        <v>0.1573512693538261</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08956026942648115</v>
+        <v>0.07484340756378816</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2550759564404853</v>
+        <v>0.1558719469451322</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02366818767372324</v>
+        <v>0.006745917619350804</v>
       </c>
       <c r="G220" t="n">
-        <v>0.254935711534507</v>
+        <v>0.06325314078738652</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02557265151019105</v>
+        <v>0.006745917619350804</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2565025366189639</v>
+        <v>0.06325314078738652</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05708348669024005</v>
+        <v>0.04892910820418186</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2558652855142896</v>
+        <v>0.1583730308431366</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08928979236655327</v>
+        <v>0.07525566635858189</v>
       </c>
       <c r="O220" t="n">
-        <v>0.256732293819969</v>
+        <v>0.1568841024447759</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02267335767330998</v>
+        <v>0.006477860588296865</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2565804580605361</v>
+        <v>0.0632249981830843</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02547884500375417</v>
+        <v>0.006477860588296865</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2581573916939249</v>
+        <v>0.0632249981830843</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05739687510274016</v>
+        <v>0.04912008463935225</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2575160292918012</v>
+        <v>0.1593947923324472</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08871180401049422</v>
+        <v>0.07507497624387505</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2583886311994526</v>
+        <v>0.1578962579444196</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0226765439784823</v>
+        <v>0.006218061436127777</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2582252045865651</v>
+        <v>0.0631968555787821</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02538287459478839</v>
+        <v>0.006218061436127777</v>
       </c>
       <c r="K222" t="n">
-        <v>0.259812246768886</v>
+        <v>0.0631968555787821</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0572054097903168</v>
+        <v>0.04893018278439984</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2591667730693127</v>
+        <v>0.1604165538217577</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08882622417290315</v>
+        <v>0.07490164559979962</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2600449685789363</v>
+        <v>0.1589084134440633</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0226777258489154</v>
+        <v>0.00596717036415307</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2598699511125943</v>
+        <v>0.06316871297447989</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02548471745669877</v>
+        <v>0.00596717036415307</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2614671018438471</v>
+        <v>0.06316871297447989</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05730903973664594</v>
+        <v>0.04875588313296933</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2608175168468242</v>
+        <v>0.1614383153110683</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0888329726683792</v>
+        <v>0.07483158534914552</v>
       </c>
       <c r="O223" t="n">
-        <v>0.26170130595842</v>
+        <v>0.1599205689437071</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02365172255337229</v>
+        <v>0.005725837573682578</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2615146976386233</v>
+        <v>0.06314057037017767</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02536968501382895</v>
+        <v>0.005725837573682578</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2631219569188081</v>
+        <v>0.06314057037017767</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05746423646861448</v>
+        <v>0.04848305999516758</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2624682606243358</v>
+        <v>0.1624600768003789</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08928591930912916</v>
+        <v>0.07426171030759576</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2633576433379037</v>
+        <v>0.1609327244433508</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0225677180308427</v>
+        <v>0.005494713266026047</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2631594441646524</v>
+        <v>0.06311242776587546</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02529308211910956</v>
+        <v>0.005494713266026047</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2647768119937692</v>
+        <v>0.06311242776587546</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05707861447495516</v>
+        <v>0.04841077846233793</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2641190044018473</v>
+        <v>0.1634818382896894</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08872500352865753</v>
+        <v>0.07459209470054462</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2650139807173874</v>
+        <v>0.1619448799429945</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02343195151033523</v>
+        <v>0.005274447642493296</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2648041906906815</v>
+        <v>0.06308428516157326</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02535816323128769</v>
+        <v>0.005274447642493296</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2664316670687303</v>
+        <v>0.06308428516157326</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05656387927468381</v>
+        <v>0.04863910215790584</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2657697481793589</v>
+        <v>0.164503599779</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08805854584259326</v>
+        <v>0.07492281275338603</v>
       </c>
       <c r="O226" t="n">
-        <v>0.266670318096871</v>
+        <v>0.1629570354426382</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02225088865084413</v>
+        <v>0.005065690904393884</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2664489372167105</v>
+        <v>0.06305614255727104</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02507204439027032</v>
+        <v>0.005065690904393884</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2680865221436913</v>
+        <v>0.06305614255727104</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05643593486922607</v>
+        <v>0.04826809470529672</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2674204919568705</v>
+        <v>0.1655253612683106</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08731154351902193</v>
+        <v>0.07415393869151421</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2683266554763546</v>
+        <v>0.1639691909422819</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02303099511136366</v>
+        <v>0.004869093253037644</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2680936837427396</v>
+        <v>0.06302799995296883</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02484184163596447</v>
+        <v>0.004869093253037644</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2697413772186524</v>
+        <v>0.06302799995296883</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05601068526000758</v>
+        <v>0.048597819727936</v>
       </c>
       <c r="M228" t="n">
-        <v>0.269071235734382</v>
+        <v>0.1665471227576211</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08680899382602919</v>
+        <v>0.07458554674032308</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2699829928558383</v>
+        <v>0.1649813464419256</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02177873655088807</v>
+        <v>0.004685304889734301</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2697384302687686</v>
+        <v>0.06299985734866662</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02467467100827713</v>
+        <v>0.004685304889734301</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2713962322936134</v>
+        <v>0.06299985734866662</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05550403444845389</v>
+        <v>0.04822834084924912</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2707219795118935</v>
+        <v>0.1675688842469316</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08567589403170045</v>
+        <v>0.07421771112520675</v>
       </c>
       <c r="O229" t="n">
-        <v>0.271639330235322</v>
+        <v>0.1659935019415694</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02250057862841161</v>
+        <v>0.004514976015793676</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2713831767947978</v>
+        <v>0.06297171474436442</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02417764854711529</v>
+        <v>0.004514976015793676</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2730510873685745</v>
+        <v>0.06297171474436442</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05473188643599067</v>
+        <v>0.04845972169266141</v>
       </c>
       <c r="M230" t="n">
-        <v>0.272372723289405</v>
+        <v>0.1685906457362422</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08463724140412143</v>
+        <v>0.0744505060715594</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2732956676148057</v>
+        <v>0.1670056574412131</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02220298700292857</v>
+        <v>0.00435875683252536</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2730279233208268</v>
+        <v>0.0629435721400622</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02405789029238597</v>
+        <v>0.00435875683252536</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2747059424435355</v>
+        <v>0.0629435721400622</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05371014522404338</v>
+        <v>0.04809202588159836</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2740234670669166</v>
+        <v>0.1696124072255528</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08381803321137765</v>
+        <v>0.07438400580477494</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2749520049942893</v>
+        <v>0.1680178129408568</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02089242733343317</v>
+        <v>0.004217297541239153</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2746726698468559</v>
+        <v>0.06291542953575999</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02352251228399612</v>
+        <v>0.004217297541239153</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2763607975184966</v>
+        <v>0.06291542953575999</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05335471481403781</v>
+        <v>0.04812531703948539</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2756742108444281</v>
+        <v>0.1706341687148633</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08244326672155472</v>
+        <v>0.07381828455024758</v>
       </c>
       <c r="O232" t="n">
-        <v>0.276608342373773</v>
+        <v>0.1690299684405005</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02157536527891971</v>
+        <v>0.004091248343244799</v>
       </c>
       <c r="G233" t="n">
-        <v>0.276317416372885</v>
+        <v>0.06288728693145777</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02317863056185277</v>
+        <v>0.004091248343244799</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2780156525934577</v>
+        <v>0.06288728693145777</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05218149920739942</v>
+        <v>0.04825965878974792</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2773249546219397</v>
+        <v>0.1716559302041739</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08113793920273815</v>
+        <v>0.07385341653337124</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2782646797532567</v>
+        <v>0.1700421239401442</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01925826649838239</v>
+        <v>0.003981259439852079</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2779621628989141</v>
+        <v>0.06285914432715557</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02283336116586292</v>
+        <v>0.003981259439852079</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2796705076684187</v>
+        <v>0.06285914432715557</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05170640240555396</v>
+        <v>0.04789511475581129</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2789756983994512</v>
+        <v>0.1726776916934845</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08062704792301362</v>
+        <v>0.07408947597954024</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2799210171327404</v>
+        <v>0.1710542794397879</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02094759665081552</v>
+        <v>0.003887981032370633</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2796069094249432</v>
+        <v>0.06283100172285336</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02269382013593357</v>
+        <v>0.003887981032370633</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2813253627433798</v>
+        <v>0.06283100172285336</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0507453284099269</v>
+        <v>0.04783174856110101</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2806264421769628</v>
+        <v>0.173699453182795</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07943559015046658</v>
+        <v>0.07392653711414843</v>
       </c>
       <c r="O235" t="n">
-        <v>0.281577354512224</v>
+        <v>0.1720664349394317</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02064982139521334</v>
+        <v>0.00381206332211026</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2812516559509722</v>
+        <v>0.06280285911855114</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02216712351197168</v>
+        <v>0.00381206332211026</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2829802178183408</v>
+        <v>0.06280285911855114</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04981418122194387</v>
+        <v>0.04766962382904244</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2822771859544744</v>
+        <v>0.1747212146721056</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07768856315318268</v>
+        <v>0.07366467416258993</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2832336918917077</v>
+        <v>0.1730785904390754</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0193714063905701</v>
+        <v>0.003754156510380677</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2828964024770013</v>
+        <v>0.06277471651424893</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02186038733388427</v>
+        <v>0.003754156510380677</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2846350728933019</v>
+        <v>0.06277471651424893</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04932886484303056</v>
+        <v>0.04790880418306107</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2839279297319859</v>
+        <v>0.1757429761614161</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07701096419924741</v>
+        <v>0.07330396135025885</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2848900292711914</v>
+        <v>0.1740907459387191</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01911665499747465</v>
+        <v>0.00371491079849165</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2845411490030304</v>
+        <v>0.06274657390994673</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02167998253263356</v>
+        <v>0.00371491079849165</v>
       </c>
       <c r="K238" t="n">
-        <v>0.286289927968263</v>
+        <v>0.06274657390994673</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0485023931234797</v>
+        <v>0.04764935324658226</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2855786735094974</v>
+        <v>0.1767647376507267</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07602573365612258</v>
+        <v>0.07384447290254925</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2865463666506751</v>
+        <v>0.1751029014383628</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01786681817779132</v>
+        <v>0.003694976387752867</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2861858955290594</v>
+        <v>0.06271843130564451</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02130852468443879</v>
+        <v>0.003694976387752867</v>
       </c>
       <c r="K239" t="n">
-        <v>0.287944783043224</v>
+        <v>0.06271843130564451</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04799252525237774</v>
+        <v>0.04739133464303141</v>
       </c>
       <c r="M239" t="n">
-        <v>0.287229417287009</v>
+        <v>0.1777864991400372</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07467394359987178</v>
+        <v>0.07368628304485519</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2882027040301587</v>
+        <v>0.1761150569380065</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01761602701338482</v>
+        <v>0.003692465222180828</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2878306420550885</v>
+        <v>0.0626902887013423</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02113602548429413</v>
+        <v>0.003692465222180828</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2895996381181851</v>
+        <v>0.0626902887013423</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04768032186813018</v>
+        <v>0.04773481199583401</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2888801610645205</v>
+        <v>0.1788082606293478</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07351850007482535</v>
+        <v>0.0737294660025708</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2898590414096424</v>
+        <v>0.1771272124376503</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0173642661868692</v>
+        <v>0.003692754185055019</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2894753885811176</v>
+        <v>0.06266214609704009</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02086246807403714</v>
+        <v>0.003692754185055019</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2912544931931461</v>
+        <v>0.06266214609704009</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04686574529356785</v>
+        <v>0.0476798489284154</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2905309048420321</v>
+        <v>0.1798300221186584</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07285934386152843</v>
+        <v>0.07327409600109014</v>
       </c>
       <c r="O241" t="n">
-        <v>0.291515378789126</v>
+        <v>0.178139367937294</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01911152038085854</v>
+        <v>0.003693843352811609</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2911201351071467</v>
+        <v>0.06263400349273789</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02058783559550541</v>
+        <v>0.003693843352811609</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2929093482681072</v>
+        <v>0.06263400349273789</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04634875785152157</v>
+        <v>0.04742650906420107</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2921816486195437</v>
+        <v>0.1808517836079689</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0724964157405259</v>
+        <v>0.07352024726580719</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2931717161686097</v>
+        <v>0.1791515234369377</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01785777427796693</v>
+        <v>0.003696266195372166</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2927648816331758</v>
+        <v>0.06260586088843567</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02031211119053653</v>
+        <v>0.003696266195372166</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2945642033430682</v>
+        <v>0.06260586088843567</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04582932186482228</v>
+        <v>0.04747485602661636</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2938323923970552</v>
+        <v>0.1818735450972795</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0715296564923627</v>
+        <v>0.07346799402211601</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2948280535480934</v>
+        <v>0.1801636789365814</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01760301256080842</v>
+        <v>0.003700556182658292</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2944096281592049</v>
+        <v>0.06257771828413346</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02013527800096804</v>
+        <v>0.003700556182658292</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2962190584180293</v>
+        <v>0.06257771828413346</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04480739965630068</v>
+        <v>0.04732495343908674</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2954831361745667</v>
+        <v>0.18289530658659</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07005900689758371</v>
+        <v>0.07311741049541093</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2964843909275771</v>
+        <v>0.1811758344362251</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01634721991199712</v>
+        <v>0.003707246784591577</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2960543746852339</v>
+        <v>0.06254957567983124</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01965731916863753</v>
+        <v>0.003707246784591577</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2978739134929904</v>
+        <v>0.06254957567983124</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04418295354878771</v>
+        <v>0.04747686492503767</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2971338799520782</v>
+        <v>0.1839170680759006</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06878440773673383</v>
+        <v>0.0731685709110857</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2981407283070607</v>
+        <v>0.1821879899358688</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01709038101414705</v>
+        <v>0.003716871471093598</v>
       </c>
       <c r="G246" t="n">
-        <v>0.297699121211263</v>
+        <v>0.06252143307552904</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01947821783538257</v>
+        <v>0.003716871471093598</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2995287685679514</v>
+        <v>0.06252143307552904</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04355594586511424</v>
+        <v>0.04743065410789446</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2987846237295898</v>
+        <v>0.1849388295652112</v>
       </c>
       <c r="N246" t="n">
-        <v>0.067805799790358</v>
+        <v>0.07362154949453453</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2997970656865444</v>
+        <v>0.1832001454355125</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01583248054987232</v>
+        <v>0.00372996371208599</v>
       </c>
       <c r="G247" t="n">
-        <v>0.299343867737292</v>
+        <v>0.06249329047122683</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01909795714304074</v>
+        <v>0.00372996371208599</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3011836236429125</v>
+        <v>0.06249329047122683</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04322633892811106</v>
+        <v>0.04728638461108259</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3004353675071013</v>
+        <v>0.1859605910545217</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06752312383900128</v>
+        <v>0.07367642047115153</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3014534030660281</v>
+        <v>0.1842123009351563</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.016573503201787</v>
+        <v>0.003747056977490296</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3009886142633212</v>
+        <v>0.06246514786692461</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01901652023344958</v>
+        <v>0.003747056977490296</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3028384787178736</v>
+        <v>0.06246514786692461</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04249409506060906</v>
+        <v>0.04704412005802744</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3020861112846129</v>
+        <v>0.1869823525438322</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06603632066320836</v>
+        <v>0.07293325806633066</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3031097404455118</v>
+        <v>0.1852244564348</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01531343365250516</v>
+        <v>0.003768684737228127</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3026333607893502</v>
+        <v>0.0624370052626224</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0186338902484467</v>
+        <v>0.003768684737228127</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3044933337928346</v>
+        <v>0.0624370052626224</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04215917658543908</v>
+        <v>0.04720392407215451</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3037368550621244</v>
+        <v>0.1880041140331428</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06544533104352424</v>
+        <v>0.07299213650546615</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3047660778249954</v>
+        <v>0.1862366119344437</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01505225658464086</v>
+        <v>0.003795380461221055</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3042781073153793</v>
+        <v>0.0624088626583202</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01845005032986968</v>
+        <v>0.003795380461221055</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3061481888677957</v>
+        <v>0.0624088626583202</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0413215458254319</v>
+        <v>0.04686586027688919</v>
       </c>
       <c r="M250" t="n">
-        <v>0.305387598839636</v>
+        <v>0.1890258755224534</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06435009576049378</v>
+        <v>0.07325313001395201</v>
       </c>
       <c r="O250" t="n">
-        <v>0.306422415204479</v>
+        <v>0.1872487674340874</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0157899566808082</v>
+        <v>0.0038276776193907</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3059228538414084</v>
+        <v>0.06238072005401799</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01806498361955606</v>
+        <v>0.0038276776193907</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3078030439427566</v>
+        <v>0.06238072005401799</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04088116510341844</v>
+        <v>0.04722999229565686</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3070383426171475</v>
+        <v>0.1900476370117639</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06295055559466217</v>
+        <v>0.07281631281718226</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3080787525839628</v>
+        <v>0.1882609229337311</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01452651862362123</v>
+        <v>0.003866109681658646</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3075676003674375</v>
+        <v>0.06235257744971577</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01777867325934341</v>
+        <v>0.003866109681658646</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3094578990177178</v>
+        <v>0.06235257744971577</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03983799674222954</v>
+        <v>0.04699638375188295</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3086890863946591</v>
+        <v>0.1910693985010745</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06234665132657402</v>
+        <v>0.07348175914055094</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3097350899634465</v>
+        <v>0.1892730784333748</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01626192709569405</v>
+        <v>0.003911210117946477</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3092123468934665</v>
+        <v>0.06232443484541356</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01759110239106933</v>
+        <v>0.003911210117946477</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3111127540926788</v>
+        <v>0.06232443484541356</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03909200306469604</v>
+        <v>0.04686509826899285</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3103398301721706</v>
+        <v>0.1920911599903851</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06103832373677442</v>
+        <v>0.07304954320945217</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3113914273429301</v>
+        <v>0.1902852339330185</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0139961667796407</v>
+        <v>0.003963512398175766</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3108570934194956</v>
+        <v>0.06229629224111136</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01710225415657137</v>
+        <v>0.003963512398175766</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3127676091676398</v>
+        <v>0.06229629224111136</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03874314639364876</v>
+        <v>0.04673619947041208</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3119905739496822</v>
+        <v>0.1931129214796956</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06022551360580813</v>
+        <v>0.07341973924928014</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3130477647224138</v>
+        <v>0.1912973894326623</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01372922235807526</v>
+        <v>0.004023549992268144</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3125018399455247</v>
+        <v>0.06226814963680914</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01681211169768714</v>
+        <v>0.004023549992268144</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3144224642426009</v>
+        <v>0.06226814963680914</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03789138905191858</v>
+        <v>0.04670975097956589</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3136413177271937</v>
+        <v>0.1941346829690062</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0595081617142203</v>
+        <v>0.07309242148542877</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3147041021018974</v>
+        <v>0.192309544932306</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01546107851361184</v>
+        <v>0.004091856370145169</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3141465864715538</v>
+        <v>0.06224000703250693</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01672065815625415</v>
+        <v>0.004091856370145169</v>
       </c>
       <c r="K256" t="n">
-        <v>0.316077319317562</v>
+        <v>0.06224000703250693</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03723669336233634</v>
+        <v>0.04718581641987987</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3152920615047052</v>
+        <v>0.1951564444583168</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05838620884255569</v>
+        <v>0.07266766414329223</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3163604394813811</v>
+        <v>0.1933217004319497</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01419171992886447</v>
+        <v>0.004168965001728461</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3157913329975828</v>
+        <v>0.06221186442820472</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01632787667411003</v>
+        <v>0.004168965001728461</v>
       </c>
       <c r="K257" t="n">
-        <v>0.317732174392523</v>
+        <v>0.06221186442820472</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03667902164773287</v>
+        <v>0.04676445941477936</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3169428052822168</v>
+        <v>0.1961782059476273</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05745959577135923</v>
+        <v>0.07324554144826451</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3180167768608648</v>
+        <v>0.1943338559315934</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01492113128644725</v>
+        <v>0.004255409356939549</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3174360795236119</v>
+        <v>0.06218372182390251</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01603375039309234</v>
+        <v>0.004255409356939549</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3193870294674841</v>
+        <v>0.06218372182390251</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03621833623093906</v>
+        <v>0.04684574358768981</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3185935490597284</v>
+        <v>0.1971999674369379</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05612826328117582</v>
+        <v>0.07322612762573971</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3196731142403484</v>
+        <v>0.1953460114312371</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01264929726897423</v>
+        <v>0.004351722905700101</v>
       </c>
       <c r="G259" t="n">
-        <v>0.319080826049641</v>
+        <v>0.0621555792196003</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01583826245503863</v>
+        <v>0.004351722905700101</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3210418845424452</v>
+        <v>0.0621555792196003</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03525459943478565</v>
+        <v>0.04692973256203656</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3202442928372399</v>
+        <v>0.1982217289262484</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05499215215255054</v>
+        <v>0.07250949690111191</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3213294516198322</v>
+        <v>0.1963581669308808</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0123762025590595</v>
+        <v>0.00445843911793168</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3207255725756701</v>
+        <v>0.06212743661529809</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01544139600178649</v>
+        <v>0.00445843911793168</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3226967396174062</v>
+        <v>0.06212743661529809</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03498777358210364</v>
+        <v>0.04671648996124511</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3218950366147514</v>
+        <v>0.199243490415559</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05375120316602811</v>
+        <v>0.0732957234997752</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3229857889993158</v>
+        <v>0.1973703224305245</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01210183183931713</v>
+        <v>0.004576091463555879</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3223703191016992</v>
+        <v>0.06209929401099588</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01504313417517351</v>
+        <v>0.004576091463555879</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3243515946923672</v>
+        <v>0.06209929401099588</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03381782099572378</v>
+        <v>0.04700607940874088</v>
       </c>
       <c r="M261" t="n">
-        <v>0.323545780392263</v>
+        <v>0.2002652519048695</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05320535710215357</v>
+        <v>0.07298488164712358</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3246421263787995</v>
+        <v>0.1983824779301683</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01182616979236121</v>
+        <v>0.004705213412494226</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3240150656277282</v>
+        <v>0.06207115140669367</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01494346011703724</v>
+        <v>0.004705213412494226</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3260064497673283</v>
+        <v>0.06207115140669367</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03354470399847695</v>
+        <v>0.04659856452794919</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3251965241697745</v>
+        <v>0.2012870133941801</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05155455474147175</v>
+        <v>0.07287704556855129</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3262984637582831</v>
+        <v>0.199394633429812</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01354920110080577</v>
+        <v>0.004846338434668418</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3256598121537573</v>
+        <v>0.06204300880239146</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01464235696921521</v>
+        <v>0.004846338434668418</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3276613048422894</v>
+        <v>0.06204300880239146</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03276838491319395</v>
+        <v>0.04679400894229555</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3268472679472861</v>
+        <v>0.2023087748834907</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0505987368645277</v>
+        <v>0.07297228948945217</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3279548011377668</v>
+        <v>0.2004067889294557</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01127091044726494</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3273045586797864</v>
+        <v>0.06201486619808925</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01423980787354508</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3293161599172504</v>
+        <v>0.06201486619808925</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03188882606270566</v>
+        <v>0.04699247627520536</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3284980117247976</v>
+        <v>0.2033305363728012</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05023784425186623</v>
+        <v>0.0731706876352205</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3296111385172504</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.2014189444290994</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0620017083033524</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.0620017083033524</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005327949284178284</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06200197683181641</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.005327949284178284</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.06200197683181641</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005652569721250576</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06200224536028043</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.005652569721250576</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.06200224536028043</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005973749073856158</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06200251388874446</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.005973749073856158</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.06200251388874446</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006291375104592455</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06200278241720847</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.006291375104592455</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.06200278241720847</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006605335576098895</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06200305094567248</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.006605335576098895</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.06200305094567248</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006915518251000861</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0620033194741365</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.006915518251000861</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.0620033194741365</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007221810891936992</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06200358800260052</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.007221810891936992</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.06200358800260052</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007524101261506003</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06200385653106454</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.007524101261506003</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.06200385653106454</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.00782227712234667</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06200412505952855</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.00782227712234667</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.06200412505952855</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008116226237084405</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06200439358799257</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.008116226237084405</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.06200439358799257</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008405836368357074</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06200466211645659</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.008405836368357074</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.06200466211645659</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008690995278764858</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06200493064492061</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.008690995278764858</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.06200493064492061</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008971590730945833</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06200519917338462</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.008971590730945833</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.06200519917338462</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009247510487525382</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06200546770184864</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.009247510487525382</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.06200546770184864</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009518642311140586</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06200573623031266</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.009518642311140586</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.06200573623031266</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009784873964393211</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06200600475877668</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.009784873964393211</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.06200600475877668</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01004609320992056</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06200627328724069</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.01004609320992056</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.06200627328724069</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01030218781034802</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0620065418157047</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.01030218781034802</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.0620065418157047</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01055304552831174</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06200681034416873</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.01055304552831174</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.06200681034416873</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.0107985541264153</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06200707887263274</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.0107985541264153</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.06200707887263274</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01103860136729509</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06200734740109676</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.01103860136729509</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.06200734740109676</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0112730750135765</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06200761592956078</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.0112730750135765</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.06200761592956078</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01150186282789475</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0620078844580248</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.01150186282789475</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.0620078844580248</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01172485257285529</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06200815298648882</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.01172485257285529</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.06200815298648882</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01194239031370668</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06200842151495283</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.01194239031370668</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.06200842151495283</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01215711362875243</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06200869004341684</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.01215711362875243</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.06200869004341684</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01236936858324011</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06200895857188087</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.01236936858324011</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.06200895857188087</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01257904293977664</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06200922710034489</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.01257904293977664</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.06200922710034489</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01278602446099667</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.0620094956288089</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.01278602446099667</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.0620094956288089</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01299020090952559</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06200976415727291</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.01299020090952559</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.06200976415727291</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0131914600479975</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06201003268573694</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.0131914600479975</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.06201003268573694</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01338968963902023</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06201030121420095</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.01338968963902023</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.06201030121420095</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01358477744522798</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06201056974266497</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.01358477744522798</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.06201056974266497</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01377661122924614</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06201083827112899</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.01377661122924614</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.06201083827112899</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01396507875370825</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06201110679959301</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.01396507875370825</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.06201110679959301</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01415006778122325</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06201137532805703</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.01415006778122325</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.06201137532805703</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01433146607442481</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06201164385652104</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.01433146607442481</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.06201164385652104</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01450916139593831</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06201191238498505</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.01450916139593831</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.06201191238498505</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01468304150839662</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06201218091344908</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.01468304150839662</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.06201218091344908</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01485299417440996</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06201244944191309</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.01485299417440996</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.06201244944191309</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0150189071566114</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06201271797037711</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.0150189071566114</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.06201271797037711</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01518066821762631</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06201298649884112</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.01518066821762631</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.06201298649884112</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01533816512008681</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06201325502730515</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.01533816512008681</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.06201325502730515</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.0154912856266046</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06201352355576916</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.0154912856266046</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.06201352355576916</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01563991749981199</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06201379208423317</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.01563991749981199</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.06201379208423317</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01578394850233437</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06201406061269719</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.01578394850233437</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.06201406061269719</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01592326639680309</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06201432914116121</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.01592326639680309</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.06201432914116121</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01605775894583138</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06201459766962523</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.01605775894583138</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.06201459766962523</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01618731391205081</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06201486619808925</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.01618731391205081</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.06201486619808925</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01618731391205081</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0620017083033524</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.01618731391205081</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.0620017083033524</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01634359301134704</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06203038796458264</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.01634359301134704</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.06203038796458264</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01649849106061537</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06205906762581288</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.01649849106061537</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.06205906762581288</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01665156185518018</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06208774728704314</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.01665156185518018</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.06208774728704314</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01680235919036565</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06211642694827338</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.01680235919036565</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.06211642694827338</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01695043686149616</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06214510660950362</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.01695043686149616</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.06214510660950362</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01709534866389607</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06217378627073387</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.01709534866389607</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.06217378627073387</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01723664839288972</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06220246593196412</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.01723664839288972</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.06220246593196412</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01737388984380129</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06223114559319436</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.01737388984380129</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.06223114559319436</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01750662681195522</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0622598252544246</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.01750662681195522</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.0622598252544246</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01763441309267579</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06228850491565485</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.01763441309267579</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.06228850491565485</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01775680248128737</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0623171845768851</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.01775680248128737</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.0623171845768851</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0178733487731142</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06234586423811534</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.0178733487731142</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.06234586423811534</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0179836057634806</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06237454389934558</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.0179836057634806</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.06237454389934558</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01808712724771094</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06240322356057583</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.01808712724771094</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.06240322356057583</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01818346702112956</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06243190322180608</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.01818346702112956</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.06243190322180608</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01827217887906071</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06246058288303633</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.01827217887906071</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.06246058288303633</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01835281661682871</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06248926254426657</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.01835281661682871</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.06248926254426657</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01842493402975793</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06251794220549681</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.01842493402975793</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.06251794220549681</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01848808491317267</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06254662186672706</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.01848808491317267</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.06254662186672706</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01854182306239722</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.0625753015279573</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.01854182306239722</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.0625753015279573</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01858570227275595</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06260398118918754</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.01858570227275595</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.06260398118918754</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01861927633957312</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06263266085041778</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.01861927633957312</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.06263266085041778</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01864209905817309</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06266134051164804</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.01864209905817309</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.06266134051164804</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.0186537242238802</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06269002017287828</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.0186537242238802</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.06269002017287828</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01865519590062818</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06271869983410853</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.01865519590062818</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.06271869983410853</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.0186551338955793</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06274737949533878</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.0186551338955793</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.06274737949533878</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01865490018424124</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06277605915656903</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.01865490018424124</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.06277605915656903</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01865438029575455</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06280473881779927</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.01865438029575455</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.06280473881779927</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01865345975925976</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06283341847902951</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.01865345975925976</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.06283341847902951</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01865202410389741</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06286209814025975</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.01865202410389741</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.06286209814025975</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01864995885880807</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06289077780149001</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.01864995885880807</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.06289077780149001</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01864714955313226</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06291945746272025</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.01864714955313226</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.06291945746272025</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01864348171601051</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06294813712395049</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.01864348171601051</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.06294813712395049</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.0186388408765834</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06297681678518073</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.0186388408765834</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.06297681678518073</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01863311256399146</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06300549644641099</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.01863311256399146</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.06300549644641099</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01862618230737523</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06303417610764123</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.01862618230737523</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.06303417610764123</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01861793563587526</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06306285576887147</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.01861793563587526</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.06306285576887147</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0186082580786321</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06309153543010171</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.0186082580786321</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.06309153543010171</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01859703516478626</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06312021509133196</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.01859703516478626</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.06312021509133196</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01858415242347832</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0631488947525622</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.01858415242347832</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.0631488947525622</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01856949538384881</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06317757441379246</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.01856949538384881</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.06317757441379246</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01855294957503829</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0632062540750227</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.01855294957503829</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.0632062540750227</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01853440052618727</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06323493373625295</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.01853440052618727</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.06323493373625295</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01851373376643633</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0632636133974832</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.01851373376643633</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.0632636133974832</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01849083482492601</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06329229305871344</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.01849083482492601</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.06329229305871344</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01846558923079682</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06332097271994368</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.01846558923079682</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.06332097271994368</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01843788251318933</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06334965238117393</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.01843788251318933</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.06334965238117393</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01840760020124409</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06337833204240417</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.01840760020124409</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.06337833204240417</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01837462782410163</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06340701170363441</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.01837462782410163</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.06340701170363441</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01837462782410163</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06340701170363441</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.01837462782410163</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.06340701170363441</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01815092864200716</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06658743805229352</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.01815092864200716</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.06658743805229352</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01795893223832138</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06976786440095262</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.01795893223832138</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.06976786440095262</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01779621611359725</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07294829074961171</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.01779621611359725</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.07294829074961171</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01766035776838774</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07612871709827079</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.01766035776838774</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.07612871709827079</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0175489347032458</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07930914344692989</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.0175489347032458</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.07930914344692989</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01745952441872444</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.082489569795589</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.01745952441872444</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.082489569795589</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01738970441537658</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08566999614424808</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.01738970441537658</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.08566999614424808</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01733705219375519</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08885042249290717</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.01733705219375519</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.08885042249290717</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01729914525441329</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.09203084884156627</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.01729914525441329</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.09203084884156627</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01727356109790377</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09521127519022538</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.01727356109790377</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.09521127519022538</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01725787722477962</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09839170153888448</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.01725787722477962</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.09839170153888448</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01724967113559382</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1015721278875436</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.01724967113559382</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.1015721278875436</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01724652033089933</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1047525542362027</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.01724652033089933</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.1047525542362027</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01724600231124913</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1079329805848618</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.01724600231124913</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.1079329805848618</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0173024918806644</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1111134069335208</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.0173024918806644</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.1111134069335208</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.01747147119132274</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1142938332821799</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.01747147119132274</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1142938332821799</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.01771664812416512</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.117474259630839</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.01771664812416512</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.117474259630839</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.01800117411891228</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1206546859794981</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.01800117411891228</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1206546859794981</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.01828820061528496</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1238351123281572</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.01828820061528496</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1238351123281572</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.01854087905300391</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1270155386768163</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.01854087905300391</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1270155386768163</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.01872236087178986</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1301959650254754</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.01872236087178986</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1301959650254754</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.01879579751136359</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1333763913741345</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.01879579751136359</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1333763913741345</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.01876308187287106</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1365568177227936</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.01876308187287106</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1365568177227936</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.01866156630888629</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1397372440714527</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.01866156630888629</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1397372440714527</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.0184976541911081</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1429176704201118</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.0184976541911081</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1429176704201118</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.01827766363857897</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1460980967687709</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.01827766363857897</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1460980967687709</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.0180079127703414</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.0180079127703414</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.01769471970543785</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1524589494660891</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.01769471970543785</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1524589494660891</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.01734440256291083</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1556393758147482</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.01734440256291083</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1556393758147482</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.01696327946180285</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1588198021634073</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.01696327946180285</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1588198021634073</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.01655766852115637</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1620002285120664</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.01655766852115637</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1620002285120664</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.01613388786001387</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1651806548607255</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.01613388786001387</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1651806548607255</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.01569825559741785</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1683610812093846</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.01569825559741785</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1683610812093846</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.01521861779625418</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1715415075580437</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.01521861779625418</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1715415075580437</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.01439254954476706</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1747219339067028</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.01439254954476706</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1747219339067028</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.01346995107283785</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1779023602553619</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.01346995107283785</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1779023602553619</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.01284663474625127</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.181082786604021</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.01284663474625127</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.181082786604021</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.01276984350967226</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1842632129526801</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.01276984350967226</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1842632129526801</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.01277448412764038</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1874436393013391</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.01277448412764038</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1874436393013391</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.01278380784436509</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1906240656499982</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.01278380784436509</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1906240656499982</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.01279813377845206</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1938044919986573</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.01279813377845206</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1938044919986573</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.01281778104850697</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1969849183473164</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.01281778104850697</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1969849183473164</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.01284306877313545</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.2001653446959756</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.01284306877313545</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.2001653446959756</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.01287431607094321</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.2033457710446346</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.01287431607094321</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.2033457710446346</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0129118420605359</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2065261973932937</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.0129118420605359</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.2065261973932937</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.01298103723567107</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2097066237419528</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.01298103723567107</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.2097066237419528</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0133078946816842</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2128870500906119</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.0133078946816842</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2128870500906119</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.01376652973974193</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.216067476439271</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.01376652973974193</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.216067476439271</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.01413257332796657</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2192479027879301</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.01413257332796657</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2192479027879301</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.01439495177412432</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2224283291365892</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.01439495177412432</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2224283291365892</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.01463158085577742</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2256087554852483</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.01463158085577742</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2256087554852483</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.01484961611396398</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2287891818339074</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.01484961611396398</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2287891818339074</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.01505621308972207</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2319696081825665</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.01505621308972207</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2319696081825665</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.01525852732408977</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2351500345312256</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.01525852732408977</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2351500345312256</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.01546101578058228</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2383304608798847</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.01546101578058228</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2383304608798847</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.01564156642712958</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2415108872285438</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.01564156642712958</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2415108872285438</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.01581275538956026</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2446913135772029</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.01581275538956026</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2446913135772029</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.0159988503981273</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.247871739925862</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.0159988503981273</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.247871739925862</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.01622411918308365</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.251052166274521</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.01622411918308365</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.251052166274521</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.01652831142211186</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2542325926231802</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.01652831142211186</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2542325926231802</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.01692947510318154</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2574130189718393</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.01692947510318154</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2574130189718393</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.01741447072256858</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2605934453204983</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.01741447072256858</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2605934453204983</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.01797012850973796</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2637738716691574</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.01797012850973796</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2637738716691574</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.01858327869415455</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2669542980178166</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.01858327869415455</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2669542980178166</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.01924075150528332</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2701347243664756</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.01924075150528332</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2701347243664756</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.0199293771725892</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2733151507151347</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.0199293771725892</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2733151507151347</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02063598592553711</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2764955770637939</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.02063598592553711</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2764955770637939</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02134740799359195</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.279676003412453</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.02134740799359195</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.279676003412453</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02205047360621865</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.282856429761112</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.02205047360621865</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.282856429761112</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.0227320129928822</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2860368561097711</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.0227320129928822</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2860368561097711</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02337885638304745</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2892172824584303</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.02337885638304745</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2892172824584303</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02397783400617935</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2923977088070893</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.02397783400617935</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2923977088070893</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02451577609174286</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2955781351557484</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.02451577609174286</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2955781351557484</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02497951286920288</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2987585615044075</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.02497951286920288</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2987585615044075</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02535587456802433</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.3019389878530666</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.02535587456802433</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.3019389878530666</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02563169141767215</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.3051194142017257</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.02563169141767215</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.3051194142017257</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02583283709880218</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.3082998405503848</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.02583283709880218</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.3082998405503848</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02580548992518856</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3114802668990439</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.02580548992518856</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3114802668990439</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02514185314059047</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.314660693247703</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.02514185314059047</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.314660693247703</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02377302102987509</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3178411195963621</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.02377302102987509</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3178411195963621</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02194203509296482</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3210215459450212</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.02194203509296482</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3210215459450212</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.01989193682978208</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3242019722936803</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.01989193682978208</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3242019722936803</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0178657677402493</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3273823986423394</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.0178657677402493</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3273823986423394</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.01610656932428885</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3305628249909985</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.01610656932428885</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3305628249909985</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.01485738308182318</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3337432513396575</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.01485738308182318</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3337432513396575</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.01418460863778668</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3369236776883167</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.01418460863778668</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3369236776883167</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.01358772386182575</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3401041040369758</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.01358772386182575</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3401041040369758</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.01301818685913025</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3432845303856348</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.01301818685913025</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3432845303856348</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.012479548037266</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3464649567342939</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.012479548037266</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3464649567342939</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.01197535780379875</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3496453830829531</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.01197535780379875</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3496453830829531</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.01150916656629433</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3528258094316121</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.01150916656629433</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3528258094316121</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.01108452473231854</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3560062357802712</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.01108452473231854</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3560062357802712</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.01070498270943714</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3591866621289304</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.01070498270943714</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3591866621289304</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.01037409090521597</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3623670884775894</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.01037409090521597</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3623670884775894</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.0100953997272208</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3655475148262485</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.0100953997272208</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3655475148262485</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.009872459583017426</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3687279411749076</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.009872459583017426</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3687279411749076</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.009708820880171665</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3719083675235667</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.009708820880171665</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3719083675235667</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.009608034026249282</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3750887938722258</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.009608034026249282</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3750887938722258</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.00957364942881609</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3782692202208849</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.00957364942881609</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3782692202208849</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
